--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['28', '70']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -1125,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2002,7 +2005,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2080,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -2208,7 +2211,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2698,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2826,7 +2829,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3032,7 +3035,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3110,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ10">
         <v>1.27</v>
@@ -3319,7 +3322,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3650,7 +3653,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3856,7 +3859,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4062,7 +4065,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4886,7 +4889,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4967,7 +4970,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5092,7 +5095,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5170,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20">
         <v>1.27</v>
@@ -5298,7 +5301,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5376,10 +5379,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ21">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5504,7 +5507,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5710,7 +5713,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6328,7 +6331,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6534,7 +6537,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6740,7 +6743,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6818,7 +6821,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6946,7 +6949,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7027,7 +7030,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ29">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7230,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7770,7 +7773,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7976,7 +7979,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8057,7 +8060,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ34">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR34">
         <v>1.39</v>
@@ -8182,7 +8185,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -9084,7 +9087,7 @@
         <v>1.25</v>
       </c>
       <c r="AP39">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ39">
         <v>0.87</v>
@@ -9418,7 +9421,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9624,7 +9627,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9702,7 +9705,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -9911,7 +9914,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -10117,7 +10120,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ44">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -10242,7 +10245,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10654,7 +10657,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10735,7 +10738,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ47">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR47">
         <v>1.56</v>
@@ -10860,7 +10863,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -11066,7 +11069,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11144,7 +11147,7 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
         <v>1.27</v>
@@ -11272,7 +11275,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11559,7 +11562,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR51">
         <v>1.18</v>
@@ -11684,7 +11687,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11890,7 +11893,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12302,7 +12305,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12714,7 +12717,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12920,7 +12923,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13204,10 +13207,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ59">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13410,10 +13413,10 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR60">
         <v>1.28</v>
@@ -13744,7 +13747,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13950,7 +13953,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14156,7 +14159,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14362,7 +14365,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14568,7 +14571,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14774,7 +14777,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14852,7 +14855,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ67">
         <v>1.4</v>
@@ -14980,7 +14983,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15267,7 +15270,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ69">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR69">
         <v>1.96</v>
@@ -15392,7 +15395,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15470,7 +15473,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ70">
         <v>1.27</v>
@@ -15679,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR71">
         <v>0.93</v>
@@ -15804,7 +15807,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16010,7 +16013,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16297,7 +16300,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ74">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -16422,7 +16425,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17118,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78">
         <v>0.87</v>
@@ -17452,7 +17455,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17533,7 +17536,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17736,7 +17739,7 @@
         <v>1.14</v>
       </c>
       <c r="AP81">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17864,7 +17867,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17945,7 +17948,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ82">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR82">
         <v>1.53</v>
@@ -18070,7 +18073,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18276,7 +18279,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18354,7 +18357,7 @@
         <v>0.88</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ84">
         <v>0.67</v>
@@ -18688,7 +18691,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18769,7 +18772,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR86">
         <v>1.59</v>
@@ -18894,7 +18897,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -18972,7 +18975,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ87">
         <v>0.93</v>
@@ -19100,7 +19103,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19306,7 +19309,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19718,7 +19721,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19924,7 +19927,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20002,7 +20005,7 @@
         <v>0.89</v>
       </c>
       <c r="AP92">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ92">
         <v>0.67</v>
@@ -20130,7 +20133,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20336,7 +20339,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>1.91</v>
@@ -20542,7 +20545,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21032,10 +21035,10 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ97">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR97">
         <v>1.22</v>
@@ -21160,7 +21163,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21447,7 +21450,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ99">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21572,7 +21575,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -21856,7 +21859,7 @@
         <v>1.33</v>
       </c>
       <c r="AP101">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ101">
         <v>1.27</v>
@@ -22602,7 +22605,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22808,7 +22811,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23014,7 +23017,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23220,7 +23223,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23298,7 +23301,7 @@
         <v>1.3</v>
       </c>
       <c r="AP108">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ108">
         <v>1.27</v>
@@ -23426,7 +23429,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23507,7 +23510,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ109">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR109">
         <v>1.9</v>
@@ -23838,7 +23841,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -23916,10 +23919,10 @@
         <v>1.7</v>
       </c>
       <c r="AP111">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ111">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -25074,7 +25077,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25152,7 +25155,7 @@
         <v>1.17</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25361,7 +25364,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ118">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR118">
         <v>1.07</v>
@@ -25486,7 +25489,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25564,7 +25567,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ119">
         <v>1.4</v>
@@ -25692,7 +25695,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25898,7 +25901,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26104,7 +26107,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26803,7 +26806,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ125">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR125">
         <v>1.5</v>
@@ -26928,7 +26931,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27134,7 +27137,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -27830,7 +27833,7 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ130">
         <v>0.87</v>
@@ -28164,7 +28167,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28245,7 +28248,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ132">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR132">
         <v>1.57</v>
@@ -28370,7 +28373,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28448,7 +28451,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ133">
         <v>0.8</v>
@@ -28657,7 +28660,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ134">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR134">
         <v>1.47</v>
@@ -28988,7 +28991,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29275,7 +29278,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ137">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AR137">
         <v>1.35</v>
@@ -29400,7 +29403,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29684,7 +29687,7 @@
         <v>1.23</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ139">
         <v>1.27</v>
@@ -29812,7 +29815,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -29893,7 +29896,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ140">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30018,7 +30021,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30430,7 +30433,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -31048,7 +31051,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31254,7 +31257,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31460,7 +31463,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31823,6 +31826,418 @@
       </c>
       <c r="BP149">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7451112</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F150">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>73</v>
+      </c>
+      <c r="H150" t="s">
+        <v>71</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>81</v>
+      </c>
+      <c r="P150" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q150">
+        <v>2.55</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>5</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.7</v>
+      </c>
+      <c r="V150">
+        <v>3.04</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>7</v>
+      </c>
+      <c r="Y150">
+        <v>1.06</v>
+      </c>
+      <c r="Z150">
+        <v>1.85</v>
+      </c>
+      <c r="AA150">
+        <v>3.1</v>
+      </c>
+      <c r="AB150">
+        <v>4</v>
+      </c>
+      <c r="AC150">
+        <v>1.05</v>
+      </c>
+      <c r="AD150">
+        <v>8</v>
+      </c>
+      <c r="AE150">
+        <v>1.36</v>
+      </c>
+      <c r="AF150">
+        <v>3</v>
+      </c>
+      <c r="AG150">
+        <v>2.1</v>
+      </c>
+      <c r="AH150">
+        <v>1.65</v>
+      </c>
+      <c r="AI150">
+        <v>1.87</v>
+      </c>
+      <c r="AJ150">
+        <v>1.85</v>
+      </c>
+      <c r="AK150">
+        <v>1.35</v>
+      </c>
+      <c r="AL150">
+        <v>1.36</v>
+      </c>
+      <c r="AM150">
+        <v>1.86</v>
+      </c>
+      <c r="AN150">
+        <v>1.36</v>
+      </c>
+      <c r="AO150">
+        <v>0.21</v>
+      </c>
+      <c r="AP150">
+        <v>1.27</v>
+      </c>
+      <c r="AQ150">
+        <v>0.4</v>
+      </c>
+      <c r="AR150">
+        <v>1.57</v>
+      </c>
+      <c r="AS150">
+        <v>0.92</v>
+      </c>
+      <c r="AT150">
+        <v>2.49</v>
+      </c>
+      <c r="AU150">
+        <v>9</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>10</v>
+      </c>
+      <c r="AX150">
+        <v>9</v>
+      </c>
+      <c r="AY150">
+        <v>19</v>
+      </c>
+      <c r="AZ150">
+        <v>15</v>
+      </c>
+      <c r="BA150">
+        <v>9</v>
+      </c>
+      <c r="BB150">
+        <v>3</v>
+      </c>
+      <c r="BC150">
+        <v>12</v>
+      </c>
+      <c r="BD150">
+        <v>1.48</v>
+      </c>
+      <c r="BE150">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF150">
+        <v>3.28</v>
+      </c>
+      <c r="BG150">
+        <v>1.46</v>
+      </c>
+      <c r="BH150">
+        <v>2.64</v>
+      </c>
+      <c r="BI150">
+        <v>1.81</v>
+      </c>
+      <c r="BJ150">
+        <v>1.99</v>
+      </c>
+      <c r="BK150">
+        <v>2.26</v>
+      </c>
+      <c r="BL150">
+        <v>1.6</v>
+      </c>
+      <c r="BM150">
+        <v>2.97</v>
+      </c>
+      <c r="BN150">
+        <v>1.3</v>
+      </c>
+      <c r="BO150">
+        <v>3.92</v>
+      </c>
+      <c r="BP150">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7451113</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45766.57291666666</v>
+      </c>
+      <c r="F151">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s">
+        <v>76</v>
+      </c>
+      <c r="H151" t="s">
+        <v>72</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>180</v>
+      </c>
+      <c r="P151" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q151">
+        <v>5.77</v>
+      </c>
+      <c r="R151">
+        <v>1.84</v>
+      </c>
+      <c r="S151">
+        <v>2.72</v>
+      </c>
+      <c r="T151">
+        <v>1.57</v>
+      </c>
+      <c r="U151">
+        <v>2.32</v>
+      </c>
+      <c r="V151">
+        <v>3.6</v>
+      </c>
+      <c r="W151">
+        <v>1.22</v>
+      </c>
+      <c r="X151">
+        <v>10</v>
+      </c>
+      <c r="Y151">
+        <v>1.02</v>
+      </c>
+      <c r="Z151">
+        <v>4</v>
+      </c>
+      <c r="AA151">
+        <v>2.9</v>
+      </c>
+      <c r="AB151">
+        <v>1.9</v>
+      </c>
+      <c r="AC151">
+        <v>1.1</v>
+      </c>
+      <c r="AD151">
+        <v>5.45</v>
+      </c>
+      <c r="AE151">
+        <v>1.57</v>
+      </c>
+      <c r="AF151">
+        <v>2.25</v>
+      </c>
+      <c r="AG151">
+        <v>2.81</v>
+      </c>
+      <c r="AH151">
+        <v>1.42</v>
+      </c>
+      <c r="AI151">
+        <v>2.29</v>
+      </c>
+      <c r="AJ151">
+        <v>1.6</v>
+      </c>
+      <c r="AK151">
+        <v>1.38</v>
+      </c>
+      <c r="AL151">
+        <v>1.39</v>
+      </c>
+      <c r="AM151">
+        <v>1.2</v>
+      </c>
+      <c r="AN151">
+        <v>1.5</v>
+      </c>
+      <c r="AO151">
+        <v>1.71</v>
+      </c>
+      <c r="AP151">
+        <v>1.6</v>
+      </c>
+      <c r="AQ151">
+        <v>1.6</v>
+      </c>
+      <c r="AR151">
+        <v>1.37</v>
+      </c>
+      <c r="AS151">
+        <v>1.28</v>
+      </c>
+      <c r="AT151">
+        <v>2.65</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>10</v>
+      </c>
+      <c r="AZ151">
+        <v>6</v>
+      </c>
+      <c r="BA151">
+        <v>3</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>5</v>
+      </c>
+      <c r="BD151">
+        <v>2.47</v>
+      </c>
+      <c r="BE151">
+        <v>7.4</v>
+      </c>
+      <c r="BF151">
+        <v>1.82</v>
+      </c>
+      <c r="BG151">
+        <v>1.5</v>
+      </c>
+      <c r="BH151">
+        <v>2.4</v>
+      </c>
+      <c r="BI151">
+        <v>1.86</v>
+      </c>
+      <c r="BJ151">
+        <v>1.84</v>
+      </c>
+      <c r="BK151">
+        <v>2.3</v>
+      </c>
+      <c r="BL151">
+        <v>1.47</v>
+      </c>
+      <c r="BM151">
+        <v>3</v>
+      </c>
+      <c r="BN151">
+        <v>1.33</v>
+      </c>
+      <c r="BO151">
+        <v>4.35</v>
+      </c>
+      <c r="BP151">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,9 @@
     <t>['28', '70']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -697,9 +700,6 @@
     <t>['34']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['53']</t>
   </si>
   <si>
@@ -767,6 +767,12 @@
   </si>
   <si>
     <t>['51', '78']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['6', '65']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1674,7 +1680,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ3">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2005,7 +2011,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2086,7 +2092,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2211,7 +2217,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2829,7 +2835,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2907,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ9">
         <v>1.27</v>
@@ -3035,7 +3041,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3528,7 +3534,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR12">
         <v>2.03</v>
@@ -3653,7 +3659,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3731,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3859,7 +3865,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3940,7 +3946,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ14">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.27</v>
@@ -4065,7 +4071,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4555,10 +4561,10 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR17">
         <v>1.8</v>
@@ -4889,7 +4895,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -5095,7 +5101,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5301,7 +5307,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5507,7 +5513,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5588,7 +5594,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5713,7 +5719,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5791,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23">
         <v>0.93</v>
@@ -6203,10 +6209,10 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ25">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.8</v>
@@ -6331,7 +6337,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6537,7 +6543,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6743,7 +6749,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6949,7 +6955,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7442,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.34</v>
@@ -7773,7 +7779,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7851,7 +7857,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>1.27</v>
@@ -7979,7 +7985,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8185,7 +8191,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8263,7 +8269,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35">
         <v>0.8</v>
@@ -8472,7 +8478,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -9090,7 +9096,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ39">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.73</v>
@@ -9421,7 +9427,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9627,7 +9633,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9911,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>0.4</v>
@@ -10117,7 +10123,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ44">
         <v>1.6</v>
@@ -10245,7 +10251,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10532,7 +10538,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10657,7 +10663,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10735,7 +10741,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ47">
         <v>1.6</v>
@@ -10863,7 +10869,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -11069,7 +11075,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11275,7 +11281,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11353,7 +11359,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50">
         <v>1.27</v>
@@ -11687,7 +11693,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11765,10 +11771,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -11893,7 +11899,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12180,7 +12186,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12305,7 +12311,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12717,7 +12723,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12923,7 +12929,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13001,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ58">
         <v>1.4</v>
@@ -13747,7 +13753,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13953,7 +13959,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14159,7 +14165,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14365,7 +14371,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14443,10 +14449,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14571,7 +14577,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14777,7 +14783,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14983,7 +14989,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15395,7 +15401,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15807,7 +15813,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15888,7 +15894,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -16013,7 +16019,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16091,7 +16097,7 @@
         <v>1.57</v>
       </c>
       <c r="AP73">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>0.8</v>
@@ -16425,7 +16431,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16503,7 +16509,7 @@
         <v>0.71</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ75">
         <v>0.93</v>
@@ -17124,7 +17130,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.18</v>
@@ -17455,7 +17461,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17867,7 +17873,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17945,7 +17951,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ82">
         <v>0.4</v>
@@ -18073,7 +18079,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18151,7 +18157,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83">
         <v>1.27</v>
@@ -18279,7 +18285,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18360,7 +18366,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR84">
         <v>1.2</v>
@@ -18691,7 +18697,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18897,7 +18903,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19103,7 +19109,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19309,7 +19315,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19390,7 +19396,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ89">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.93</v>
@@ -19721,7 +19727,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19927,7 +19933,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20008,7 +20014,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
         <v>1.57</v>
@@ -20133,7 +20139,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20214,7 +20220,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ93">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.14</v>
@@ -20339,7 +20345,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="Q94">
         <v>1.91</v>
@@ -21653,7 +21659,7 @@
         <v>1.44</v>
       </c>
       <c r="AP100">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ100">
         <v>1.27</v>
@@ -22068,7 +22074,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ102">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR102">
         <v>1.92</v>
@@ -22480,7 +22486,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ104">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -22889,7 +22895,7 @@
         <v>1.1</v>
       </c>
       <c r="AP106">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23429,7 +23435,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -24125,10 +24131,10 @@
         <v>0.82</v>
       </c>
       <c r="AP112">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.47</v>
@@ -24746,7 +24752,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ115">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR115">
         <v>1.11</v>
@@ -24949,7 +24955,7 @@
         <v>1.09</v>
       </c>
       <c r="AP116">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116">
         <v>0.93</v>
@@ -25982,7 +25988,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.15</v>
@@ -26188,7 +26194,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ122">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR122">
         <v>1.67</v>
@@ -26597,7 +26603,7 @@
         <v>1.09</v>
       </c>
       <c r="AP124">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ124">
         <v>0.8</v>
@@ -27009,7 +27015,7 @@
         <v>1.09</v>
       </c>
       <c r="AP126">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ126">
         <v>1.27</v>
@@ -27836,7 +27842,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ130">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.57</v>
@@ -28167,7 +28173,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28245,7 +28251,7 @@
         <v>0.08</v>
       </c>
       <c r="AP132">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132">
         <v>0.4</v>
@@ -28657,7 +28663,7 @@
         <v>1.75</v>
       </c>
       <c r="AP134">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ134">
         <v>1.6</v>
@@ -28866,7 +28872,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ135">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -28991,7 +28997,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29481,7 +29487,7 @@
         <v>1.15</v>
       </c>
       <c r="AP138">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ138">
         <v>1.27</v>
@@ -29893,7 +29899,7 @@
         <v>1.62</v>
       </c>
       <c r="AP140">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140">
         <v>1.6</v>
@@ -30305,10 +30311,10 @@
         <v>0.71</v>
       </c>
       <c r="AP142">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR142">
         <v>1.44</v>
@@ -30926,7 +30932,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ145">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.7</v>
@@ -31541,7 +31547,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ148">
         <v>1.4</v>
@@ -31875,7 +31881,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32238,6 +32244,418 @@
       </c>
       <c r="BP151">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7451117</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45769.5</v>
+      </c>
+      <c r="F152">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>79</v>
+      </c>
+      <c r="H152" t="s">
+        <v>78</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>81</v>
+      </c>
+      <c r="P152" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q152">
+        <v>2.67</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>4.1</v>
+      </c>
+      <c r="T152">
+        <v>1.42</v>
+      </c>
+      <c r="U152">
+        <v>2.65</v>
+      </c>
+      <c r="V152">
+        <v>3</v>
+      </c>
+      <c r="W152">
+        <v>1.35</v>
+      </c>
+      <c r="X152">
+        <v>7</v>
+      </c>
+      <c r="Y152">
+        <v>1.05</v>
+      </c>
+      <c r="Z152">
+        <v>2.17</v>
+      </c>
+      <c r="AA152">
+        <v>3.05</v>
+      </c>
+      <c r="AB152">
+        <v>3.45</v>
+      </c>
+      <c r="AC152">
+        <v>1.11</v>
+      </c>
+      <c r="AD152">
+        <v>6.74</v>
+      </c>
+      <c r="AE152">
+        <v>1.34</v>
+      </c>
+      <c r="AF152">
+        <v>2.88</v>
+      </c>
+      <c r="AG152">
+        <v>2.05</v>
+      </c>
+      <c r="AH152">
+        <v>1.74</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.95</v>
+      </c>
+      <c r="AK152">
+        <v>1.37</v>
+      </c>
+      <c r="AL152">
+        <v>1.3</v>
+      </c>
+      <c r="AM152">
+        <v>1.62</v>
+      </c>
+      <c r="AN152">
+        <v>1.53</v>
+      </c>
+      <c r="AO152">
+        <v>0.87</v>
+      </c>
+      <c r="AP152">
+        <v>1.44</v>
+      </c>
+      <c r="AQ152">
+        <v>1</v>
+      </c>
+      <c r="AR152">
+        <v>1.49</v>
+      </c>
+      <c r="AS152">
+        <v>1.32</v>
+      </c>
+      <c r="AT152">
+        <v>2.81</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>7</v>
+      </c>
+      <c r="AW152">
+        <v>8</v>
+      </c>
+      <c r="AX152">
+        <v>7</v>
+      </c>
+      <c r="AY152">
+        <v>12</v>
+      </c>
+      <c r="AZ152">
+        <v>14</v>
+      </c>
+      <c r="BA152">
+        <v>5</v>
+      </c>
+      <c r="BB152">
+        <v>3</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>1.6</v>
+      </c>
+      <c r="BE152">
+        <v>7.5</v>
+      </c>
+      <c r="BF152">
+        <v>3.01</v>
+      </c>
+      <c r="BG152">
+        <v>1.5</v>
+      </c>
+      <c r="BH152">
+        <v>2.4</v>
+      </c>
+      <c r="BI152">
+        <v>1.8</v>
+      </c>
+      <c r="BJ152">
+        <v>1.91</v>
+      </c>
+      <c r="BK152">
+        <v>2.3</v>
+      </c>
+      <c r="BL152">
+        <v>1.55</v>
+      </c>
+      <c r="BM152">
+        <v>3</v>
+      </c>
+      <c r="BN152">
+        <v>1.33</v>
+      </c>
+      <c r="BO152">
+        <v>4</v>
+      </c>
+      <c r="BP152">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7451116</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45769.59375</v>
+      </c>
+      <c r="F153">
+        <v>31</v>
+      </c>
+      <c r="G153" t="s">
+        <v>77</v>
+      </c>
+      <c r="H153" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>181</v>
+      </c>
+      <c r="P153" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q153">
+        <v>2.25</v>
+      </c>
+      <c r="R153">
+        <v>2.17</v>
+      </c>
+      <c r="S153">
+        <v>4.35</v>
+      </c>
+      <c r="T153">
+        <v>1.38</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
+        <v>2.77</v>
+      </c>
+      <c r="W153">
+        <v>1.41</v>
+      </c>
+      <c r="X153">
+        <v>6.4</v>
+      </c>
+      <c r="Y153">
+        <v>1.05</v>
+      </c>
+      <c r="Z153">
+        <v>1.68</v>
+      </c>
+      <c r="AA153">
+        <v>3.5</v>
+      </c>
+      <c r="AB153">
+        <v>4.3</v>
+      </c>
+      <c r="AC153">
+        <v>1.06</v>
+      </c>
+      <c r="AD153">
+        <v>8</v>
+      </c>
+      <c r="AE153">
+        <v>1.3</v>
+      </c>
+      <c r="AF153">
+        <v>3.3</v>
+      </c>
+      <c r="AG153">
+        <v>1.93</v>
+      </c>
+      <c r="AH153">
+        <v>1.75</v>
+      </c>
+      <c r="AI153">
+        <v>1.85</v>
+      </c>
+      <c r="AJ153">
+        <v>1.93</v>
+      </c>
+      <c r="AK153">
+        <v>1.3</v>
+      </c>
+      <c r="AL153">
+        <v>1.22</v>
+      </c>
+      <c r="AM153">
+        <v>2</v>
+      </c>
+      <c r="AN153">
+        <v>1.2</v>
+      </c>
+      <c r="AO153">
+        <v>0.67</v>
+      </c>
+      <c r="AP153">
+        <v>1.13</v>
+      </c>
+      <c r="AQ153">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR153">
+        <v>1.55</v>
+      </c>
+      <c r="AS153">
+        <v>1.03</v>
+      </c>
+      <c r="AT153">
+        <v>2.58</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>8</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>7</v>
+      </c>
+      <c r="AZ153">
+        <v>13</v>
+      </c>
+      <c r="BA153">
+        <v>4</v>
+      </c>
+      <c r="BB153">
+        <v>8</v>
+      </c>
+      <c r="BC153">
+        <v>12</v>
+      </c>
+      <c r="BD153">
+        <v>1.39</v>
+      </c>
+      <c r="BE153">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF153">
+        <v>4.06</v>
+      </c>
+      <c r="BG153">
+        <v>1.24</v>
+      </c>
+      <c r="BH153">
+        <v>3.2</v>
+      </c>
+      <c r="BI153">
+        <v>1.51</v>
+      </c>
+      <c r="BJ153">
+        <v>2.4</v>
+      </c>
+      <c r="BK153">
+        <v>2.09</v>
+      </c>
+      <c r="BL153">
+        <v>1.91</v>
+      </c>
+      <c r="BM153">
+        <v>2.25</v>
+      </c>
+      <c r="BN153">
+        <v>1.57</v>
+      </c>
+      <c r="BO153">
+        <v>2.9</v>
+      </c>
+      <c r="BP153">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,9 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -650,9 +653,6 @@
   </si>
   <si>
     <t>['45', '86']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['-1', '-1', '-1']</t>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>['6', '65']</t>
+  </si>
+  <si>
+    <t>['32', '53']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1477,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1677,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1883,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2011,7 +2014,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2217,7 +2220,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2295,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ6">
         <v>1.4</v>
@@ -2835,7 +2838,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3041,7 +3044,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3122,7 +3125,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR10">
         <v>3.14</v>
@@ -3659,7 +3662,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3865,7 +3868,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3943,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4071,7 +4074,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4149,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -4355,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR16">
         <v>1.93</v>
@@ -4895,7 +4898,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -5101,7 +5104,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5307,7 +5310,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5513,7 +5516,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5591,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ22">
         <v>0.8100000000000001</v>
@@ -5719,7 +5722,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5800,7 +5803,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ23">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -6003,10 +6006,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -6337,7 +6340,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6415,10 +6418,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -6543,7 +6546,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6749,7 +6752,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6955,7 +6958,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7033,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -7654,7 +7657,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR32">
         <v>1.2</v>
@@ -7779,7 +7782,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7860,7 +7863,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -7985,7 +7988,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8063,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ34">
         <v>0.4</v>
@@ -8191,7 +8194,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8272,7 +8275,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ35">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -8475,7 +8478,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.8100000000000001</v>
@@ -8684,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR37">
         <v>1.04</v>
@@ -9299,7 +9302,7 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.27</v>
@@ -9427,7 +9430,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9505,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ41">
         <v>1.4</v>
@@ -9633,7 +9636,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9714,7 +9717,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -10251,7 +10254,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10332,7 +10335,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR45">
         <v>1.19</v>
@@ -10535,7 +10538,7 @@
         <v>1.2</v>
       </c>
       <c r="AP46">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ46">
         <v>0.8100000000000001</v>
@@ -10663,7 +10666,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10869,7 +10872,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10950,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11075,7 +11078,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11156,7 +11159,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11281,7 +11284,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11693,7 +11696,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11899,7 +11902,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11977,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12183,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12311,7 +12314,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12392,7 +12395,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR55">
         <v>1.97</v>
@@ -12595,10 +12598,10 @@
         <v>0.8</v>
       </c>
       <c r="AP56">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ56">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR56">
         <v>1.17</v>
@@ -12723,7 +12726,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12804,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR57">
         <v>1.11</v>
@@ -12929,7 +12932,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13753,7 +13756,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13959,7 +13962,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14037,10 +14040,10 @@
         <v>1.83</v>
       </c>
       <c r="AP63">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ63">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14165,7 +14168,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14243,10 +14246,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ64">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR64">
         <v>1.63</v>
@@ -14371,7 +14374,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14577,7 +14580,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14655,10 +14658,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR66">
         <v>1.64</v>
@@ -16100,7 +16103,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ73">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16303,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>0.4</v>
@@ -16512,7 +16515,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ75">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR75">
         <v>1.54</v>
@@ -16715,10 +16718,10 @@
         <v>1.71</v>
       </c>
       <c r="AP76">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ76">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR76">
         <v>1.66</v>
@@ -17333,7 +17336,7 @@
         <v>1.43</v>
       </c>
       <c r="AP79">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ79">
         <v>1.27</v>
@@ -17873,7 +17876,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18079,7 +18082,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18160,7 +18163,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR83">
         <v>1.51</v>
@@ -18572,7 +18575,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -18775,7 +18778,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ86">
         <v>1.6</v>
@@ -18984,7 +18987,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ87">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR87">
         <v>1.57</v>
@@ -19187,7 +19190,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19599,7 +19602,7 @@
         <v>0.88</v>
       </c>
       <c r="AP90">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.4</v>
@@ -20217,7 +20220,7 @@
         <v>0.89</v>
       </c>
       <c r="AP93">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20426,7 +20429,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ94">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR94">
         <v>1.89</v>
@@ -20629,7 +20632,7 @@
         <v>1.22</v>
       </c>
       <c r="AP95">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20835,7 +20838,7 @@
         <v>0.78</v>
       </c>
       <c r="AP96">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ96">
         <v>1.4</v>
@@ -21868,7 +21871,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ101">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR101">
         <v>1.55</v>
@@ -22277,10 +22280,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ103">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR103">
         <v>1.14</v>
@@ -22483,7 +22486,7 @@
         <v>0.9</v>
       </c>
       <c r="AP104">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22689,10 +22692,10 @@
         <v>0.9</v>
       </c>
       <c r="AP105">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR105">
         <v>1.66</v>
@@ -23435,7 +23438,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -24337,10 +24340,10 @@
         <v>1.2</v>
       </c>
       <c r="AP113">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ113">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR113">
         <v>1.48</v>
@@ -24543,10 +24546,10 @@
         <v>1.2</v>
       </c>
       <c r="AP114">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR114">
         <v>1.68</v>
@@ -24749,7 +24752,7 @@
         <v>0.82</v>
       </c>
       <c r="AP115">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ115">
         <v>0.8100000000000001</v>
@@ -24958,7 +24961,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ116">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR116">
         <v>1.57</v>
@@ -25367,7 +25370,7 @@
         <v>1.82</v>
       </c>
       <c r="AP118">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ118">
         <v>1.6</v>
@@ -26191,7 +26194,7 @@
         <v>0.75</v>
       </c>
       <c r="AP122">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>0.8100000000000001</v>
@@ -26400,7 +26403,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ123">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR123">
         <v>1.35</v>
@@ -26606,7 +26609,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ124">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -26809,7 +26812,7 @@
         <v>0.09</v>
       </c>
       <c r="AP125">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ125">
         <v>0.4</v>
@@ -27018,7 +27021,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ126">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR126">
         <v>1.57</v>
@@ -27221,7 +27224,7 @@
         <v>1.15</v>
       </c>
       <c r="AP127">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ127">
         <v>1.4</v>
@@ -27430,7 +27433,7 @@
         <v>1</v>
       </c>
       <c r="AQ128">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR128">
         <v>1.18</v>
@@ -28045,7 +28048,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ131">
         <v>1.27</v>
@@ -28173,7 +28176,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28460,7 +28463,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ133">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR133">
         <v>1.26</v>
@@ -28869,7 +28872,7 @@
         <v>0.77</v>
       </c>
       <c r="AP135">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ135">
         <v>0.8100000000000001</v>
@@ -29078,7 +29081,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ136">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR136">
         <v>1.36</v>
@@ -29696,7 +29699,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ139">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR139">
         <v>1.32</v>
@@ -30108,7 +30111,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR141">
         <v>1.17</v>
@@ -30517,10 +30520,10 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ143">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR143">
         <v>1.02</v>
@@ -30726,7 +30729,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ144">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR144">
         <v>1.94</v>
@@ -30929,7 +30932,7 @@
         <v>0.93</v>
       </c>
       <c r="AP145">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
         <v>1</v>
@@ -31135,7 +31138,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31344,7 +31347,7 @@
         <v>1</v>
       </c>
       <c r="AQ147">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR147">
         <v>1.2</v>
@@ -31881,7 +31884,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32656,6 +32659,624 @@
       </c>
       <c r="BP153">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7451120</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45770.41666666666</v>
+      </c>
+      <c r="F154">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154" t="s">
+        <v>70</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>182</v>
+      </c>
+      <c r="P154" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q154">
+        <v>5.75</v>
+      </c>
+      <c r="R154">
+        <v>2.45</v>
+      </c>
+      <c r="S154">
+        <v>1.89</v>
+      </c>
+      <c r="T154">
+        <v>1.29</v>
+      </c>
+      <c r="U154">
+        <v>3.3</v>
+      </c>
+      <c r="V154">
+        <v>2.4</v>
+      </c>
+      <c r="W154">
+        <v>1.53</v>
+      </c>
+      <c r="X154">
+        <v>5.25</v>
+      </c>
+      <c r="Y154">
+        <v>1.12</v>
+      </c>
+      <c r="Z154">
+        <v>7.33</v>
+      </c>
+      <c r="AA154">
+        <v>4.75</v>
+      </c>
+      <c r="AB154">
+        <v>1.3</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>13</v>
+      </c>
+      <c r="AE154">
+        <v>1.17</v>
+      </c>
+      <c r="AF154">
+        <v>4.05</v>
+      </c>
+      <c r="AG154">
+        <v>1.65</v>
+      </c>
+      <c r="AH154">
+        <v>2.23</v>
+      </c>
+      <c r="AI154">
+        <v>1.91</v>
+      </c>
+      <c r="AJ154">
+        <v>1.8</v>
+      </c>
+      <c r="AK154">
+        <v>1.18</v>
+      </c>
+      <c r="AL154">
+        <v>1.14</v>
+      </c>
+      <c r="AM154">
+        <v>1.1</v>
+      </c>
+      <c r="AN154">
+        <v>1.73</v>
+      </c>
+      <c r="AO154">
+        <v>1.27</v>
+      </c>
+      <c r="AP154">
+        <v>1.81</v>
+      </c>
+      <c r="AQ154">
+        <v>1.19</v>
+      </c>
+      <c r="AR154">
+        <v>1.06</v>
+      </c>
+      <c r="AS154">
+        <v>1.83</v>
+      </c>
+      <c r="AT154">
+        <v>2.89</v>
+      </c>
+      <c r="AU154">
+        <v>2</v>
+      </c>
+      <c r="AV154">
+        <v>6</v>
+      </c>
+      <c r="AW154">
+        <v>2</v>
+      </c>
+      <c r="AX154">
+        <v>13</v>
+      </c>
+      <c r="AY154">
+        <v>4</v>
+      </c>
+      <c r="AZ154">
+        <v>19</v>
+      </c>
+      <c r="BA154">
+        <v>1</v>
+      </c>
+      <c r="BB154">
+        <v>17</v>
+      </c>
+      <c r="BC154">
+        <v>18</v>
+      </c>
+      <c r="BD154">
+        <v>4.9</v>
+      </c>
+      <c r="BE154">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF154">
+        <v>1.29</v>
+      </c>
+      <c r="BG154">
+        <v>1.35</v>
+      </c>
+      <c r="BH154">
+        <v>2.84</v>
+      </c>
+      <c r="BI154">
+        <v>1.66</v>
+      </c>
+      <c r="BJ154">
+        <v>2.09</v>
+      </c>
+      <c r="BK154">
+        <v>2.1</v>
+      </c>
+      <c r="BL154">
+        <v>1.67</v>
+      </c>
+      <c r="BM154">
+        <v>2.74</v>
+      </c>
+      <c r="BN154">
+        <v>1.35</v>
+      </c>
+      <c r="BO154">
+        <v>3.42</v>
+      </c>
+      <c r="BP154">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7451118</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45770.52083333334</v>
+      </c>
+      <c r="F155">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
+        <v>74</v>
+      </c>
+      <c r="H155" t="s">
+        <v>76</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>81</v>
+      </c>
+      <c r="P155" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q155">
+        <v>2.15</v>
+      </c>
+      <c r="R155">
+        <v>2.25</v>
+      </c>
+      <c r="S155">
+        <v>5</v>
+      </c>
+      <c r="T155">
+        <v>1.38</v>
+      </c>
+      <c r="U155">
+        <v>2.75</v>
+      </c>
+      <c r="V155">
+        <v>2.88</v>
+      </c>
+      <c r="W155">
+        <v>1.38</v>
+      </c>
+      <c r="X155">
+        <v>7.3</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>1.51</v>
+      </c>
+      <c r="AA155">
+        <v>4.1</v>
+      </c>
+      <c r="AB155">
+        <v>6.2</v>
+      </c>
+      <c r="AC155">
+        <v>1.05</v>
+      </c>
+      <c r="AD155">
+        <v>9.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.3</v>
+      </c>
+      <c r="AF155">
+        <v>3.1</v>
+      </c>
+      <c r="AG155">
+        <v>1.93</v>
+      </c>
+      <c r="AH155">
+        <v>1.77</v>
+      </c>
+      <c r="AI155">
+        <v>2.02</v>
+      </c>
+      <c r="AJ155">
+        <v>1.75</v>
+      </c>
+      <c r="AK155">
+        <v>1.25</v>
+      </c>
+      <c r="AL155">
+        <v>1.2</v>
+      </c>
+      <c r="AM155">
+        <v>2.48</v>
+      </c>
+      <c r="AN155">
+        <v>2.47</v>
+      </c>
+      <c r="AO155">
+        <v>0.93</v>
+      </c>
+      <c r="AP155">
+        <v>2.31</v>
+      </c>
+      <c r="AQ155">
+        <v>1.06</v>
+      </c>
+      <c r="AR155">
+        <v>1.56</v>
+      </c>
+      <c r="AS155">
+        <v>1.06</v>
+      </c>
+      <c r="AT155">
+        <v>2.62</v>
+      </c>
+      <c r="AU155">
+        <v>6</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>12</v>
+      </c>
+      <c r="AX155">
+        <v>4</v>
+      </c>
+      <c r="AY155">
+        <v>18</v>
+      </c>
+      <c r="AZ155">
+        <v>8</v>
+      </c>
+      <c r="BA155">
+        <v>4</v>
+      </c>
+      <c r="BB155">
+        <v>2</v>
+      </c>
+      <c r="BC155">
+        <v>6</v>
+      </c>
+      <c r="BD155">
+        <v>1.49</v>
+      </c>
+      <c r="BE155">
+        <v>7.7</v>
+      </c>
+      <c r="BF155">
+        <v>3.24</v>
+      </c>
+      <c r="BG155">
+        <v>1.5</v>
+      </c>
+      <c r="BH155">
+        <v>2.51</v>
+      </c>
+      <c r="BI155">
+        <v>1.83</v>
+      </c>
+      <c r="BJ155">
+        <v>1.91</v>
+      </c>
+      <c r="BK155">
+        <v>2.77</v>
+      </c>
+      <c r="BL155">
+        <v>1.55</v>
+      </c>
+      <c r="BM155">
+        <v>3.14</v>
+      </c>
+      <c r="BN155">
+        <v>1.33</v>
+      </c>
+      <c r="BO155">
+        <v>4.15</v>
+      </c>
+      <c r="BP155">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7451119</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45770.625</v>
+      </c>
+      <c r="F156">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
+        <v>72</v>
+      </c>
+      <c r="H156" t="s">
+        <v>73</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>81</v>
+      </c>
+      <c r="P156" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q156">
+        <v>1.9</v>
+      </c>
+      <c r="R156">
+        <v>2.3</v>
+      </c>
+      <c r="S156">
+        <v>7</v>
+      </c>
+      <c r="T156">
+        <v>1.41</v>
+      </c>
+      <c r="U156">
+        <v>2.8</v>
+      </c>
+      <c r="V156">
+        <v>2.8</v>
+      </c>
+      <c r="W156">
+        <v>1.4</v>
+      </c>
+      <c r="X156">
+        <v>6.5</v>
+      </c>
+      <c r="Y156">
+        <v>1.08</v>
+      </c>
+      <c r="Z156">
+        <v>1.39</v>
+      </c>
+      <c r="AA156">
+        <v>4.3</v>
+      </c>
+      <c r="AB156">
+        <v>6.2</v>
+      </c>
+      <c r="AC156">
+        <v>1.02</v>
+      </c>
+      <c r="AD156">
+        <v>8</v>
+      </c>
+      <c r="AE156">
+        <v>1.27</v>
+      </c>
+      <c r="AF156">
+        <v>3.32</v>
+      </c>
+      <c r="AG156">
+        <v>1.93</v>
+      </c>
+      <c r="AH156">
+        <v>1.8</v>
+      </c>
+      <c r="AI156">
+        <v>2.24</v>
+      </c>
+      <c r="AJ156">
+        <v>1.65</v>
+      </c>
+      <c r="AK156">
+        <v>1.2</v>
+      </c>
+      <c r="AL156">
+        <v>1.18</v>
+      </c>
+      <c r="AM156">
+        <v>2.86</v>
+      </c>
+      <c r="AN156">
+        <v>2.13</v>
+      </c>
+      <c r="AO156">
+        <v>0.8</v>
+      </c>
+      <c r="AP156">
+        <v>2</v>
+      </c>
+      <c r="AQ156">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR156">
+        <v>1.7</v>
+      </c>
+      <c r="AS156">
+        <v>1.26</v>
+      </c>
+      <c r="AT156">
+        <v>2.96</v>
+      </c>
+      <c r="AU156">
+        <v>2</v>
+      </c>
+      <c r="AV156">
+        <v>8</v>
+      </c>
+      <c r="AW156">
+        <v>18</v>
+      </c>
+      <c r="AX156">
+        <v>3</v>
+      </c>
+      <c r="AY156">
+        <v>20</v>
+      </c>
+      <c r="AZ156">
+        <v>11</v>
+      </c>
+      <c r="BA156">
+        <v>8</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>12</v>
+      </c>
+      <c r="BD156">
+        <v>1.31</v>
+      </c>
+      <c r="BE156">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF156">
+        <v>4.25</v>
+      </c>
+      <c r="BG156">
+        <v>1.36</v>
+      </c>
+      <c r="BH156">
+        <v>2.9</v>
+      </c>
+      <c r="BI156">
+        <v>1.61</v>
+      </c>
+      <c r="BJ156">
+        <v>2.2</v>
+      </c>
+      <c r="BK156">
+        <v>2</v>
+      </c>
+      <c r="BL156">
+        <v>1.75</v>
+      </c>
+      <c r="BM156">
+        <v>2.5</v>
+      </c>
+      <c r="BN156">
+        <v>1.46</v>
+      </c>
+      <c r="BO156">
+        <v>3.3</v>
+      </c>
+      <c r="BP156">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['60', '83']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -1137,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1889,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2014,7 +2017,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2220,7 +2223,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2838,7 +2841,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3044,7 +3047,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3328,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>1.6</v>
@@ -3662,7 +3665,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3743,7 +3746,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3868,7 +3871,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4074,7 +4077,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4770,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -4898,7 +4901,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -5104,7 +5107,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5310,7 +5313,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5516,7 +5519,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5722,7 +5725,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6340,7 +6343,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6546,7 +6549,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6752,7 +6755,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6833,7 +6836,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6958,7 +6961,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7654,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>1.06</v>
@@ -7782,7 +7785,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7988,7 +7991,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8194,7 +8197,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8893,7 +8896,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.94</v>
@@ -9430,7 +9433,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9636,7 +9639,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10254,7 +10257,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10332,7 +10335,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
         <v>1.19</v>
@@ -10666,7 +10669,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10872,7 +10875,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -11078,7 +11081,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11284,7 +11287,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11568,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
         <v>0.4</v>
@@ -11696,7 +11699,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11902,7 +11905,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11983,7 +11986,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12314,7 +12317,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12726,7 +12729,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12932,7 +12935,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13628,7 +13631,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
         <v>1.27</v>
@@ -13756,7 +13759,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13837,7 +13840,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR62">
         <v>0.93</v>
@@ -13962,7 +13965,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14374,7 +14377,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14580,7 +14583,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14786,7 +14789,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14992,7 +14995,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15070,10 +15073,10 @@
         <v>1.17</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR68">
         <v>1.39</v>
@@ -15404,7 +15407,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15816,7 +15819,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15894,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
         <v>0.8100000000000001</v>
@@ -16022,7 +16025,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16434,7 +16437,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17464,7 +17467,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17751,7 +17754,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17876,7 +17879,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18082,7 +18085,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18288,7 +18291,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18572,7 +18575,7 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
         <v>0.9399999999999999</v>
@@ -18700,7 +18703,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18906,7 +18909,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19112,7 +19115,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19193,7 +19196,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>1.12</v>
@@ -19318,7 +19321,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19730,7 +19733,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19936,7 +19939,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20142,7 +20145,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20554,7 +20557,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20635,7 +20638,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -21172,7 +21175,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21456,7 +21459,7 @@
         <v>1.89</v>
       </c>
       <c r="AP99">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ99">
         <v>1.6</v>
@@ -21584,7 +21587,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -22614,7 +22617,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22820,7 +22823,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22901,7 +22904,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
         <v>1.58</v>
@@ -23026,7 +23029,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23107,7 +23110,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR107">
         <v>1.16</v>
@@ -23232,7 +23235,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23438,7 +23441,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23722,7 +23725,7 @@
         <v>0.82</v>
       </c>
       <c r="AP110">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
         <v>1.4</v>
@@ -23850,7 +23853,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -25086,7 +25089,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25167,7 +25170,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR117">
         <v>1.26</v>
@@ -25498,7 +25501,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25704,7 +25707,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25910,7 +25913,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26116,7 +26119,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26400,7 +26403,7 @@
         <v>1.08</v>
       </c>
       <c r="AP123">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
         <v>1.06</v>
@@ -26940,7 +26943,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27146,7 +27149,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -27639,7 +27642,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
         <v>1.87</v>
@@ -28176,7 +28179,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28382,7 +28385,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -29000,7 +29003,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29078,7 +29081,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ136">
         <v>1.19</v>
@@ -29284,7 +29287,7 @@
         <v>0.15</v>
       </c>
       <c r="AP137">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ137">
         <v>0.4</v>
@@ -29412,7 +29415,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29824,7 +29827,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -30030,7 +30033,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30442,7 +30445,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -31060,7 +31063,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31141,7 +31144,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.53</v>
@@ -31266,7 +31269,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31472,7 +31475,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31756,7 +31759,7 @@
         <v>1.29</v>
       </c>
       <c r="AP149">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ149">
         <v>1.27</v>
@@ -31884,7 +31887,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32296,7 +32299,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32502,7 +32505,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32914,7 +32917,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33120,7 +33123,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33277,6 +33280,212 @@
       </c>
       <c r="BP156">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7451125</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45773.54166666666</v>
+      </c>
+      <c r="F157">
+        <v>32</v>
+      </c>
+      <c r="G157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H157" t="s">
+        <v>77</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>183</v>
+      </c>
+      <c r="P157" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q157">
+        <v>2.7</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>4.45</v>
+      </c>
+      <c r="T157">
+        <v>1.4</v>
+      </c>
+      <c r="U157">
+        <v>2.62</v>
+      </c>
+      <c r="V157">
+        <v>3</v>
+      </c>
+      <c r="W157">
+        <v>1.33</v>
+      </c>
+      <c r="X157">
+        <v>7</v>
+      </c>
+      <c r="Y157">
+        <v>1.01</v>
+      </c>
+      <c r="Z157">
+        <v>2</v>
+      </c>
+      <c r="AA157">
+        <v>3</v>
+      </c>
+      <c r="AB157">
+        <v>3.25</v>
+      </c>
+      <c r="AC157">
+        <v>1.06</v>
+      </c>
+      <c r="AD157">
+        <v>8.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.37</v>
+      </c>
+      <c r="AF157">
+        <v>2.8</v>
+      </c>
+      <c r="AG157">
+        <v>2.05</v>
+      </c>
+      <c r="AH157">
+        <v>1.67</v>
+      </c>
+      <c r="AI157">
+        <v>1.93</v>
+      </c>
+      <c r="AJ157">
+        <v>1.91</v>
+      </c>
+      <c r="AK157">
+        <v>1.35</v>
+      </c>
+      <c r="AL157">
+        <v>0</v>
+      </c>
+      <c r="AM157">
+        <v>1.73</v>
+      </c>
+      <c r="AN157">
+        <v>1.67</v>
+      </c>
+      <c r="AO157">
+        <v>1</v>
+      </c>
+      <c r="AP157">
+        <v>1.75</v>
+      </c>
+      <c r="AQ157">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR157">
+        <v>1.42</v>
+      </c>
+      <c r="AS157">
+        <v>1.52</v>
+      </c>
+      <c r="AT157">
+        <v>2.94</v>
+      </c>
+      <c r="AU157">
+        <v>7</v>
+      </c>
+      <c r="AV157">
+        <v>2</v>
+      </c>
+      <c r="AW157">
+        <v>6</v>
+      </c>
+      <c r="AX157">
+        <v>2</v>
+      </c>
+      <c r="AY157">
+        <v>13</v>
+      </c>
+      <c r="AZ157">
+        <v>4</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>2</v>
+      </c>
+      <c r="BC157">
+        <v>7</v>
+      </c>
+      <c r="BD157">
+        <v>1.78</v>
+      </c>
+      <c r="BE157">
+        <v>7.4</v>
+      </c>
+      <c r="BF157">
+        <v>2.53</v>
+      </c>
+      <c r="BG157">
+        <v>1.36</v>
+      </c>
+      <c r="BH157">
+        <v>2.87</v>
+      </c>
+      <c r="BI157">
+        <v>1.64</v>
+      </c>
+      <c r="BJ157">
+        <v>2.2</v>
+      </c>
+      <c r="BK157">
+        <v>2.02</v>
+      </c>
+      <c r="BL157">
+        <v>1.75</v>
+      </c>
+      <c r="BM157">
+        <v>2.55</v>
+      </c>
+      <c r="BN157">
+        <v>1.45</v>
+      </c>
+      <c r="BO157">
+        <v>3.38</v>
+      </c>
+      <c r="BP157">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>['60', '83']</t>
+  </si>
+  <si>
+    <t>['71', '90+5']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -1140,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
         <v>1.06</v>
@@ -2017,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2095,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
         <v>0.8100000000000001</v>
@@ -2223,7 +2226,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2841,7 +2844,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2922,7 +2925,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ9">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3047,7 +3050,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3125,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
         <v>1.19</v>
@@ -3334,7 +3337,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3537,7 +3540,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>0.8100000000000001</v>
@@ -3665,7 +3668,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3871,7 +3874,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4077,7 +4080,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4901,7 +4904,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4979,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>0.4</v>
@@ -5107,7 +5110,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5188,7 +5191,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ20">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -5313,7 +5316,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5391,10 +5394,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5519,7 +5522,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5725,7 +5728,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6343,7 +6346,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6549,7 +6552,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6627,10 +6630,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ27">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6755,7 +6758,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6961,7 +6964,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7042,7 +7045,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7245,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7785,7 +7788,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7991,7 +7994,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8197,7 +8200,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8893,7 +8896,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -9099,7 +9102,7 @@
         <v>1.25</v>
       </c>
       <c r="AP39">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9308,7 +9311,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9433,7 +9436,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9639,7 +9642,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10132,7 +10135,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ44">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -10257,7 +10260,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10669,7 +10672,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10750,7 +10753,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ47">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.56</v>
@@ -10875,7 +10878,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -11081,7 +11084,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11287,7 +11290,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11368,7 +11371,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR50">
         <v>1.52</v>
@@ -11699,7 +11702,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11905,7 +11908,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12317,7 +12320,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12395,7 +12398,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ55">
         <v>0.9399999999999999</v>
@@ -12729,7 +12732,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12935,7 +12938,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13219,7 +13222,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>0.4</v>
@@ -13428,7 +13431,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ60">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.28</v>
@@ -13634,7 +13637,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR61">
         <v>1.34</v>
@@ -13759,7 +13762,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13965,7 +13968,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14377,7 +14380,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14583,7 +14586,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14789,7 +14792,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14995,7 +14998,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15279,10 +15282,10 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ69">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.96</v>
@@ -15407,7 +15410,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15485,10 +15488,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR70">
         <v>1.61</v>
@@ -15819,7 +15822,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16025,7 +16028,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16437,7 +16440,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16927,7 +16930,7 @@
         <v>0.86</v>
       </c>
       <c r="AP77">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>1.4</v>
@@ -17342,7 +17345,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ79">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR79">
         <v>1.09</v>
@@ -17467,7 +17470,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17548,7 +17551,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17751,7 +17754,7 @@
         <v>1.14</v>
       </c>
       <c r="AP81">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81">
         <v>0.9399999999999999</v>
@@ -17879,7 +17882,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18085,7 +18088,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18291,7 +18294,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18703,7 +18706,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18784,7 +18787,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.59</v>
@@ -18909,7 +18912,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -18987,7 +18990,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
         <v>1.06</v>
@@ -19115,7 +19118,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19321,7 +19324,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19399,7 +19402,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19733,7 +19736,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19814,7 +19817,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR91">
         <v>1.08</v>
@@ -19939,7 +19942,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20017,7 +20020,7 @@
         <v>0.89</v>
       </c>
       <c r="AP92">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -20145,7 +20148,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20429,7 +20432,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ94">
         <v>1.06</v>
@@ -20557,7 +20560,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -21175,7 +21178,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21462,7 +21465,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ99">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21587,7 +21590,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -21668,7 +21671,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ100">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR100">
         <v>1.46</v>
@@ -21871,7 +21874,7 @@
         <v>1.33</v>
       </c>
       <c r="AP101">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>1.19</v>
@@ -22077,7 +22080,7 @@
         <v>0.9</v>
       </c>
       <c r="AP102">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ102">
         <v>0.8100000000000001</v>
@@ -22617,7 +22620,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22823,7 +22826,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23029,7 +23032,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23235,7 +23238,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23316,7 +23319,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ108">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR108">
         <v>1.28</v>
@@ -23441,7 +23444,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23519,7 +23522,7 @@
         <v>0.1</v>
       </c>
       <c r="AP109">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ109">
         <v>0.4</v>
@@ -23853,7 +23856,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -23931,10 +23934,10 @@
         <v>1.7</v>
       </c>
       <c r="AP111">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -25089,7 +25092,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25376,7 +25379,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ118">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR118">
         <v>1.07</v>
@@ -25501,7 +25504,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25579,7 +25582,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
         <v>1.4</v>
@@ -25707,7 +25710,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25785,10 +25788,10 @@
         <v>1.27</v>
       </c>
       <c r="AP120">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ120">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR120">
         <v>1.93</v>
@@ -25913,7 +25916,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26119,7 +26122,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26943,7 +26946,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27149,7 +27152,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -27639,7 +27642,7 @@
         <v>1.08</v>
       </c>
       <c r="AP129">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ129">
         <v>0.9399999999999999</v>
@@ -27845,7 +27848,7 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -28054,7 +28057,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR131">
         <v>1.7</v>
@@ -28179,7 +28182,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28385,7 +28388,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28672,7 +28675,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ134">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.47</v>
@@ -29003,7 +29006,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29415,7 +29418,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29496,7 +29499,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ138">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -29827,7 +29830,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -29908,7 +29911,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ140">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30033,7 +30036,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30445,7 +30448,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -30729,7 +30732,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ144">
         <v>0.9399999999999999</v>
@@ -31063,7 +31066,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31269,7 +31272,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31475,7 +31478,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31762,7 +31765,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ149">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR149">
         <v>1.39</v>
@@ -31887,7 +31890,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -31965,7 +31968,7 @@
         <v>0.21</v>
       </c>
       <c r="AP150">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ150">
         <v>0.4</v>
@@ -32174,7 +32177,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ151">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR151">
         <v>1.37</v>
@@ -32299,7 +32302,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32505,7 +32508,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32917,7 +32920,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33123,7 +33126,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33329,7 +33332,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33486,6 +33489,418 @@
       </c>
       <c r="BP157">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7451123</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45774.45833333334</v>
+      </c>
+      <c r="F158">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>73</v>
+      </c>
+      <c r="H158" t="s">
+        <v>74</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>184</v>
+      </c>
+      <c r="P158" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q158">
+        <v>4.22</v>
+      </c>
+      <c r="R158">
+        <v>2.06</v>
+      </c>
+      <c r="S158">
+        <v>2.55</v>
+      </c>
+      <c r="T158">
+        <v>1.44</v>
+      </c>
+      <c r="U158">
+        <v>2.55</v>
+      </c>
+      <c r="V158">
+        <v>2.95</v>
+      </c>
+      <c r="W158">
+        <v>1.33</v>
+      </c>
+      <c r="X158">
+        <v>7.6</v>
+      </c>
+      <c r="Y158">
+        <v>1.03</v>
+      </c>
+      <c r="Z158">
+        <v>3.8</v>
+      </c>
+      <c r="AA158">
+        <v>3.25</v>
+      </c>
+      <c r="AB158">
+        <v>1.95</v>
+      </c>
+      <c r="AC158">
+        <v>1.05</v>
+      </c>
+      <c r="AD158">
+        <v>8</v>
+      </c>
+      <c r="AE158">
+        <v>1.35</v>
+      </c>
+      <c r="AF158">
+        <v>2.9</v>
+      </c>
+      <c r="AG158">
+        <v>2.05</v>
+      </c>
+      <c r="AH158">
+        <v>1.68</v>
+      </c>
+      <c r="AI158">
+        <v>1.79</v>
+      </c>
+      <c r="AJ158">
+        <v>1.77</v>
+      </c>
+      <c r="AK158">
+        <v>1.8</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>1.21</v>
+      </c>
+      <c r="AN158">
+        <v>1.27</v>
+      </c>
+      <c r="AO158">
+        <v>1.27</v>
+      </c>
+      <c r="AP158">
+        <v>1.38</v>
+      </c>
+      <c r="AQ158">
+        <v>1.19</v>
+      </c>
+      <c r="AR158">
+        <v>1.63</v>
+      </c>
+      <c r="AS158">
+        <v>1.42</v>
+      </c>
+      <c r="AT158">
+        <v>3.05</v>
+      </c>
+      <c r="AU158">
+        <v>6</v>
+      </c>
+      <c r="AV158">
+        <v>2</v>
+      </c>
+      <c r="AW158">
+        <v>7</v>
+      </c>
+      <c r="AX158">
+        <v>11</v>
+      </c>
+      <c r="AY158">
+        <v>13</v>
+      </c>
+      <c r="AZ158">
+        <v>13</v>
+      </c>
+      <c r="BA158">
+        <v>8</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>12</v>
+      </c>
+      <c r="BD158">
+        <v>2.49</v>
+      </c>
+      <c r="BE158">
+        <v>7.7</v>
+      </c>
+      <c r="BF158">
+        <v>1.67</v>
+      </c>
+      <c r="BG158">
+        <v>1.28</v>
+      </c>
+      <c r="BH158">
+        <v>3.08</v>
+      </c>
+      <c r="BI158">
+        <v>1.69</v>
+      </c>
+      <c r="BJ158">
+        <v>2.25</v>
+      </c>
+      <c r="BK158">
+        <v>1.95</v>
+      </c>
+      <c r="BL158">
+        <v>1.76</v>
+      </c>
+      <c r="BM158">
+        <v>2.54</v>
+      </c>
+      <c r="BN158">
+        <v>1.43</v>
+      </c>
+      <c r="BO158">
+        <v>3.42</v>
+      </c>
+      <c r="BP158">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7451122</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45774.57291666666</v>
+      </c>
+      <c r="F159">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>155</v>
+      </c>
+      <c r="P159" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q159">
+        <v>2.29</v>
+      </c>
+      <c r="R159">
+        <v>2.03</v>
+      </c>
+      <c r="S159">
+        <v>5</v>
+      </c>
+      <c r="T159">
+        <v>1.42</v>
+      </c>
+      <c r="U159">
+        <v>2.6</v>
+      </c>
+      <c r="V159">
+        <v>3.15</v>
+      </c>
+      <c r="W159">
+        <v>1.32</v>
+      </c>
+      <c r="X159">
+        <v>8.9</v>
+      </c>
+      <c r="Y159">
+        <v>1.06</v>
+      </c>
+      <c r="Z159">
+        <v>1.71</v>
+      </c>
+      <c r="AA159">
+        <v>3.35</v>
+      </c>
+      <c r="AB159">
+        <v>4.2</v>
+      </c>
+      <c r="AC159">
+        <v>1</v>
+      </c>
+      <c r="AD159">
+        <v>8.5</v>
+      </c>
+      <c r="AE159">
+        <v>1.35</v>
+      </c>
+      <c r="AF159">
+        <v>2.9</v>
+      </c>
+      <c r="AG159">
+        <v>2.1</v>
+      </c>
+      <c r="AH159">
+        <v>1.67</v>
+      </c>
+      <c r="AI159">
+        <v>2.05</v>
+      </c>
+      <c r="AJ159">
+        <v>1.73</v>
+      </c>
+      <c r="AK159">
+        <v>1.21</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>1.97</v>
+      </c>
+      <c r="AN159">
+        <v>2.2</v>
+      </c>
+      <c r="AO159">
+        <v>1.6</v>
+      </c>
+      <c r="AP159">
+        <v>2.25</v>
+      </c>
+      <c r="AQ159">
+        <v>1.5</v>
+      </c>
+      <c r="AR159">
+        <v>1.98</v>
+      </c>
+      <c r="AS159">
+        <v>1.25</v>
+      </c>
+      <c r="AT159">
+        <v>3.23</v>
+      </c>
+      <c r="AU159">
+        <v>4</v>
+      </c>
+      <c r="AV159">
+        <v>2</v>
+      </c>
+      <c r="AW159">
+        <v>13</v>
+      </c>
+      <c r="AX159">
+        <v>4</v>
+      </c>
+      <c r="AY159">
+        <v>17</v>
+      </c>
+      <c r="AZ159">
+        <v>6</v>
+      </c>
+      <c r="BA159">
+        <v>7</v>
+      </c>
+      <c r="BB159">
+        <v>4</v>
+      </c>
+      <c r="BC159">
+        <v>11</v>
+      </c>
+      <c r="BD159">
+        <v>1.49</v>
+      </c>
+      <c r="BE159">
+        <v>8.6</v>
+      </c>
+      <c r="BF159">
+        <v>3.45</v>
+      </c>
+      <c r="BG159">
+        <v>1.37</v>
+      </c>
+      <c r="BH159">
+        <v>2.62</v>
+      </c>
+      <c r="BI159">
+        <v>1.7</v>
+      </c>
+      <c r="BJ159">
+        <v>2</v>
+      </c>
+      <c r="BK159">
+        <v>2.2</v>
+      </c>
+      <c r="BL159">
+        <v>1.6</v>
+      </c>
+      <c r="BM159">
+        <v>2.8</v>
+      </c>
+      <c r="BN159">
+        <v>1.33</v>
+      </c>
+      <c r="BO159">
+        <v>3.78</v>
+      </c>
+      <c r="BP159">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,9 @@
     <t>['71', '90+5']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -605,9 +608,6 @@
   </si>
   <si>
     <t>['30']</t>
-  </si>
-  <si>
-    <t>['22']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -1143,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2020,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2226,7 +2226,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2307,7 +2307,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3050,7 +3050,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3668,7 +3668,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3874,7 +3874,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4080,7 +4080,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4779,7 +4779,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR18">
         <v>0.8100000000000001</v>
@@ -4904,7 +4904,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4985,7 +4985,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5110,7 +5110,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
         <v>1.19</v>
@@ -5316,7 +5316,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5522,7 +5522,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5728,7 +5728,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6346,7 +6346,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6836,7 +6836,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>0.9399999999999999</v>
@@ -7251,7 +7251,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>1.82</v>
@@ -8075,7 +8075,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ34">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR34">
         <v>1.39</v>
@@ -9436,7 +9436,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9517,7 +9517,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -9720,7 +9720,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42">
         <v>0.9399999999999999</v>
@@ -9929,7 +9929,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -11162,7 +11162,7 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
         <v>1.19</v>
@@ -11577,7 +11577,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR51">
         <v>1.18</v>
@@ -13019,7 +13019,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13225,7 +13225,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13428,7 +13428,7 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -14586,7 +14586,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14870,10 +14870,10 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.18</v>
@@ -15697,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR71">
         <v>0.93</v>
@@ -16315,7 +16315,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -16933,7 +16933,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.79</v>
@@ -17136,7 +17136,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17882,7 +17882,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17963,7 +17963,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ82">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR82">
         <v>1.53</v>
@@ -18372,7 +18372,7 @@
         <v>0.88</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ84">
         <v>0.8100000000000001</v>
@@ -19611,7 +19611,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>1.63</v>
@@ -20847,7 +20847,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ96">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21050,10 +21050,10 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR97">
         <v>1.22</v>
@@ -21259,7 +21259,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
         <v>1.13</v>
@@ -23316,7 +23316,7 @@
         <v>1.3</v>
       </c>
       <c r="AP108">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108">
         <v>1.19</v>
@@ -23525,7 +23525,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ109">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR109">
         <v>1.9</v>
@@ -23731,7 +23731,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -25170,7 +25170,7 @@
         <v>1.17</v>
       </c>
       <c r="AP117">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ117">
         <v>0.9399999999999999</v>
@@ -25585,7 +25585,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR119">
         <v>1.57</v>
@@ -26821,7 +26821,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ125">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR125">
         <v>1.5</v>
@@ -27233,7 +27233,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ127">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR127">
         <v>1.05</v>
@@ -28182,7 +28182,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28263,7 +28263,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ132">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR132">
         <v>1.57</v>
@@ -28466,7 +28466,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ133">
         <v>0.9399999999999999</v>
@@ -29293,7 +29293,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ137">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR137">
         <v>1.35</v>
@@ -29702,7 +29702,7 @@
         <v>1.23</v>
       </c>
       <c r="AP139">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ139">
         <v>1.19</v>
@@ -31559,7 +31559,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ148">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -31890,7 +31890,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -31971,7 +31971,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ150">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AR150">
         <v>1.57</v>
@@ -32174,7 +32174,7 @@
         <v>1.71</v>
       </c>
       <c r="AP151">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ151">
         <v>1.5</v>
@@ -33332,7 +33332,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33901,6 +33901,418 @@
       </c>
       <c r="BP159">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7451124</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45775.5</v>
+      </c>
+      <c r="F160">
+        <v>32</v>
+      </c>
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160" t="s">
+        <v>79</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>185</v>
+      </c>
+      <c r="P160" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q160">
+        <v>2.85</v>
+      </c>
+      <c r="R160">
+        <v>2.18</v>
+      </c>
+      <c r="S160">
+        <v>3.7</v>
+      </c>
+      <c r="T160">
+        <v>1.4</v>
+      </c>
+      <c r="U160">
+        <v>2.73</v>
+      </c>
+      <c r="V160">
+        <v>3.04</v>
+      </c>
+      <c r="W160">
+        <v>1.35</v>
+      </c>
+      <c r="X160">
+        <v>8.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.06</v>
+      </c>
+      <c r="Z160">
+        <v>2.25</v>
+      </c>
+      <c r="AA160">
+        <v>3</v>
+      </c>
+      <c r="AB160">
+        <v>3</v>
+      </c>
+      <c r="AC160">
+        <v>1.06</v>
+      </c>
+      <c r="AD160">
+        <v>9.1</v>
+      </c>
+      <c r="AE160">
+        <v>1.3</v>
+      </c>
+      <c r="AF160">
+        <v>3.1</v>
+      </c>
+      <c r="AG160">
+        <v>2</v>
+      </c>
+      <c r="AH160">
+        <v>1.73</v>
+      </c>
+      <c r="AI160">
+        <v>1.8</v>
+      </c>
+      <c r="AJ160">
+        <v>1.95</v>
+      </c>
+      <c r="AK160">
+        <v>1.33</v>
+      </c>
+      <c r="AL160">
+        <v>0</v>
+      </c>
+      <c r="AM160">
+        <v>1.6</v>
+      </c>
+      <c r="AN160">
+        <v>1.6</v>
+      </c>
+      <c r="AO160">
+        <v>1.4</v>
+      </c>
+      <c r="AP160">
+        <v>1.56</v>
+      </c>
+      <c r="AQ160">
+        <v>1.38</v>
+      </c>
+      <c r="AR160">
+        <v>1.38</v>
+      </c>
+      <c r="AS160">
+        <v>1.41</v>
+      </c>
+      <c r="AT160">
+        <v>2.79</v>
+      </c>
+      <c r="AU160">
+        <v>6</v>
+      </c>
+      <c r="AV160">
+        <v>3</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>3</v>
+      </c>
+      <c r="AY160">
+        <v>11</v>
+      </c>
+      <c r="AZ160">
+        <v>6</v>
+      </c>
+      <c r="BA160">
+        <v>9</v>
+      </c>
+      <c r="BB160">
+        <v>1</v>
+      </c>
+      <c r="BC160">
+        <v>10</v>
+      </c>
+      <c r="BD160">
+        <v>1.64</v>
+      </c>
+      <c r="BE160">
+        <v>7.8</v>
+      </c>
+      <c r="BF160">
+        <v>2.86</v>
+      </c>
+      <c r="BG160">
+        <v>1.5</v>
+      </c>
+      <c r="BH160">
+        <v>2.4</v>
+      </c>
+      <c r="BI160">
+        <v>1.87</v>
+      </c>
+      <c r="BJ160">
+        <v>1.94</v>
+      </c>
+      <c r="BK160">
+        <v>2.3</v>
+      </c>
+      <c r="BL160">
+        <v>1.55</v>
+      </c>
+      <c r="BM160">
+        <v>3</v>
+      </c>
+      <c r="BN160">
+        <v>1.33</v>
+      </c>
+      <c r="BO160">
+        <v>4</v>
+      </c>
+      <c r="BP160">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7451121</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45775.59375</v>
+      </c>
+      <c r="F161">
+        <v>32</v>
+      </c>
+      <c r="G161" t="s">
+        <v>75</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>81</v>
+      </c>
+      <c r="P161" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q161">
+        <v>3.4</v>
+      </c>
+      <c r="R161">
+        <v>1.79</v>
+      </c>
+      <c r="S161">
+        <v>3.7</v>
+      </c>
+      <c r="T161">
+        <v>1.62</v>
+      </c>
+      <c r="U161">
+        <v>2.25</v>
+      </c>
+      <c r="V161">
+        <v>3.8</v>
+      </c>
+      <c r="W161">
+        <v>1.22</v>
+      </c>
+      <c r="X161">
+        <v>9</v>
+      </c>
+      <c r="Y161">
+        <v>1.03</v>
+      </c>
+      <c r="Z161">
+        <v>2.6</v>
+      </c>
+      <c r="AA161">
+        <v>2.78</v>
+      </c>
+      <c r="AB161">
+        <v>2.8</v>
+      </c>
+      <c r="AC161">
+        <v>1.13</v>
+      </c>
+      <c r="AD161">
+        <v>5.75</v>
+      </c>
+      <c r="AE161">
+        <v>1.6</v>
+      </c>
+      <c r="AF161">
+        <v>2.25</v>
+      </c>
+      <c r="AG161">
+        <v>2.75</v>
+      </c>
+      <c r="AH161">
+        <v>1.4</v>
+      </c>
+      <c r="AI161">
+        <v>2.16</v>
+      </c>
+      <c r="AJ161">
+        <v>1.66</v>
+      </c>
+      <c r="AK161">
+        <v>1.4</v>
+      </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
+      <c r="AM161">
+        <v>1.4</v>
+      </c>
+      <c r="AN161">
+        <v>1</v>
+      </c>
+      <c r="AO161">
+        <v>0.4</v>
+      </c>
+      <c r="AP161">
+        <v>1</v>
+      </c>
+      <c r="AQ161">
+        <v>0.44</v>
+      </c>
+      <c r="AR161">
+        <v>1.18</v>
+      </c>
+      <c r="AS161">
+        <v>0.98</v>
+      </c>
+      <c r="AT161">
+        <v>2.16</v>
+      </c>
+      <c r="AU161">
+        <v>4</v>
+      </c>
+      <c r="AV161">
+        <v>4</v>
+      </c>
+      <c r="AW161">
+        <v>13</v>
+      </c>
+      <c r="AX161">
+        <v>2</v>
+      </c>
+      <c r="AY161">
+        <v>17</v>
+      </c>
+      <c r="AZ161">
+        <v>6</v>
+      </c>
+      <c r="BA161">
+        <v>6</v>
+      </c>
+      <c r="BB161">
+        <v>2</v>
+      </c>
+      <c r="BC161">
+        <v>8</v>
+      </c>
+      <c r="BD161">
+        <v>1.59</v>
+      </c>
+      <c r="BE161">
+        <v>8.1</v>
+      </c>
+      <c r="BF161">
+        <v>3</v>
+      </c>
+      <c r="BG161">
+        <v>1.5</v>
+      </c>
+      <c r="BH161">
+        <v>2.4</v>
+      </c>
+      <c r="BI161">
+        <v>1.81</v>
+      </c>
+      <c r="BJ161">
+        <v>1.98</v>
+      </c>
+      <c r="BK161">
+        <v>2.7</v>
+      </c>
+      <c r="BL161">
+        <v>1.57</v>
+      </c>
+      <c r="BM161">
+        <v>3</v>
+      </c>
+      <c r="BN161">
+        <v>1.34</v>
+      </c>
+      <c r="BO161">
+        <v>4</v>
+      </c>
+      <c r="BP161">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -783,6 +783,9 @@
   <si>
     <t>['32', '53']</t>
   </si>
+  <si>
+    <t>['11']</t>
+  </si>
 </sst>
 </file>
 
@@ -1143,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2101,7 +2104,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3334,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3543,7 +3546,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR12">
         <v>2.03</v>
@@ -4573,7 +4576,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ17">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR17">
         <v>1.8</v>
@@ -4776,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18">
         <v>1.38</v>
@@ -5603,7 +5606,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ22">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -7660,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
         <v>1.06</v>
@@ -8487,7 +8490,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -10338,7 +10341,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
         <v>1.19</v>
@@ -10547,7 +10550,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ46">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -11574,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ51">
         <v>0.44</v>
@@ -11783,7 +11786,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -13634,7 +13637,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ61">
         <v>1.19</v>
@@ -15076,7 +15079,7 @@
         <v>1.17</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15900,10 +15903,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -18375,7 +18378,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR84">
         <v>1.2</v>
@@ -18578,7 +18581,7 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>0.9399999999999999</v>
@@ -20023,7 +20026,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR92">
         <v>1.57</v>
@@ -21462,7 +21465,7 @@
         <v>1.89</v>
       </c>
       <c r="AP99">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ99">
         <v>1.5</v>
@@ -22083,7 +22086,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ102">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR102">
         <v>1.92</v>
@@ -23728,7 +23731,7 @@
         <v>0.82</v>
       </c>
       <c r="AP110">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ110">
         <v>1.38</v>
@@ -24761,7 +24764,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ115">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR115">
         <v>1.11</v>
@@ -26203,7 +26206,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR122">
         <v>1.67</v>
@@ -26406,7 +26409,7 @@
         <v>1.08</v>
       </c>
       <c r="AP123">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ123">
         <v>1.06</v>
@@ -28881,7 +28884,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ135">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29084,7 +29087,7 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ136">
         <v>1.19</v>
@@ -29290,7 +29293,7 @@
         <v>0.15</v>
       </c>
       <c r="AP137">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ137">
         <v>0.44</v>
@@ -30323,7 +30326,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ142">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR142">
         <v>1.44</v>
@@ -31762,7 +31765,7 @@
         <v>1.29</v>
       </c>
       <c r="AP149">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ149">
         <v>1.19</v>
@@ -32589,7 +32592,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ153">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -33410,7 +33413,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ157">
         <v>0.9399999999999999</v>
@@ -34312,6 +34315,212 @@
         <v>4</v>
       </c>
       <c r="BP161">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7451126</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45779.54166666666</v>
+      </c>
+      <c r="F162">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s">
+        <v>75</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>178</v>
+      </c>
+      <c r="P162" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q162">
+        <v>2.3</v>
+      </c>
+      <c r="R162">
+        <v>1.94</v>
+      </c>
+      <c r="S162">
+        <v>5.25</v>
+      </c>
+      <c r="T162">
+        <v>1.5</v>
+      </c>
+      <c r="U162">
+        <v>2.45</v>
+      </c>
+      <c r="V162">
+        <v>3.3</v>
+      </c>
+      <c r="W162">
+        <v>1.3</v>
+      </c>
+      <c r="X162">
+        <v>8.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.04</v>
+      </c>
+      <c r="Z162">
+        <v>1.75</v>
+      </c>
+      <c r="AA162">
+        <v>3.1</v>
+      </c>
+      <c r="AB162">
+        <v>4.8</v>
+      </c>
+      <c r="AC162">
+        <v>1.07</v>
+      </c>
+      <c r="AD162">
+        <v>7</v>
+      </c>
+      <c r="AE162">
+        <v>1.44</v>
+      </c>
+      <c r="AF162">
+        <v>2.7</v>
+      </c>
+      <c r="AG162">
+        <v>2.35</v>
+      </c>
+      <c r="AH162">
+        <v>1.57</v>
+      </c>
+      <c r="AI162">
+        <v>2.1</v>
+      </c>
+      <c r="AJ162">
+        <v>1.65</v>
+      </c>
+      <c r="AK162">
+        <v>1.3</v>
+      </c>
+      <c r="AL162">
+        <v>1.31</v>
+      </c>
+      <c r="AM162">
+        <v>1.93</v>
+      </c>
+      <c r="AN162">
+        <v>1.75</v>
+      </c>
+      <c r="AO162">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP162">
+        <v>1.71</v>
+      </c>
+      <c r="AQ162">
+        <v>0.82</v>
+      </c>
+      <c r="AR162">
+        <v>1.45</v>
+      </c>
+      <c r="AS162">
+        <v>1.07</v>
+      </c>
+      <c r="AT162">
+        <v>2.52</v>
+      </c>
+      <c r="AU162">
+        <v>5</v>
+      </c>
+      <c r="AV162">
+        <v>5</v>
+      </c>
+      <c r="AW162">
+        <v>8</v>
+      </c>
+      <c r="AX162">
+        <v>4</v>
+      </c>
+      <c r="AY162">
+        <v>13</v>
+      </c>
+      <c r="AZ162">
+        <v>9</v>
+      </c>
+      <c r="BA162">
+        <v>7</v>
+      </c>
+      <c r="BB162">
+        <v>2</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>1.45</v>
+      </c>
+      <c r="BE162">
+        <v>7.7</v>
+      </c>
+      <c r="BF162">
+        <v>3.34</v>
+      </c>
+      <c r="BG162">
+        <v>1.39</v>
+      </c>
+      <c r="BH162">
+        <v>2.5</v>
+      </c>
+      <c r="BI162">
+        <v>1.76</v>
+      </c>
+      <c r="BJ162">
+        <v>1.99</v>
+      </c>
+      <c r="BK162">
+        <v>2.24</v>
+      </c>
+      <c r="BL162">
+        <v>1.6</v>
+      </c>
+      <c r="BM162">
+        <v>2.85</v>
+      </c>
+      <c r="BN162">
+        <v>1.37</v>
+      </c>
+      <c r="BO162">
+        <v>3.88</v>
+      </c>
+      <c r="BP162">
         <v>1.2</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -593,9 +596,6 @@
   </si>
   <si>
     <t>['53', '61']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -785,6 +785,9 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['51', '64', '90+11']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2023,7 +2026,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2229,7 +2232,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2307,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ6">
         <v>1.38</v>
@@ -2847,7 +2850,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2925,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ9">
         <v>1.19</v>
@@ -3053,7 +3056,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3134,7 +3137,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>3.14</v>
@@ -3671,7 +3674,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3877,7 +3880,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3955,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4083,7 +4086,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4573,7 +4576,7 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ17">
         <v>0.82</v>
@@ -4907,7 +4910,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -6015,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ24">
         <v>0.9399999999999999</v>
@@ -6221,7 +6224,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6430,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -7872,7 +7875,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8075,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ34">
         <v>0.44</v>
@@ -8281,7 +8284,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ35">
         <v>0.9399999999999999</v>
@@ -9929,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ43">
         <v>0.44</v>
@@ -10344,7 +10347,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ45">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR45">
         <v>1.19</v>
@@ -10547,7 +10550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP46">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ46">
         <v>0.82</v>
@@ -10753,7 +10756,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -11168,7 +11171,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11989,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ53">
         <v>0.9399999999999999</v>
@@ -12816,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
         <v>1.11</v>
@@ -13019,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ58">
         <v>1.38</v>
@@ -14052,7 +14055,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ63">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14255,7 +14258,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ64">
         <v>1.06</v>
@@ -16521,7 +16524,7 @@
         <v>0.71</v>
       </c>
       <c r="AP75">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ75">
         <v>1.06</v>
@@ -16727,10 +16730,10 @@
         <v>1.71</v>
       </c>
       <c r="AP76">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ76">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR76">
         <v>1.66</v>
@@ -17885,7 +17888,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18169,10 +18172,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ83">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
         <v>1.51</v>
@@ -18787,7 +18790,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ86">
         <v>1.5</v>
@@ -20847,7 +20850,7 @@
         <v>0.78</v>
       </c>
       <c r="AP96">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ96">
         <v>1.38</v>
@@ -21671,7 +21674,7 @@
         <v>1.44</v>
       </c>
       <c r="AP100">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ100">
         <v>1.19</v>
@@ -21880,7 +21883,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ101">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR101">
         <v>1.55</v>
@@ -22495,7 +22498,7 @@
         <v>0.9</v>
       </c>
       <c r="AP104">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -24143,7 +24146,7 @@
         <v>0.82</v>
       </c>
       <c r="AP112">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24349,7 +24352,7 @@
         <v>1.2</v>
       </c>
       <c r="AP113">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ113">
         <v>0.9399999999999999</v>
@@ -24558,7 +24561,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
         <v>1.68</v>
@@ -26615,7 +26618,7 @@
         <v>1.09</v>
       </c>
       <c r="AP124">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ124">
         <v>0.9399999999999999</v>
@@ -26821,7 +26824,7 @@
         <v>0.09</v>
       </c>
       <c r="AP125">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ125">
         <v>0.44</v>
@@ -27030,7 +27033,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ126">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR126">
         <v>1.57</v>
@@ -28263,7 +28266,7 @@
         <v>0.08</v>
       </c>
       <c r="AP132">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ132">
         <v>0.44</v>
@@ -28881,7 +28884,7 @@
         <v>0.77</v>
       </c>
       <c r="AP135">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ135">
         <v>0.82</v>
@@ -29090,7 +29093,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ136">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR136">
         <v>1.36</v>
@@ -29708,7 +29711,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ139">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR139">
         <v>1.32</v>
@@ -29911,7 +29914,7 @@
         <v>1.62</v>
       </c>
       <c r="AP140">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ140">
         <v>1.5</v>
@@ -31147,7 +31150,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ146">
         <v>0.9399999999999999</v>
@@ -31356,7 +31359,7 @@
         <v>1</v>
       </c>
       <c r="AQ147">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
         <v>1.2</v>
@@ -31559,7 +31562,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ148">
         <v>1.38</v>
@@ -32589,7 +32592,7 @@
         <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ153">
         <v>0.82</v>
@@ -32798,7 +32801,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ154">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR154">
         <v>1.06</v>
@@ -33001,7 +33004,7 @@
         <v>0.93</v>
       </c>
       <c r="AP155">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ155">
         <v>1.06</v>
@@ -34362,7 +34365,7 @@
         <v>2</v>
       </c>
       <c r="O162" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P162" t="s">
         <v>256</v>
@@ -34522,6 +34525,418 @@
       </c>
       <c r="BP162">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7451129</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F163">
+        <v>33</v>
+      </c>
+      <c r="G163" t="s">
+        <v>74</v>
+      </c>
+      <c r="H163" t="s">
+        <v>70</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>98</v>
+      </c>
+      <c r="P163" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q163">
+        <v>3.65</v>
+      </c>
+      <c r="R163">
+        <v>2.02</v>
+      </c>
+      <c r="S163">
+        <v>2.8</v>
+      </c>
+      <c r="T163">
+        <v>1.4</v>
+      </c>
+      <c r="U163">
+        <v>2.8</v>
+      </c>
+      <c r="V163">
+        <v>2.8</v>
+      </c>
+      <c r="W163">
+        <v>1.36</v>
+      </c>
+      <c r="X163">
+        <v>8</v>
+      </c>
+      <c r="Y163">
+        <v>1.08</v>
+      </c>
+      <c r="Z163">
+        <v>3</v>
+      </c>
+      <c r="AA163">
+        <v>3.05</v>
+      </c>
+      <c r="AB163">
+        <v>2.35</v>
+      </c>
+      <c r="AC163">
+        <v>1.03</v>
+      </c>
+      <c r="AD163">
+        <v>8.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.32</v>
+      </c>
+      <c r="AF163">
+        <v>3.1</v>
+      </c>
+      <c r="AG163">
+        <v>2.2</v>
+      </c>
+      <c r="AH163">
+        <v>1.71</v>
+      </c>
+      <c r="AI163">
+        <v>1.83</v>
+      </c>
+      <c r="AJ163">
+        <v>1.98</v>
+      </c>
+      <c r="AK163">
+        <v>1.37</v>
+      </c>
+      <c r="AL163">
+        <v>1.31</v>
+      </c>
+      <c r="AM163">
+        <v>1.35</v>
+      </c>
+      <c r="AN163">
+        <v>2.31</v>
+      </c>
+      <c r="AO163">
+        <v>1.19</v>
+      </c>
+      <c r="AP163">
+        <v>2.18</v>
+      </c>
+      <c r="AQ163">
+        <v>1.29</v>
+      </c>
+      <c r="AR163">
+        <v>1.57</v>
+      </c>
+      <c r="AS163">
+        <v>1.86</v>
+      </c>
+      <c r="AT163">
+        <v>3.43</v>
+      </c>
+      <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>4</v>
+      </c>
+      <c r="AW163">
+        <v>5</v>
+      </c>
+      <c r="AX163">
+        <v>3</v>
+      </c>
+      <c r="AY163">
+        <v>8</v>
+      </c>
+      <c r="AZ163">
+        <v>7</v>
+      </c>
+      <c r="BA163">
+        <v>7</v>
+      </c>
+      <c r="BB163">
+        <v>1</v>
+      </c>
+      <c r="BC163">
+        <v>8</v>
+      </c>
+      <c r="BD163">
+        <v>2.38</v>
+      </c>
+      <c r="BE163">
+        <v>7.4</v>
+      </c>
+      <c r="BF163">
+        <v>1.87</v>
+      </c>
+      <c r="BG163">
+        <v>1.28</v>
+      </c>
+      <c r="BH163">
+        <v>3.08</v>
+      </c>
+      <c r="BI163">
+        <v>1.55</v>
+      </c>
+      <c r="BJ163">
+        <v>2.25</v>
+      </c>
+      <c r="BK163">
+        <v>1.97</v>
+      </c>
+      <c r="BL163">
+        <v>1.76</v>
+      </c>
+      <c r="BM163">
+        <v>2.53</v>
+      </c>
+      <c r="BN163">
+        <v>1.47</v>
+      </c>
+      <c r="BO163">
+        <v>3.42</v>
+      </c>
+      <c r="BP163">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7451127</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45780.57291666666</v>
+      </c>
+      <c r="F164">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>81</v>
+      </c>
+      <c r="P164" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q164">
+        <v>3.5</v>
+      </c>
+      <c r="R164">
+        <v>2.08</v>
+      </c>
+      <c r="S164">
+        <v>2.61</v>
+      </c>
+      <c r="T164">
+        <v>1.41</v>
+      </c>
+      <c r="U164">
+        <v>2.7</v>
+      </c>
+      <c r="V164">
+        <v>2.9</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>7</v>
+      </c>
+      <c r="Y164">
+        <v>1.07</v>
+      </c>
+      <c r="Z164">
+        <v>3.5</v>
+      </c>
+      <c r="AA164">
+        <v>3.23</v>
+      </c>
+      <c r="AB164">
+        <v>2.06</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>8.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.33</v>
+      </c>
+      <c r="AF164">
+        <v>2.95</v>
+      </c>
+      <c r="AG164">
+        <v>2.04</v>
+      </c>
+      <c r="AH164">
+        <v>1.65</v>
+      </c>
+      <c r="AI164">
+        <v>1.79</v>
+      </c>
+      <c r="AJ164">
+        <v>2.02</v>
+      </c>
+      <c r="AK164">
+        <v>1.34</v>
+      </c>
+      <c r="AL164">
+        <v>1.34</v>
+      </c>
+      <c r="AM164">
+        <v>1.3</v>
+      </c>
+      <c r="AN164">
+        <v>1.13</v>
+      </c>
+      <c r="AO164">
+        <v>1.06</v>
+      </c>
+      <c r="AP164">
+        <v>1.12</v>
+      </c>
+      <c r="AQ164">
+        <v>1.06</v>
+      </c>
+      <c r="AR164">
+        <v>1.53</v>
+      </c>
+      <c r="AS164">
+        <v>1.06</v>
+      </c>
+      <c r="AT164">
+        <v>2.59</v>
+      </c>
+      <c r="AU164">
+        <v>2</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>6</v>
+      </c>
+      <c r="AX164">
+        <v>3</v>
+      </c>
+      <c r="AY164">
+        <v>8</v>
+      </c>
+      <c r="AZ164">
+        <v>6</v>
+      </c>
+      <c r="BA164">
+        <v>4</v>
+      </c>
+      <c r="BB164">
+        <v>5</v>
+      </c>
+      <c r="BC164">
+        <v>9</v>
+      </c>
+      <c r="BD164">
+        <v>1.82</v>
+      </c>
+      <c r="BE164">
+        <v>6.35</v>
+      </c>
+      <c r="BF164">
+        <v>2.51</v>
+      </c>
+      <c r="BG164">
+        <v>1.38</v>
+      </c>
+      <c r="BH164">
+        <v>2.82</v>
+      </c>
+      <c r="BI164">
+        <v>1.63</v>
+      </c>
+      <c r="BJ164">
+        <v>2.18</v>
+      </c>
+      <c r="BK164">
+        <v>2.09</v>
+      </c>
+      <c r="BL164">
+        <v>1.72</v>
+      </c>
+      <c r="BM164">
+        <v>2.6</v>
+      </c>
+      <c r="BN164">
+        <v>1.44</v>
+      </c>
+      <c r="BO164">
+        <v>3.45</v>
+      </c>
+      <c r="BP164">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,12 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['9', '30']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -706,9 +712,6 @@
     <t>['34']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['2']</t>
   </si>
   <si>
@@ -788,6 +791,9 @@
   </si>
   <si>
     <t>['51', '64', '90+11']</t>
+  </si>
+  <si>
+    <t>['25', '30', '43', '59']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1898,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ4">
         <v>0.9399999999999999</v>
@@ -2026,7 +2032,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2232,7 +2238,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2725,7 +2731,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2850,7 +2856,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3056,7 +3062,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3674,7 +3680,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3752,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ13">
         <v>0.9399999999999999</v>
@@ -3880,7 +3886,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4086,7 +4092,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4167,7 +4173,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ15">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -4370,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ16">
         <v>1.06</v>
@@ -4991,7 +4997,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5116,7 +5122,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5322,7 +5328,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5528,7 +5534,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5734,7 +5740,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5812,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ23">
         <v>1.06</v>
@@ -6021,7 +6027,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ24">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -6430,7 +6436,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ26">
         <v>1.29</v>
@@ -6558,7 +6564,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6764,7 +6770,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6970,7 +6976,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7794,7 +7800,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7872,7 +7878,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ33">
         <v>1.29</v>
@@ -8000,7 +8006,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8081,7 +8087,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ34">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR34">
         <v>1.39</v>
@@ -8206,7 +8212,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8287,7 +8293,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ35">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -8490,7 +8496,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ36">
         <v>0.82</v>
@@ -9314,7 +9320,7 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ40">
         <v>1.19</v>
@@ -9442,7 +9448,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9648,7 +9654,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9729,7 +9735,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ42">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9935,7 +9941,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ43">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -10138,7 +10144,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10266,7 +10272,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10678,7 +10684,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10884,7 +10890,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10965,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11090,7 +11096,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11296,7 +11302,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11374,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ50">
         <v>1.19</v>
@@ -11583,7 +11589,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ51">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR51">
         <v>1.18</v>
@@ -11708,7 +11714,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11786,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ52">
         <v>0.82</v>
@@ -11914,7 +11920,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12198,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12326,7 +12332,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12407,7 +12413,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
         <v>1.97</v>
@@ -12738,7 +12744,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12944,7 +12950,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13231,7 +13237,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13768,7 +13774,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13974,7 +13980,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14386,7 +14392,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14464,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14592,7 +14598,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14670,10 +14676,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ66">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR66">
         <v>1.64</v>
@@ -14798,7 +14804,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -15004,7 +15010,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15416,7 +15422,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15703,7 +15709,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR71">
         <v>0.93</v>
@@ -15828,7 +15834,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16034,7 +16040,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16112,10 +16118,10 @@
         <v>1.57</v>
       </c>
       <c r="AP73">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ73">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16318,10 +16324,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ74">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -16446,7 +16452,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17476,7 +17482,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17888,7 +17894,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17966,10 +17972,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ82">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR82">
         <v>1.53</v>
@@ -18094,7 +18100,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18300,7 +18306,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18587,7 +18593,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ85">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -18712,7 +18718,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18918,7 +18924,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19124,7 +19130,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19330,7 +19336,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19614,7 +19620,7 @@
         <v>0.88</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ90">
         <v>1.38</v>
@@ -19742,7 +19748,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19948,7 +19954,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20154,7 +20160,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20566,7 +20572,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20644,7 +20650,7 @@
         <v>1.22</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ95">
         <v>0.9399999999999999</v>
@@ -21059,7 +21065,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR97">
         <v>1.22</v>
@@ -21184,7 +21190,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21596,7 +21602,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -22295,7 +22301,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ103">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR103">
         <v>1.14</v>
@@ -22626,7 +22632,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22704,7 +22710,7 @@
         <v>0.9</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ105">
         <v>1.06</v>
@@ -22832,7 +22838,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22910,7 +22916,7 @@
         <v>1.1</v>
       </c>
       <c r="AP106">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ106">
         <v>0.9399999999999999</v>
@@ -23038,7 +23044,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23244,7 +23250,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23450,7 +23456,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23531,7 +23537,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ109">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR109">
         <v>1.9</v>
@@ -23862,7 +23868,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -24355,7 +24361,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ113">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR113">
         <v>1.48</v>
@@ -24558,7 +24564,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ114">
         <v>1.29</v>
@@ -24970,7 +24976,7 @@
         <v>1.09</v>
       </c>
       <c r="AP116">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ116">
         <v>1.06</v>
@@ -25098,7 +25104,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25510,7 +25516,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25716,7 +25722,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25922,7 +25928,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26128,7 +26134,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26206,7 +26212,7 @@
         <v>0.75</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ122">
         <v>0.82</v>
@@ -26621,7 +26627,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ124">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -26827,7 +26833,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ125">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR125">
         <v>1.5</v>
@@ -26952,7 +26958,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27030,7 +27036,7 @@
         <v>1.09</v>
       </c>
       <c r="AP126">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ126">
         <v>1.29</v>
@@ -27158,7 +27164,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -28060,7 +28066,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ131">
         <v>1.19</v>
@@ -28188,7 +28194,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28269,7 +28275,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ132">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR132">
         <v>1.57</v>
@@ -28394,7 +28400,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28475,7 +28481,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ133">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR133">
         <v>1.26</v>
@@ -28678,7 +28684,7 @@
         <v>1.75</v>
       </c>
       <c r="AP134">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -29012,7 +29018,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29299,7 +29305,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ137">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR137">
         <v>1.35</v>
@@ -29424,7 +29430,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29502,7 +29508,7 @@
         <v>1.15</v>
       </c>
       <c r="AP138">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ138">
         <v>1.19</v>
@@ -29836,7 +29842,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -30042,7 +30048,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30123,7 +30129,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR141">
         <v>1.17</v>
@@ -30326,7 +30332,7 @@
         <v>0.71</v>
       </c>
       <c r="AP142">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ142">
         <v>0.82</v>
@@ -30454,7 +30460,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -30741,7 +30747,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ144">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR144">
         <v>1.94</v>
@@ -30944,7 +30950,7 @@
         <v>0.93</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ145">
         <v>1</v>
@@ -31072,7 +31078,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31278,7 +31284,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31484,7 +31490,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31896,7 +31902,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -31977,7 +31983,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ150">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR150">
         <v>1.57</v>
@@ -32308,7 +32314,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32386,7 +32392,7 @@
         <v>0.87</v>
       </c>
       <c r="AP152">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32514,7 +32520,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32926,7 +32932,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33132,7 +33138,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33210,10 +33216,10 @@
         <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ156">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33338,7 +33344,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33956,7 +33962,7 @@
         <v>185</v>
       </c>
       <c r="P160" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q160">
         <v>2.85</v>
@@ -34243,7 +34249,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34368,7 +34374,7 @@
         <v>186</v>
       </c>
       <c r="P162" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q162">
         <v>2.3</v>
@@ -34574,7 +34580,7 @@
         <v>98</v>
       </c>
       <c r="P163" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q163">
         <v>3.65</v>
@@ -34936,6 +34942,418 @@
         <v>3.45</v>
       </c>
       <c r="BP164">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7451128</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45781.45833333334</v>
+      </c>
+      <c r="F165">
+        <v>33</v>
+      </c>
+      <c r="G165" t="s">
+        <v>79</v>
+      </c>
+      <c r="H165" t="s">
+        <v>73</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>3</v>
+      </c>
+      <c r="K165">
+        <v>3</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>4</v>
+      </c>
+      <c r="N165">
+        <v>5</v>
+      </c>
+      <c r="O165" t="s">
+        <v>187</v>
+      </c>
+      <c r="P165" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q165">
+        <v>2.69</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>3.7</v>
+      </c>
+      <c r="T165">
+        <v>1.38</v>
+      </c>
+      <c r="U165">
+        <v>2.8</v>
+      </c>
+      <c r="V165">
+        <v>2.77</v>
+      </c>
+      <c r="W165">
+        <v>1.4</v>
+      </c>
+      <c r="X165">
+        <v>6.5</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>2.05</v>
+      </c>
+      <c r="AA165">
+        <v>3.25</v>
+      </c>
+      <c r="AB165">
+        <v>3.3</v>
+      </c>
+      <c r="AC165">
+        <v>1.06</v>
+      </c>
+      <c r="AD165">
+        <v>9.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.3</v>
+      </c>
+      <c r="AF165">
+        <v>3.4</v>
+      </c>
+      <c r="AG165">
+        <v>1.95</v>
+      </c>
+      <c r="AH165">
+        <v>1.8</v>
+      </c>
+      <c r="AI165">
+        <v>1.75</v>
+      </c>
+      <c r="AJ165">
+        <v>1.95</v>
+      </c>
+      <c r="AK165">
+        <v>1.25</v>
+      </c>
+      <c r="AL165">
+        <v>1.35</v>
+      </c>
+      <c r="AM165">
+        <v>1.7</v>
+      </c>
+      <c r="AN165">
+        <v>1.44</v>
+      </c>
+      <c r="AO165">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP165">
+        <v>1.35</v>
+      </c>
+      <c r="AQ165">
+        <v>1.06</v>
+      </c>
+      <c r="AR165">
+        <v>1.49</v>
+      </c>
+      <c r="AS165">
+        <v>1.28</v>
+      </c>
+      <c r="AT165">
+        <v>2.77</v>
+      </c>
+      <c r="AU165">
+        <v>5</v>
+      </c>
+      <c r="AV165">
+        <v>8</v>
+      </c>
+      <c r="AW165">
+        <v>7</v>
+      </c>
+      <c r="AX165">
+        <v>1</v>
+      </c>
+      <c r="AY165">
+        <v>12</v>
+      </c>
+      <c r="AZ165">
+        <v>9</v>
+      </c>
+      <c r="BA165">
+        <v>3</v>
+      </c>
+      <c r="BB165">
+        <v>3</v>
+      </c>
+      <c r="BC165">
+        <v>6</v>
+      </c>
+      <c r="BD165">
+        <v>1.75</v>
+      </c>
+      <c r="BE165">
+        <v>7.7</v>
+      </c>
+      <c r="BF165">
+        <v>2.43</v>
+      </c>
+      <c r="BG165">
+        <v>1.36</v>
+      </c>
+      <c r="BH165">
+        <v>2.9</v>
+      </c>
+      <c r="BI165">
+        <v>1.6</v>
+      </c>
+      <c r="BJ165">
+        <v>2.2</v>
+      </c>
+      <c r="BK165">
+        <v>1.94</v>
+      </c>
+      <c r="BL165">
+        <v>1.77</v>
+      </c>
+      <c r="BM165">
+        <v>2.5</v>
+      </c>
+      <c r="BN165">
+        <v>1.5</v>
+      </c>
+      <c r="BO165">
+        <v>3.3</v>
+      </c>
+      <c r="BP165">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7451130</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45781.55208333334</v>
+      </c>
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>72</v>
+      </c>
+      <c r="H166" t="s">
+        <v>71</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>188</v>
+      </c>
+      <c r="P166" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q166">
+        <v>2.01</v>
+      </c>
+      <c r="R166">
+        <v>2.14</v>
+      </c>
+      <c r="S166">
+        <v>7.62</v>
+      </c>
+      <c r="T166">
+        <v>1.47</v>
+      </c>
+      <c r="U166">
+        <v>2.6</v>
+      </c>
+      <c r="V166">
+        <v>3.2</v>
+      </c>
+      <c r="W166">
+        <v>1.35</v>
+      </c>
+      <c r="X166">
+        <v>7</v>
+      </c>
+      <c r="Y166">
+        <v>1.03</v>
+      </c>
+      <c r="Z166">
+        <v>1.44</v>
+      </c>
+      <c r="AA166">
+        <v>4</v>
+      </c>
+      <c r="AB166">
+        <v>6.5</v>
+      </c>
+      <c r="AC166">
+        <v>1.02</v>
+      </c>
+      <c r="AD166">
+        <v>8</v>
+      </c>
+      <c r="AE166">
+        <v>1.32</v>
+      </c>
+      <c r="AF166">
+        <v>2.88</v>
+      </c>
+      <c r="AG166">
+        <v>2.14</v>
+      </c>
+      <c r="AH166">
+        <v>1.67</v>
+      </c>
+      <c r="AI166">
+        <v>2.27</v>
+      </c>
+      <c r="AJ166">
+        <v>1.56</v>
+      </c>
+      <c r="AK166">
+        <v>1.25</v>
+      </c>
+      <c r="AL166">
+        <v>1.3</v>
+      </c>
+      <c r="AM166">
+        <v>2.37</v>
+      </c>
+      <c r="AN166">
+        <v>2</v>
+      </c>
+      <c r="AO166">
+        <v>0.44</v>
+      </c>
+      <c r="AP166">
+        <v>2.06</v>
+      </c>
+      <c r="AQ166">
+        <v>0.41</v>
+      </c>
+      <c r="AR166">
+        <v>1.73</v>
+      </c>
+      <c r="AS166">
+        <v>0.97</v>
+      </c>
+      <c r="AT166">
+        <v>2.7</v>
+      </c>
+      <c r="AU166">
+        <v>8</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
+        <v>9</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>17</v>
+      </c>
+      <c r="AZ166">
+        <v>7</v>
+      </c>
+      <c r="BA166">
+        <v>4</v>
+      </c>
+      <c r="BB166">
+        <v>2</v>
+      </c>
+      <c r="BC166">
+        <v>6</v>
+      </c>
+      <c r="BD166">
+        <v>1.14</v>
+      </c>
+      <c r="BE166">
+        <v>12</v>
+      </c>
+      <c r="BF166">
+        <v>6.8</v>
+      </c>
+      <c r="BG166">
+        <v>1.33</v>
+      </c>
+      <c r="BH166">
+        <v>2.83</v>
+      </c>
+      <c r="BI166">
+        <v>1.63</v>
+      </c>
+      <c r="BJ166">
+        <v>2.18</v>
+      </c>
+      <c r="BK166">
+        <v>2.03</v>
+      </c>
+      <c r="BL166">
+        <v>1.71</v>
+      </c>
+      <c r="BM166">
+        <v>2.57</v>
+      </c>
+      <c r="BN166">
+        <v>1.37</v>
+      </c>
+      <c r="BO166">
+        <v>3.78</v>
+      </c>
+      <c r="BP166">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,9 @@
     <t>['9', '30']</t>
   </si>
   <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -787,13 +790,13 @@
     <t>['32', '53']</t>
   </si>
   <si>
-    <t>['11']</t>
-  </si>
-  <si>
     <t>['51', '64', '90+11']</t>
   </si>
   <si>
     <t>['25', '30', '43', '59']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2032,7 +2035,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ5">
         <v>0.82</v>
@@ -2238,7 +2241,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2856,7 +2859,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3062,7 +3065,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3140,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3680,7 +3683,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3886,7 +3889,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4092,7 +4095,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -5122,7 +5125,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5328,7 +5331,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5406,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5534,7 +5537,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5740,7 +5743,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6564,7 +6567,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6770,7 +6773,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6976,7 +6979,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7260,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
@@ -7800,7 +7803,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -8006,7 +8009,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8212,7 +8215,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -9114,7 +9117,7 @@
         <v>1.25</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9448,7 +9451,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9654,7 +9657,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10272,7 +10275,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10684,7 +10687,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10890,7 +10893,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -11096,7 +11099,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11302,7 +11305,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11714,7 +11717,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11920,7 +11923,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12332,7 +12335,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12744,7 +12747,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12950,7 +12953,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13234,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ59">
         <v>0.41</v>
@@ -13774,7 +13777,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13980,7 +13983,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14392,7 +14395,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14598,7 +14601,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14804,7 +14807,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -15010,7 +15013,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15422,7 +15425,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15500,7 +15503,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ70">
         <v>1.19</v>
@@ -15834,7 +15837,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16040,7 +16043,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16452,7 +16455,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17482,7 +17485,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17766,7 +17769,7 @@
         <v>1.14</v>
       </c>
       <c r="AP81">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ81">
         <v>0.9399999999999999</v>
@@ -17894,7 +17897,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18100,7 +18103,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18306,7 +18309,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18718,7 +18721,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18924,7 +18927,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19002,7 +19005,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ87">
         <v>1.06</v>
@@ -19130,7 +19133,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19336,7 +19339,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19748,7 +19751,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19954,7 +19957,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20032,7 +20035,7 @@
         <v>0.89</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ92">
         <v>0.82</v>
@@ -20160,7 +20163,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -21190,7 +21193,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21602,7 +21605,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -21886,7 +21889,7 @@
         <v>1.33</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ101">
         <v>1.29</v>
@@ -22632,7 +22635,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22838,7 +22841,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23044,7 +23047,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23250,7 +23253,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23456,7 +23459,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23868,7 +23871,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -23946,7 +23949,7 @@
         <v>1.7</v>
       </c>
       <c r="AP111">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ111">
         <v>1.5</v>
@@ -25104,7 +25107,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25516,7 +25519,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25594,7 +25597,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ119">
         <v>1.38</v>
@@ -25722,7 +25725,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25928,7 +25931,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26134,7 +26137,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26958,7 +26961,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27164,7 +27167,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -27860,7 +27863,7 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -28194,7 +28197,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28400,7 +28403,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -29018,7 +29021,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29430,7 +29433,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29842,7 +29845,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -30048,7 +30051,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30460,7 +30463,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -31078,7 +31081,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31284,7 +31287,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31490,7 +31493,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31902,7 +31905,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -31980,7 +31983,7 @@
         <v>0.21</v>
       </c>
       <c r="AP150">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ150">
         <v>0.41</v>
@@ -32314,7 +32317,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32520,7 +32523,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32932,7 +32935,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33138,7 +33141,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33344,7 +33347,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33628,7 +33631,7 @@
         <v>1.27</v>
       </c>
       <c r="AP158">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ158">
         <v>1.19</v>
@@ -33962,7 +33965,7 @@
         <v>185</v>
       </c>
       <c r="P160" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q160">
         <v>2.85</v>
@@ -34374,7 +34377,7 @@
         <v>186</v>
       </c>
       <c r="P162" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="Q162">
         <v>2.3</v>
@@ -35198,7 +35201,7 @@
         <v>188</v>
       </c>
       <c r="P166" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q166">
         <v>2.01</v>
@@ -35355,6 +35358,212 @@
       </c>
       <c r="BP166">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7451134</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45786.54166666666</v>
+      </c>
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>73</v>
+      </c>
+      <c r="H167" t="s">
+        <v>77</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>189</v>
+      </c>
+      <c r="P167" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q167">
+        <v>2.15</v>
+      </c>
+      <c r="R167">
+        <v>2.3</v>
+      </c>
+      <c r="S167">
+        <v>4.65</v>
+      </c>
+      <c r="T167">
+        <v>1.28</v>
+      </c>
+      <c r="U167">
+        <v>3.1</v>
+      </c>
+      <c r="V167">
+        <v>2.45</v>
+      </c>
+      <c r="W167">
+        <v>1.53</v>
+      </c>
+      <c r="X167">
+        <v>5.25</v>
+      </c>
+      <c r="Y167">
+        <v>1.12</v>
+      </c>
+      <c r="Z167">
+        <v>1.82</v>
+      </c>
+      <c r="AA167">
+        <v>3.55</v>
+      </c>
+      <c r="AB167">
+        <v>4.79</v>
+      </c>
+      <c r="AC167">
+        <v>1.01</v>
+      </c>
+      <c r="AD167">
+        <v>9</v>
+      </c>
+      <c r="AE167">
+        <v>1.23</v>
+      </c>
+      <c r="AF167">
+        <v>3.75</v>
+      </c>
+      <c r="AG167">
+        <v>1.74</v>
+      </c>
+      <c r="AH167">
+        <v>2.1</v>
+      </c>
+      <c r="AI167">
+        <v>1.68</v>
+      </c>
+      <c r="AJ167">
+        <v>2.05</v>
+      </c>
+      <c r="AK167">
+        <v>1.2</v>
+      </c>
+      <c r="AL167">
+        <v>1.29</v>
+      </c>
+      <c r="AM167">
+        <v>2.05</v>
+      </c>
+      <c r="AN167">
+        <v>1.38</v>
+      </c>
+      <c r="AO167">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP167">
+        <v>1.35</v>
+      </c>
+      <c r="AQ167">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR167">
+        <v>1.64</v>
+      </c>
+      <c r="AS167">
+        <v>1.48</v>
+      </c>
+      <c r="AT167">
+        <v>3.12</v>
+      </c>
+      <c r="AU167">
+        <v>6</v>
+      </c>
+      <c r="AV167">
+        <v>4</v>
+      </c>
+      <c r="AW167">
+        <v>8</v>
+      </c>
+      <c r="AX167">
+        <v>9</v>
+      </c>
+      <c r="AY167">
+        <v>14</v>
+      </c>
+      <c r="AZ167">
+        <v>13</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>3</v>
+      </c>
+      <c r="BC167">
+        <v>9</v>
+      </c>
+      <c r="BD167">
+        <v>1.63</v>
+      </c>
+      <c r="BE167">
+        <v>8.6</v>
+      </c>
+      <c r="BF167">
+        <v>2.66</v>
+      </c>
+      <c r="BG167">
+        <v>1.26</v>
+      </c>
+      <c r="BH167">
+        <v>3.38</v>
+      </c>
+      <c r="BI167">
+        <v>1.48</v>
+      </c>
+      <c r="BJ167">
+        <v>2.47</v>
+      </c>
+      <c r="BK167">
+        <v>2.01</v>
+      </c>
+      <c r="BL167">
+        <v>1.95</v>
+      </c>
+      <c r="BM167">
+        <v>2.25</v>
+      </c>
+      <c r="BN167">
+        <v>1.6</v>
+      </c>
+      <c r="BO167">
+        <v>2.85</v>
+      </c>
+      <c r="BP167">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,9 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['17', '41', '44', '65', '73']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -797,6 +800,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
         <v>1.06</v>
@@ -2035,7 +2041,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2241,7 +2247,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2322,7 +2328,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2525,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2859,7 +2865,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3065,7 +3071,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3352,7 +3358,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3555,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ12">
         <v>0.82</v>
@@ -3683,7 +3689,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3889,7 +3895,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4095,7 +4101,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4794,7 +4800,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ18">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>0.8100000000000001</v>
@@ -4997,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ19">
         <v>0.41</v>
@@ -5125,7 +5131,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5331,7 +5337,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5412,7 +5418,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5537,7 +5543,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5743,7 +5749,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6567,7 +6573,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6645,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27">
         <v>1.19</v>
@@ -6773,7 +6779,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6979,7 +6985,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7060,7 +7066,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7266,7 +7272,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ30">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR30">
         <v>1.82</v>
@@ -7469,7 +7475,7 @@
         <v>1.33</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7803,7 +7809,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -8009,7 +8015,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8215,7 +8221,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8705,7 +8711,7 @@
         <v>0.75</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ37">
         <v>1.06</v>
@@ -8911,7 +8917,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -9451,7 +9457,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9532,7 +9538,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ41">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -9657,7 +9663,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10150,7 +10156,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -10275,7 +10281,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10687,7 +10693,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10768,7 +10774,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR47">
         <v>1.56</v>
@@ -10893,7 +10899,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10971,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
         <v>1.06</v>
@@ -11099,7 +11105,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11305,7 +11311,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11717,7 +11723,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11923,7 +11929,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12335,7 +12341,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12413,7 +12419,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -12747,7 +12753,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12825,7 +12831,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ57">
         <v>1.29</v>
@@ -12953,7 +12959,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13034,7 +13040,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ58">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13446,7 +13452,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR60">
         <v>1.28</v>
@@ -13777,7 +13783,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13855,7 +13861,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ62">
         <v>0.9399999999999999</v>
@@ -13983,7 +13989,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14395,7 +14401,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14601,7 +14607,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14807,7 +14813,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14888,7 +14894,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.18</v>
@@ -15013,7 +15019,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15297,10 +15303,10 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR69">
         <v>1.96</v>
@@ -15425,7 +15431,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15709,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ71">
         <v>0.41</v>
@@ -15837,7 +15843,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16043,7 +16049,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16455,7 +16461,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16945,10 +16951,10 @@
         <v>0.86</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>1.79</v>
@@ -17485,7 +17491,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17563,10 +17569,10 @@
         <v>1.86</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17897,7 +17903,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18103,7 +18109,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18309,7 +18315,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18721,7 +18727,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18802,7 +18808,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR86">
         <v>1.59</v>
@@ -18927,7 +18933,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19133,7 +19139,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19339,7 +19345,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19417,7 +19423,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19626,7 +19632,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ90">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR90">
         <v>1.63</v>
@@ -19751,7 +19757,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19829,7 +19835,7 @@
         <v>1.25</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ91">
         <v>1.19</v>
@@ -19957,7 +19963,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20163,7 +20169,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20447,7 +20453,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ94">
         <v>1.06</v>
@@ -20862,7 +20868,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ96">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21193,7 +21199,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21271,10 +21277,10 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR98">
         <v>1.13</v>
@@ -21480,7 +21486,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21605,7 +21611,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -22095,7 +22101,7 @@
         <v>0.9</v>
       </c>
       <c r="AP102">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ102">
         <v>0.82</v>
@@ -22635,7 +22641,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22841,7 +22847,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23047,7 +23053,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23125,7 +23131,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ107">
         <v>0.9399999999999999</v>
@@ -23253,7 +23259,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23459,7 +23465,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23537,7 +23543,7 @@
         <v>0.1</v>
       </c>
       <c r="AP109">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ109">
         <v>0.41</v>
@@ -23746,7 +23752,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ110">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -23871,7 +23877,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -23952,7 +23958,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -25107,7 +25113,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25394,7 +25400,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ118">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR118">
         <v>1.07</v>
@@ -25519,7 +25525,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25600,7 +25606,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ119">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR119">
         <v>1.57</v>
@@ -25725,7 +25731,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25803,7 +25809,7 @@
         <v>1.27</v>
       </c>
       <c r="AP120">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ120">
         <v>1.19</v>
@@ -25931,7 +25937,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26009,7 +26015,7 @@
         <v>0.75</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26137,7 +26143,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26961,7 +26967,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27167,7 +27173,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -27248,7 +27254,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ127">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR127">
         <v>1.05</v>
@@ -27451,7 +27457,7 @@
         <v>1.08</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ128">
         <v>1.06</v>
@@ -27657,7 +27663,7 @@
         <v>1.08</v>
       </c>
       <c r="AP129">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ129">
         <v>0.9399999999999999</v>
@@ -28197,7 +28203,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28403,7 +28409,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28690,7 +28696,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR134">
         <v>1.47</v>
@@ -29021,7 +29027,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29433,7 +29439,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29845,7 +29851,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -29926,7 +29932,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30051,7 +30057,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30129,7 +30135,7 @@
         <v>0.92</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ141">
         <v>1.06</v>
@@ -30463,7 +30469,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -30747,7 +30753,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ144">
         <v>1.06</v>
@@ -31081,7 +31087,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31287,7 +31293,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31365,7 +31371,7 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ147">
         <v>1.29</v>
@@ -31493,7 +31499,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31574,7 +31580,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ148">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -31905,7 +31911,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32192,7 +32198,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ151">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR151">
         <v>1.37</v>
@@ -32317,7 +32323,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32523,7 +32529,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32935,7 +32941,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33141,7 +33147,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33347,7 +33353,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33837,10 +33843,10 @@
         <v>1.6</v>
       </c>
       <c r="AP159">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR159">
         <v>1.98</v>
@@ -33965,7 +33971,7 @@
         <v>185</v>
       </c>
       <c r="P160" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q160">
         <v>2.85</v>
@@ -34046,7 +34052,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR160">
         <v>1.38</v>
@@ -34249,7 +34255,7 @@
         <v>0.4</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ161">
         <v>0.41</v>
@@ -34583,7 +34589,7 @@
         <v>98</v>
       </c>
       <c r="P163" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q163">
         <v>3.65</v>
@@ -34995,7 +35001,7 @@
         <v>187</v>
       </c>
       <c r="P165" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q165">
         <v>2.69</v>
@@ -35201,7 +35207,7 @@
         <v>188</v>
       </c>
       <c r="P166" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q166">
         <v>2.01</v>
@@ -35407,7 +35413,7 @@
         <v>189</v>
       </c>
       <c r="P167" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q167">
         <v>2.15</v>
@@ -35564,6 +35570,418 @@
       </c>
       <c r="BP167">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7451131</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45787.5</v>
+      </c>
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>75</v>
+      </c>
+      <c r="H168" t="s">
+        <v>72</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>81</v>
+      </c>
+      <c r="P168" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q168">
+        <v>6</v>
+      </c>
+      <c r="R168">
+        <v>2.04</v>
+      </c>
+      <c r="S168">
+        <v>2.05</v>
+      </c>
+      <c r="T168">
+        <v>1.46</v>
+      </c>
+      <c r="U168">
+        <v>2.5</v>
+      </c>
+      <c r="V168">
+        <v>3.22</v>
+      </c>
+      <c r="W168">
+        <v>1.33</v>
+      </c>
+      <c r="X168">
+        <v>9</v>
+      </c>
+      <c r="Y168">
+        <v>1.05</v>
+      </c>
+      <c r="Z168">
+        <v>6</v>
+      </c>
+      <c r="AA168">
+        <v>3.5</v>
+      </c>
+      <c r="AB168">
+        <v>1.58</v>
+      </c>
+      <c r="AC168">
+        <v>1.02</v>
+      </c>
+      <c r="AD168">
+        <v>6.75</v>
+      </c>
+      <c r="AE168">
+        <v>1.42</v>
+      </c>
+      <c r="AF168">
+        <v>2.75</v>
+      </c>
+      <c r="AG168">
+        <v>2.25</v>
+      </c>
+      <c r="AH168">
+        <v>1.57</v>
+      </c>
+      <c r="AI168">
+        <v>2.15</v>
+      </c>
+      <c r="AJ168">
+        <v>1.65</v>
+      </c>
+      <c r="AK168">
+        <v>1.29</v>
+      </c>
+      <c r="AL168">
+        <v>1.3</v>
+      </c>
+      <c r="AM168">
+        <v>1.11</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
+        <v>1.5</v>
+      </c>
+      <c r="AP168">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ168">
+        <v>1.59</v>
+      </c>
+      <c r="AR168">
+        <v>1.23</v>
+      </c>
+      <c r="AS168">
+        <v>1.23</v>
+      </c>
+      <c r="AT168">
+        <v>2.46</v>
+      </c>
+      <c r="AU168">
+        <v>5</v>
+      </c>
+      <c r="AV168">
+        <v>3</v>
+      </c>
+      <c r="AW168">
+        <v>3</v>
+      </c>
+      <c r="AX168">
+        <v>7</v>
+      </c>
+      <c r="AY168">
+        <v>8</v>
+      </c>
+      <c r="AZ168">
+        <v>10</v>
+      </c>
+      <c r="BA168">
+        <v>5</v>
+      </c>
+      <c r="BB168">
+        <v>6</v>
+      </c>
+      <c r="BC168">
+        <v>11</v>
+      </c>
+      <c r="BD168">
+        <v>3.2</v>
+      </c>
+      <c r="BE168">
+        <v>7.5</v>
+      </c>
+      <c r="BF168">
+        <v>1.55</v>
+      </c>
+      <c r="BG168">
+        <v>1.41</v>
+      </c>
+      <c r="BH168">
+        <v>2.7</v>
+      </c>
+      <c r="BI168">
+        <v>1.67</v>
+      </c>
+      <c r="BJ168">
+        <v>2.1</v>
+      </c>
+      <c r="BK168">
+        <v>2.1</v>
+      </c>
+      <c r="BL168">
+        <v>1.65</v>
+      </c>
+      <c r="BM168">
+        <v>2.62</v>
+      </c>
+      <c r="BN168">
+        <v>1.42</v>
+      </c>
+      <c r="BO168">
+        <v>3.6</v>
+      </c>
+      <c r="BP168">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7451133</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45787.61458333334</v>
+      </c>
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" t="s">
+        <v>79</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+      <c r="L169">
+        <v>5</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>190</v>
+      </c>
+      <c r="P169" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q169">
+        <v>1.53</v>
+      </c>
+      <c r="R169">
+        <v>2.8</v>
+      </c>
+      <c r="S169">
+        <v>12</v>
+      </c>
+      <c r="T169">
+        <v>1.25</v>
+      </c>
+      <c r="U169">
+        <v>3.9</v>
+      </c>
+      <c r="V169">
+        <v>2.16</v>
+      </c>
+      <c r="W169">
+        <v>1.57</v>
+      </c>
+      <c r="X169">
+        <v>4.8</v>
+      </c>
+      <c r="Y169">
+        <v>1.15</v>
+      </c>
+      <c r="Z169">
+        <v>1.19</v>
+      </c>
+      <c r="AA169">
+        <v>5.9</v>
+      </c>
+      <c r="AB169">
+        <v>8.4</v>
+      </c>
+      <c r="AC169">
+        <v>1.01</v>
+      </c>
+      <c r="AD169">
+        <v>15.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.15</v>
+      </c>
+      <c r="AF169">
+        <v>5</v>
+      </c>
+      <c r="AG169">
+        <v>1.47</v>
+      </c>
+      <c r="AH169">
+        <v>2.6</v>
+      </c>
+      <c r="AI169">
+        <v>2</v>
+      </c>
+      <c r="AJ169">
+        <v>1.75</v>
+      </c>
+      <c r="AK169">
+        <v>1.11</v>
+      </c>
+      <c r="AL169">
+        <v>1.14</v>
+      </c>
+      <c r="AM169">
+        <v>3.45</v>
+      </c>
+      <c r="AN169">
+        <v>2.25</v>
+      </c>
+      <c r="AO169">
+        <v>1.38</v>
+      </c>
+      <c r="AP169">
+        <v>2.29</v>
+      </c>
+      <c r="AQ169">
+        <v>1.29</v>
+      </c>
+      <c r="AR169">
+        <v>1.97</v>
+      </c>
+      <c r="AS169">
+        <v>1.37</v>
+      </c>
+      <c r="AT169">
+        <v>3.34</v>
+      </c>
+      <c r="AU169">
+        <v>11</v>
+      </c>
+      <c r="AV169">
+        <v>0</v>
+      </c>
+      <c r="AW169">
+        <v>9</v>
+      </c>
+      <c r="AX169">
+        <v>10</v>
+      </c>
+      <c r="AY169">
+        <v>20</v>
+      </c>
+      <c r="AZ169">
+        <v>10</v>
+      </c>
+      <c r="BA169">
+        <v>3</v>
+      </c>
+      <c r="BB169">
+        <v>8</v>
+      </c>
+      <c r="BC169">
+        <v>11</v>
+      </c>
+      <c r="BD169">
+        <v>1.22</v>
+      </c>
+      <c r="BE169">
+        <v>10</v>
+      </c>
+      <c r="BF169">
+        <v>5.87</v>
+      </c>
+      <c r="BG169">
+        <v>1.27</v>
+      </c>
+      <c r="BH169">
+        <v>3.25</v>
+      </c>
+      <c r="BI169">
+        <v>1.48</v>
+      </c>
+      <c r="BJ169">
+        <v>2.53</v>
+      </c>
+      <c r="BK169">
+        <v>2.09</v>
+      </c>
+      <c r="BL169">
+        <v>1.96</v>
+      </c>
+      <c r="BM169">
+        <v>2.31</v>
+      </c>
+      <c r="BN169">
+        <v>1.56</v>
+      </c>
+      <c r="BO169">
+        <v>3.02</v>
+      </c>
+      <c r="BP169">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>['17', '41', '44', '65', '73']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -1164,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1707,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2041,7 +2044,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2247,7 +2250,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2865,7 +2868,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2946,7 +2949,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ9">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3071,7 +3074,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3689,7 +3692,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3895,7 +3898,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4101,7 +4104,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4179,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ15">
         <v>1.06</v>
@@ -5131,7 +5134,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5212,7 +5215,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -5337,7 +5340,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5543,7 +5546,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5621,7 +5624,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ22">
         <v>0.82</v>
@@ -5749,7 +5752,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6573,7 +6576,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6654,7 +6657,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6779,7 +6782,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6985,7 +6988,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7063,7 +7066,7 @@
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ29">
         <v>1.59</v>
@@ -7809,7 +7812,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -8015,7 +8018,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8221,7 +8224,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -9332,7 +9335,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ40">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9457,7 +9460,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9535,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ41">
         <v>1.29</v>
@@ -9663,7 +9666,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10281,7 +10284,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10693,7 +10696,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10899,7 +10902,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -11105,7 +11108,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11311,7 +11314,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11392,7 +11395,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ50">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR50">
         <v>1.52</v>
@@ -11723,7 +11726,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11929,7 +11932,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12341,7 +12344,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12625,7 +12628,7 @@
         <v>0.8</v>
       </c>
       <c r="AP56">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ56">
         <v>1.06</v>
@@ -12753,7 +12756,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12959,7 +12962,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13658,7 +13661,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ61">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR61">
         <v>1.34</v>
@@ -13783,7 +13786,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13989,7 +13992,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14067,7 +14070,7 @@
         <v>1.83</v>
       </c>
       <c r="AP63">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ63">
         <v>1.29</v>
@@ -14401,7 +14404,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14607,7 +14610,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14813,7 +14816,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -15019,7 +15022,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15431,7 +15434,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15512,7 +15515,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ70">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
         <v>1.61</v>
@@ -15843,7 +15846,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16049,7 +16052,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16461,7 +16464,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17363,10 +17366,10 @@
         <v>1.43</v>
       </c>
       <c r="AP79">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ79">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR79">
         <v>1.09</v>
@@ -17491,7 +17494,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17903,7 +17906,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18109,7 +18112,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18315,7 +18318,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18727,7 +18730,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18933,7 +18936,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19139,7 +19142,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19217,7 +19220,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ88">
         <v>0.9399999999999999</v>
@@ -19345,7 +19348,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19757,7 +19760,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19838,7 +19841,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ91">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR91">
         <v>1.08</v>
@@ -19963,7 +19966,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20169,7 +20172,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20247,7 +20250,7 @@
         <v>0.89</v>
       </c>
       <c r="AP93">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -21199,7 +21202,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21611,7 +21614,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -21692,7 +21695,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ100">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR100">
         <v>1.46</v>
@@ -22307,7 +22310,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ103">
         <v>1.06</v>
@@ -22641,7 +22644,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22847,7 +22850,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23053,7 +23056,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23259,7 +23262,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23340,7 +23343,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ108">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR108">
         <v>1.28</v>
@@ -23465,7 +23468,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23877,7 +23880,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -24779,7 +24782,7 @@
         <v>0.82</v>
       </c>
       <c r="AP115">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ115">
         <v>0.82</v>
@@ -25113,7 +25116,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25397,7 +25400,7 @@
         <v>1.82</v>
       </c>
       <c r="AP118">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ118">
         <v>1.59</v>
@@ -25525,7 +25528,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25731,7 +25734,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25812,7 +25815,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ120">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR120">
         <v>1.93</v>
@@ -25937,7 +25940,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26143,7 +26146,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26967,7 +26970,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27173,7 +27176,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -27251,7 +27254,7 @@
         <v>1.15</v>
       </c>
       <c r="AP127">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ127">
         <v>1.29</v>
@@ -28078,7 +28081,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ131">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR131">
         <v>1.7</v>
@@ -28203,7 +28206,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28409,7 +28412,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -29027,7 +29030,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29439,7 +29442,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29520,7 +29523,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ138">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -29851,7 +29854,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -30057,7 +30060,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30469,7 +30472,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -30547,7 +30550,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ143">
         <v>1.06</v>
@@ -31087,7 +31090,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31293,7 +31296,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31499,7 +31502,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31786,7 +31789,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ149">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR149">
         <v>1.39</v>
@@ -31911,7 +31914,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32323,7 +32326,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32529,7 +32532,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32813,7 +32816,7 @@
         <v>1.27</v>
       </c>
       <c r="AP154">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ154">
         <v>1.29</v>
@@ -32941,7 +32944,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33147,7 +33150,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33353,7 +33356,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33640,7 +33643,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ158">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR158">
         <v>1.63</v>
@@ -33971,7 +33974,7 @@
         <v>185</v>
       </c>
       <c r="P160" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q160">
         <v>2.85</v>
@@ -34589,7 +34592,7 @@
         <v>98</v>
       </c>
       <c r="P163" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q163">
         <v>3.65</v>
@@ -35001,7 +35004,7 @@
         <v>187</v>
       </c>
       <c r="P165" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q165">
         <v>2.69</v>
@@ -35207,7 +35210,7 @@
         <v>188</v>
       </c>
       <c r="P166" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q166">
         <v>2.01</v>
@@ -35413,7 +35416,7 @@
         <v>189</v>
       </c>
       <c r="P167" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q167">
         <v>2.15</v>
@@ -35619,7 +35622,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35982,6 +35985,212 @@
       </c>
       <c r="BP169">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7451132</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45788.45833333334</v>
+      </c>
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>71</v>
+      </c>
+      <c r="H170" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>191</v>
+      </c>
+      <c r="P170" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q170">
+        <v>6.04</v>
+      </c>
+      <c r="R170">
+        <v>2.03</v>
+      </c>
+      <c r="S170">
+        <v>2.3</v>
+      </c>
+      <c r="T170">
+        <v>1.44</v>
+      </c>
+      <c r="U170">
+        <v>2.55</v>
+      </c>
+      <c r="V170">
+        <v>3.1</v>
+      </c>
+      <c r="W170">
+        <v>1.33</v>
+      </c>
+      <c r="X170">
+        <v>8.25</v>
+      </c>
+      <c r="Y170">
+        <v>1.06</v>
+      </c>
+      <c r="Z170">
+        <v>4.8</v>
+      </c>
+      <c r="AA170">
+        <v>3.66</v>
+      </c>
+      <c r="AB170">
+        <v>1.6</v>
+      </c>
+      <c r="AC170">
+        <v>1.05</v>
+      </c>
+      <c r="AD170">
+        <v>8.5</v>
+      </c>
+      <c r="AE170">
+        <v>1.33</v>
+      </c>
+      <c r="AF170">
+        <v>2.97</v>
+      </c>
+      <c r="AG170">
+        <v>2.1</v>
+      </c>
+      <c r="AH170">
+        <v>1.62</v>
+      </c>
+      <c r="AI170">
+        <v>2.1</v>
+      </c>
+      <c r="AJ170">
+        <v>1.7</v>
+      </c>
+      <c r="AK170">
+        <v>2.1</v>
+      </c>
+      <c r="AL170">
+        <v>1.3</v>
+      </c>
+      <c r="AM170">
+        <v>1.09</v>
+      </c>
+      <c r="AN170">
+        <v>1.81</v>
+      </c>
+      <c r="AO170">
+        <v>1.19</v>
+      </c>
+      <c r="AP170">
+        <v>1.76</v>
+      </c>
+      <c r="AQ170">
+        <v>1.18</v>
+      </c>
+      <c r="AR170">
+        <v>1.03</v>
+      </c>
+      <c r="AS170">
+        <v>1.43</v>
+      </c>
+      <c r="AT170">
+        <v>2.46</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>6</v>
+      </c>
+      <c r="AX170">
+        <v>8</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>12</v>
+      </c>
+      <c r="BA170">
+        <v>5</v>
+      </c>
+      <c r="BB170">
+        <v>7</v>
+      </c>
+      <c r="BC170">
+        <v>12</v>
+      </c>
+      <c r="BD170">
+        <v>3.55</v>
+      </c>
+      <c r="BE170">
+        <v>7.5</v>
+      </c>
+      <c r="BF170">
+        <v>1.48</v>
+      </c>
+      <c r="BG170">
+        <v>1.43</v>
+      </c>
+      <c r="BH170">
+        <v>2.6</v>
+      </c>
+      <c r="BI170">
+        <v>1.75</v>
+      </c>
+      <c r="BJ170">
+        <v>1.97</v>
+      </c>
+      <c r="BK170">
+        <v>2.2</v>
+      </c>
+      <c r="BL170">
+        <v>1.6</v>
+      </c>
+      <c r="BM170">
+        <v>2.8</v>
+      </c>
+      <c r="BN170">
+        <v>1.31</v>
+      </c>
+      <c r="BO170">
+        <v>3.8</v>
+      </c>
+      <c r="BP170">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1167,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ8">
         <v>0.41</v>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ20">
         <v>1.18</v>
@@ -6860,7 +6860,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ28">
         <v>0.9399999999999999</v>
@@ -9744,7 +9744,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ42">
         <v>1.06</v>
@@ -11186,7 +11186,7 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ49">
         <v>1.29</v>
@@ -13452,7 +13452,7 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ60">
         <v>1.59</v>
@@ -14894,7 +14894,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ67">
         <v>1.29</v>
@@ -17160,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -18396,7 +18396,7 @@
         <v>0.88</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ84">
         <v>0.82</v>
@@ -21074,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ97">
         <v>0.41</v>
@@ -23340,7 +23340,7 @@
         <v>1.3</v>
       </c>
       <c r="AP108">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ108">
         <v>1.18</v>
@@ -25194,7 +25194,7 @@
         <v>1.17</v>
       </c>
       <c r="AP117">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ117">
         <v>0.9399999999999999</v>
@@ -28490,7 +28490,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ133">
         <v>1.06</v>
@@ -29726,7 +29726,7 @@
         <v>1.23</v>
       </c>
       <c r="AP139">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ139">
         <v>1.29</v>
@@ -32198,7 +32198,7 @@
         <v>1.71</v>
       </c>
       <c r="AP151">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ151">
         <v>1.59</v>
@@ -34052,7 +34052,7 @@
         <v>1.4</v>
       </c>
       <c r="AP160">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ160">
         <v>1.29</v>
@@ -36191,6 +36191,212 @@
       </c>
       <c r="BP170">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7451135</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45788.55208333334</v>
+      </c>
+      <c r="F171">
+        <v>34</v>
+      </c>
+      <c r="G171" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s">
+        <v>78</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>81</v>
+      </c>
+      <c r="P171" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q171">
+        <v>2.85</v>
+      </c>
+      <c r="R171">
+        <v>2.02</v>
+      </c>
+      <c r="S171">
+        <v>4.55</v>
+      </c>
+      <c r="T171">
+        <v>1.53</v>
+      </c>
+      <c r="U171">
+        <v>2.25</v>
+      </c>
+      <c r="V171">
+        <v>3.65</v>
+      </c>
+      <c r="W171">
+        <v>1.27</v>
+      </c>
+      <c r="X171">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y171">
+        <v>1.04</v>
+      </c>
+      <c r="Z171">
+        <v>2.05</v>
+      </c>
+      <c r="AA171">
+        <v>2.73</v>
+      </c>
+      <c r="AB171">
+        <v>3.7</v>
+      </c>
+      <c r="AC171">
+        <v>1.1</v>
+      </c>
+      <c r="AD171">
+        <v>6.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.42</v>
+      </c>
+      <c r="AF171">
+        <v>2.5</v>
+      </c>
+      <c r="AG171">
+        <v>2.45</v>
+      </c>
+      <c r="AH171">
+        <v>1.51</v>
+      </c>
+      <c r="AI171">
+        <v>2</v>
+      </c>
+      <c r="AJ171">
+        <v>1.67</v>
+      </c>
+      <c r="AK171">
+        <v>1.38</v>
+      </c>
+      <c r="AL171">
+        <v>1.35</v>
+      </c>
+      <c r="AM171">
+        <v>1.75</v>
+      </c>
+      <c r="AN171">
+        <v>1.56</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
+      </c>
+      <c r="AP171">
+        <v>1.53</v>
+      </c>
+      <c r="AQ171">
+        <v>1</v>
+      </c>
+      <c r="AR171">
+        <v>1.4</v>
+      </c>
+      <c r="AS171">
+        <v>1.34</v>
+      </c>
+      <c r="AT171">
+        <v>2.74</v>
+      </c>
+      <c r="AU171">
+        <v>6</v>
+      </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
+      <c r="AW171">
+        <v>4</v>
+      </c>
+      <c r="AX171">
+        <v>5</v>
+      </c>
+      <c r="AY171">
+        <v>10</v>
+      </c>
+      <c r="AZ171">
+        <v>8</v>
+      </c>
+      <c r="BA171">
+        <v>4</v>
+      </c>
+      <c r="BB171">
+        <v>3</v>
+      </c>
+      <c r="BC171">
+        <v>7</v>
+      </c>
+      <c r="BD171">
+        <v>1.72</v>
+      </c>
+      <c r="BE171">
+        <v>7.5</v>
+      </c>
+      <c r="BF171">
+        <v>2.66</v>
+      </c>
+      <c r="BG171">
+        <v>1.52</v>
+      </c>
+      <c r="BH171">
+        <v>2.4</v>
+      </c>
+      <c r="BI171">
+        <v>2.02</v>
+      </c>
+      <c r="BJ171">
+        <v>1.83</v>
+      </c>
+      <c r="BK171">
+        <v>2.67</v>
+      </c>
+      <c r="BL171">
+        <v>1.5</v>
+      </c>
+      <c r="BM171">
+        <v>3.76</v>
+      </c>
+      <c r="BN171">
+        <v>1.19</v>
+      </c>
+      <c r="BO171">
+        <v>4.65</v>
+      </c>
+      <c r="BP171">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['2', '4', '72']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -1167,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2044,7 +2047,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2125,7 +2128,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ5">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2250,7 +2253,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2740,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ8">
         <v>0.41</v>
@@ -2868,7 +2871,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3074,7 +3077,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3567,7 +3570,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ12">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR12">
         <v>2.03</v>
@@ -3692,7 +3695,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3898,7 +3901,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4104,7 +4107,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4597,7 +4600,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ17">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR17">
         <v>1.8</v>
@@ -5134,7 +5137,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5212,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ20">
         <v>1.18</v>
@@ -5340,7 +5343,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5546,7 +5549,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5627,7 +5630,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ22">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5752,7 +5755,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6576,7 +6579,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6782,7 +6785,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6860,7 +6863,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ28">
         <v>0.9399999999999999</v>
@@ -6988,7 +6991,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7812,7 +7815,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -8018,7 +8021,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8224,7 +8227,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8511,7 +8514,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ36">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -9460,7 +9463,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9666,7 +9669,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9744,7 +9747,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ42">
         <v>1.06</v>
@@ -10284,7 +10287,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10571,7 +10574,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ46">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10696,7 +10699,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10902,7 +10905,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -11108,7 +11111,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11186,7 +11189,7 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ49">
         <v>1.29</v>
@@ -11314,7 +11317,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11726,7 +11729,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11807,7 +11810,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ52">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -11932,7 +11935,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12344,7 +12347,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12756,7 +12759,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12962,7 +12965,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13452,7 +13455,7 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ60">
         <v>1.59</v>
@@ -13786,7 +13789,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13992,7 +13995,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14404,7 +14407,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14610,7 +14613,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14816,7 +14819,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14894,7 +14897,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ67">
         <v>1.29</v>
@@ -15022,7 +15025,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15434,7 +15437,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15846,7 +15849,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15927,7 +15930,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -16052,7 +16055,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16464,7 +16467,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17160,7 +17163,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17494,7 +17497,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17906,7 +17909,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18112,7 +18115,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18318,7 +18321,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18396,10 +18399,10 @@
         <v>0.88</v>
       </c>
       <c r="AP84">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ84">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR84">
         <v>1.2</v>
@@ -18730,7 +18733,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18936,7 +18939,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19142,7 +19145,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19348,7 +19351,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19760,7 +19763,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19966,7 +19969,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20047,7 +20050,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ92">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR92">
         <v>1.57</v>
@@ -20172,7 +20175,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -21074,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ97">
         <v>0.41</v>
@@ -21202,7 +21205,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21614,7 +21617,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -22107,7 +22110,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ102">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR102">
         <v>1.92</v>
@@ -22644,7 +22647,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22850,7 +22853,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23056,7 +23059,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23262,7 +23265,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23340,7 +23343,7 @@
         <v>1.3</v>
       </c>
       <c r="AP108">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ108">
         <v>1.18</v>
@@ -23468,7 +23471,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23880,7 +23883,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -24785,7 +24788,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ115">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR115">
         <v>1.11</v>
@@ -25116,7 +25119,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25194,7 +25197,7 @@
         <v>1.17</v>
       </c>
       <c r="AP117">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ117">
         <v>0.9399999999999999</v>
@@ -25528,7 +25531,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25734,7 +25737,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25940,7 +25943,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26146,7 +26149,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26227,7 +26230,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ122">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR122">
         <v>1.67</v>
@@ -26970,7 +26973,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27176,7 +27179,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -28206,7 +28209,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28412,7 +28415,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28490,7 +28493,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ133">
         <v>1.06</v>
@@ -28905,7 +28908,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ135">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29030,7 +29033,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29442,7 +29445,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29726,7 +29729,7 @@
         <v>1.23</v>
       </c>
       <c r="AP139">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ139">
         <v>1.29</v>
@@ -29854,7 +29857,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -30060,7 +30063,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30347,7 +30350,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ142">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR142">
         <v>1.44</v>
@@ -30472,7 +30475,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -31090,7 +31093,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31296,7 +31299,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31502,7 +31505,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31914,7 +31917,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32198,7 +32201,7 @@
         <v>1.71</v>
       </c>
       <c r="AP151">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ151">
         <v>1.59</v>
@@ -32326,7 +32329,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32532,7 +32535,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32613,7 +32616,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ153">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -32944,7 +32947,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33150,7 +33153,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33356,7 +33359,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33974,7 +33977,7 @@
         <v>185</v>
       </c>
       <c r="P160" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q160">
         <v>2.85</v>
@@ -34052,7 +34055,7 @@
         <v>1.4</v>
       </c>
       <c r="AP160">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ160">
         <v>1.29</v>
@@ -34467,7 +34470,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ162">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -34592,7 +34595,7 @@
         <v>98</v>
       </c>
       <c r="P163" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q163">
         <v>3.65</v>
@@ -35004,7 +35007,7 @@
         <v>187</v>
       </c>
       <c r="P165" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q165">
         <v>2.69</v>
@@ -35210,7 +35213,7 @@
         <v>188</v>
       </c>
       <c r="P166" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q166">
         <v>2.01</v>
@@ -35416,7 +35419,7 @@
         <v>189</v>
       </c>
       <c r="P167" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q167">
         <v>2.15</v>
@@ -35622,7 +35625,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -36318,7 +36321,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36397,6 +36400,212 @@
       </c>
       <c r="BP171">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7451136</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s">
+        <v>75</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>3</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>192</v>
+      </c>
+      <c r="P172" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q172">
+        <v>2.38</v>
+      </c>
+      <c r="R172">
+        <v>2.1</v>
+      </c>
+      <c r="S172">
+        <v>4.63</v>
+      </c>
+      <c r="T172">
+        <v>1.4</v>
+      </c>
+      <c r="U172">
+        <v>2.65</v>
+      </c>
+      <c r="V172">
+        <v>3</v>
+      </c>
+      <c r="W172">
+        <v>1.3</v>
+      </c>
+      <c r="X172">
+        <v>8.1</v>
+      </c>
+      <c r="Y172">
+        <v>1.05</v>
+      </c>
+      <c r="Z172">
+        <v>1.72</v>
+      </c>
+      <c r="AA172">
+        <v>3.7</v>
+      </c>
+      <c r="AB172">
+        <v>4.9</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>7.9</v>
+      </c>
+      <c r="AE172">
+        <v>1.32</v>
+      </c>
+      <c r="AF172">
+        <v>2.88</v>
+      </c>
+      <c r="AG172">
+        <v>1.97</v>
+      </c>
+      <c r="AH172">
+        <v>1.68</v>
+      </c>
+      <c r="AI172">
+        <v>1.91</v>
+      </c>
+      <c r="AJ172">
+        <v>1.65</v>
+      </c>
+      <c r="AK172">
+        <v>1.26</v>
+      </c>
+      <c r="AL172">
+        <v>1.25</v>
+      </c>
+      <c r="AM172">
+        <v>2.15</v>
+      </c>
+      <c r="AN172">
+        <v>1.53</v>
+      </c>
+      <c r="AO172">
+        <v>0.82</v>
+      </c>
+      <c r="AP172">
+        <v>1.61</v>
+      </c>
+      <c r="AQ172">
+        <v>0.78</v>
+      </c>
+      <c r="AR172">
+        <v>1.41</v>
+      </c>
+      <c r="AS172">
+        <v>1.07</v>
+      </c>
+      <c r="AT172">
+        <v>2.48</v>
+      </c>
+      <c r="AU172">
+        <v>6</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>4</v>
+      </c>
+      <c r="AX172">
+        <v>5</v>
+      </c>
+      <c r="AY172">
+        <v>10</v>
+      </c>
+      <c r="AZ172">
+        <v>10</v>
+      </c>
+      <c r="BA172">
+        <v>2</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>3</v>
+      </c>
+      <c r="BD172">
+        <v>1.37</v>
+      </c>
+      <c r="BE172">
+        <v>8.6</v>
+      </c>
+      <c r="BF172">
+        <v>3.4</v>
+      </c>
+      <c r="BG172">
+        <v>1.42</v>
+      </c>
+      <c r="BH172">
+        <v>2.65</v>
+      </c>
+      <c r="BI172">
+        <v>1.76</v>
+      </c>
+      <c r="BJ172">
+        <v>1.99</v>
+      </c>
+      <c r="BK172">
+        <v>2.6</v>
+      </c>
+      <c r="BL172">
+        <v>1.56</v>
+      </c>
+      <c r="BM172">
+        <v>2.97</v>
+      </c>
+      <c r="BN172">
+        <v>1.3</v>
+      </c>
+      <c r="BO172">
+        <v>3.88</v>
+      </c>
+      <c r="BP172">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,12 @@
     <t>['2', '4', '72']</t>
   </si>
   <si>
+    <t>['22', '28']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -1170,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2047,7 +2053,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2253,7 +2259,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2871,7 +2877,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2949,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ9">
         <v>1.18</v>
@@ -3077,7 +3083,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3158,7 +3164,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR10">
         <v>3.14</v>
@@ -3361,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ11">
         <v>1.59</v>
@@ -3695,7 +3701,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3901,7 +3907,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4107,7 +4113,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4188,7 +4194,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -4597,7 +4603,7 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
         <v>0.78</v>
@@ -4803,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ18">
         <v>1.29</v>
@@ -5137,7 +5143,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5343,7 +5349,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5549,7 +5555,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5755,7 +5761,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6042,7 +6048,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ24">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -6245,7 +6251,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6454,7 +6460,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ26">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -6579,7 +6585,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6785,7 +6791,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6991,7 +6997,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7687,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
         <v>1.06</v>
@@ -7815,7 +7821,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7896,7 +7902,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ33">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8021,7 +8027,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8227,7 +8233,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8305,10 +8311,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ35">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -9463,7 +9469,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9669,7 +9675,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9750,7 +9756,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ42">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9953,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43">
         <v>0.41</v>
@@ -10287,7 +10293,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10365,10 +10371,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ45">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR45">
         <v>1.19</v>
@@ -10699,7 +10705,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10777,7 +10783,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ47">
         <v>1.59</v>
@@ -10905,7 +10911,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10986,7 +10992,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11111,7 +11117,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11192,7 +11198,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ49">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11317,7 +11323,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11601,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ51">
         <v>0.41</v>
@@ -11729,7 +11735,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11935,7 +11941,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12347,7 +12353,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12428,7 +12434,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ55">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.97</v>
@@ -12759,7 +12765,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12840,7 +12846,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ57">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR57">
         <v>1.11</v>
@@ -12965,7 +12971,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13043,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
         <v>1.29</v>
@@ -13661,7 +13667,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ61">
         <v>1.18</v>
@@ -13789,7 +13795,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13995,7 +14001,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14076,7 +14082,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14407,7 +14413,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14613,7 +14619,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14694,7 +14700,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ66">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.64</v>
@@ -14819,7 +14825,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -15025,7 +15031,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15103,7 +15109,7 @@
         <v>1.17</v>
       </c>
       <c r="AP68">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15437,7 +15443,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15849,7 +15855,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15927,7 +15933,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ72">
         <v>0.78</v>
@@ -16055,7 +16061,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16136,7 +16142,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ73">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16467,7 +16473,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16545,7 +16551,7 @@
         <v>0.71</v>
       </c>
       <c r="AP75">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ75">
         <v>1.06</v>
@@ -16754,7 +16760,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ76">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR76">
         <v>1.66</v>
@@ -17497,7 +17503,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17909,7 +17915,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18115,7 +18121,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18193,10 +18199,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR83">
         <v>1.51</v>
@@ -18321,7 +18327,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18605,10 +18611,10 @@
         <v>1.38</v>
       </c>
       <c r="AP85">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ85">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.38</v>
@@ -18733,7 +18739,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18939,7 +18945,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19145,7 +19151,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19351,7 +19357,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19763,7 +19769,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19969,7 +19975,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20175,7 +20181,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -21205,7 +21211,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21489,7 +21495,7 @@
         <v>1.89</v>
       </c>
       <c r="AP99">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ99">
         <v>1.59</v>
@@ -21617,7 +21623,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -21695,7 +21701,7 @@
         <v>1.44</v>
       </c>
       <c r="AP100">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ100">
         <v>1.18</v>
@@ -21904,7 +21910,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ101">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR101">
         <v>1.55</v>
@@ -22316,7 +22322,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ103">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.14</v>
@@ -22647,7 +22653,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22853,7 +22859,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23059,7 +23065,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23265,7 +23271,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23471,7 +23477,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23755,7 +23761,7 @@
         <v>0.82</v>
       </c>
       <c r="AP110">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ110">
         <v>1.29</v>
@@ -23883,7 +23889,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -24167,7 +24173,7 @@
         <v>0.82</v>
       </c>
       <c r="AP112">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24376,7 +24382,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ113">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.48</v>
@@ -24582,7 +24588,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR114">
         <v>1.68</v>
@@ -25119,7 +25125,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25531,7 +25537,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25737,7 +25743,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25943,7 +25949,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26149,7 +26155,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26433,7 +26439,7 @@
         <v>1.08</v>
       </c>
       <c r="AP123">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ123">
         <v>1.06</v>
@@ -26639,10 +26645,10 @@
         <v>1.09</v>
       </c>
       <c r="AP124">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ124">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -26973,7 +26979,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27054,7 +27060,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ126">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR126">
         <v>1.57</v>
@@ -27179,7 +27185,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -28209,7 +28215,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28287,7 +28293,7 @@
         <v>0.08</v>
       </c>
       <c r="AP132">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ132">
         <v>0.41</v>
@@ -28415,7 +28421,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28496,7 +28502,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ133">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.26</v>
@@ -29033,7 +29039,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29111,10 +29117,10 @@
         <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ136">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR136">
         <v>1.36</v>
@@ -29317,7 +29323,7 @@
         <v>0.15</v>
       </c>
       <c r="AP137">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ137">
         <v>0.41</v>
@@ -29445,7 +29451,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29732,7 +29738,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ139">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR139">
         <v>1.32</v>
@@ -29857,7 +29863,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -29935,7 +29941,7 @@
         <v>1.62</v>
       </c>
       <c r="AP140">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ140">
         <v>1.59</v>
@@ -30063,7 +30069,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30144,7 +30150,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ141">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.17</v>
@@ -30475,7 +30481,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -30762,7 +30768,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ144">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.94</v>
@@ -31093,7 +31099,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31299,7 +31305,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31380,7 +31386,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ147">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR147">
         <v>1.2</v>
@@ -31505,7 +31511,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31583,7 +31589,7 @@
         <v>1.29</v>
       </c>
       <c r="AP148">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ148">
         <v>1.29</v>
@@ -31789,7 +31795,7 @@
         <v>1.29</v>
       </c>
       <c r="AP149">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ149">
         <v>1.18</v>
@@ -31917,7 +31923,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32329,7 +32335,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32535,7 +32541,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32613,7 +32619,7 @@
         <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ153">
         <v>0.78</v>
@@ -32822,7 +32828,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ154">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR154">
         <v>1.06</v>
@@ -32947,7 +32953,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33153,7 +33159,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33234,7 +33240,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ156">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33359,7 +33365,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33437,7 +33443,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ157">
         <v>0.9399999999999999</v>
@@ -33977,7 +33983,7 @@
         <v>185</v>
       </c>
       <c r="P160" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q160">
         <v>2.85</v>
@@ -34467,7 +34473,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP162">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AQ162">
         <v>0.78</v>
@@ -34595,7 +34601,7 @@
         <v>98</v>
       </c>
       <c r="P163" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q163">
         <v>3.65</v>
@@ -34676,7 +34682,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ163">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR163">
         <v>1.57</v>
@@ -34879,7 +34885,7 @@
         <v>1.06</v>
       </c>
       <c r="AP164">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ164">
         <v>1.06</v>
@@ -35007,7 +35013,7 @@
         <v>187</v>
       </c>
       <c r="P165" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q165">
         <v>2.69</v>
@@ -35088,7 +35094,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ165">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.49</v>
@@ -35213,7 +35219,7 @@
         <v>188</v>
       </c>
       <c r="P166" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q166">
         <v>2.01</v>
@@ -35419,7 +35425,7 @@
         <v>189</v>
       </c>
       <c r="P167" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q167">
         <v>2.15</v>
@@ -35625,7 +35631,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -36606,6 +36612,418 @@
       </c>
       <c r="BP172">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7451137</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" t="s">
+        <v>73</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>193</v>
+      </c>
+      <c r="P173" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q173">
+        <v>3.05</v>
+      </c>
+      <c r="R173">
+        <v>2.07</v>
+      </c>
+      <c r="S173">
+        <v>3.3</v>
+      </c>
+      <c r="T173">
+        <v>1.4</v>
+      </c>
+      <c r="U173">
+        <v>2.7</v>
+      </c>
+      <c r="V173">
+        <v>2.89</v>
+      </c>
+      <c r="W173">
+        <v>1.36</v>
+      </c>
+      <c r="X173">
+        <v>6.9</v>
+      </c>
+      <c r="Y173">
+        <v>1.04</v>
+      </c>
+      <c r="Z173">
+        <v>2.48</v>
+      </c>
+      <c r="AA173">
+        <v>3.25</v>
+      </c>
+      <c r="AB173">
+        <v>2.8</v>
+      </c>
+      <c r="AC173">
+        <v>1.02</v>
+      </c>
+      <c r="AD173">
+        <v>8</v>
+      </c>
+      <c r="AE173">
+        <v>1.31</v>
+      </c>
+      <c r="AF173">
+        <v>2.93</v>
+      </c>
+      <c r="AG173">
+        <v>1.95</v>
+      </c>
+      <c r="AH173">
+        <v>1.75</v>
+      </c>
+      <c r="AI173">
+        <v>1.7</v>
+      </c>
+      <c r="AJ173">
+        <v>1.9</v>
+      </c>
+      <c r="AK173">
+        <v>1.33</v>
+      </c>
+      <c r="AL173">
+        <v>1.32</v>
+      </c>
+      <c r="AM173">
+        <v>1.53</v>
+      </c>
+      <c r="AN173">
+        <v>1.71</v>
+      </c>
+      <c r="AO173">
+        <v>1.06</v>
+      </c>
+      <c r="AP173">
+        <v>1.78</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>1.47</v>
+      </c>
+      <c r="AS173">
+        <v>1.29</v>
+      </c>
+      <c r="AT173">
+        <v>2.76</v>
+      </c>
+      <c r="AU173">
+        <v>7</v>
+      </c>
+      <c r="AV173">
+        <v>4</v>
+      </c>
+      <c r="AW173">
+        <v>5</v>
+      </c>
+      <c r="AX173">
+        <v>5</v>
+      </c>
+      <c r="AY173">
+        <v>12</v>
+      </c>
+      <c r="AZ173">
+        <v>9</v>
+      </c>
+      <c r="BA173">
+        <v>2</v>
+      </c>
+      <c r="BB173">
+        <v>2</v>
+      </c>
+      <c r="BC173">
+        <v>4</v>
+      </c>
+      <c r="BD173">
+        <v>1.77</v>
+      </c>
+      <c r="BE173">
+        <v>7.4</v>
+      </c>
+      <c r="BF173">
+        <v>2.56</v>
+      </c>
+      <c r="BG173">
+        <v>1.38</v>
+      </c>
+      <c r="BH173">
+        <v>2.8</v>
+      </c>
+      <c r="BI173">
+        <v>1.65</v>
+      </c>
+      <c r="BJ173">
+        <v>2.1</v>
+      </c>
+      <c r="BK173">
+        <v>2.05</v>
+      </c>
+      <c r="BL173">
+        <v>1.7</v>
+      </c>
+      <c r="BM173">
+        <v>2.71</v>
+      </c>
+      <c r="BN173">
+        <v>1.43</v>
+      </c>
+      <c r="BO173">
+        <v>3.48</v>
+      </c>
+      <c r="BP173">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7451138</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45794.59375</v>
+      </c>
+      <c r="F174">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>77</v>
+      </c>
+      <c r="H174" t="s">
+        <v>70</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>194</v>
+      </c>
+      <c r="P174" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q174">
+        <v>13</v>
+      </c>
+      <c r="R174">
+        <v>3.12</v>
+      </c>
+      <c r="S174">
+        <v>1.43</v>
+      </c>
+      <c r="T174">
+        <v>1.17</v>
+      </c>
+      <c r="U174">
+        <v>3.9</v>
+      </c>
+      <c r="V174">
+        <v>2.04</v>
+      </c>
+      <c r="W174">
+        <v>1.73</v>
+      </c>
+      <c r="X174">
+        <v>4.1</v>
+      </c>
+      <c r="Y174">
+        <v>1.16</v>
+      </c>
+      <c r="Z174">
+        <v>10</v>
+      </c>
+      <c r="AA174">
+        <v>5.75</v>
+      </c>
+      <c r="AB174">
+        <v>1.2</v>
+      </c>
+      <c r="AC174">
+        <v>1.02</v>
+      </c>
+      <c r="AD174">
+        <v>21</v>
+      </c>
+      <c r="AE174">
+        <v>1.06</v>
+      </c>
+      <c r="AF174">
+        <v>5.5</v>
+      </c>
+      <c r="AG174">
+        <v>1.42</v>
+      </c>
+      <c r="AH174">
+        <v>2.7</v>
+      </c>
+      <c r="AI174">
+        <v>2.1</v>
+      </c>
+      <c r="AJ174">
+        <v>1.6</v>
+      </c>
+      <c r="AK174">
+        <v>1.08</v>
+      </c>
+      <c r="AL174">
+        <v>1.11</v>
+      </c>
+      <c r="AM174">
+        <v>1.02</v>
+      </c>
+      <c r="AN174">
+        <v>1.12</v>
+      </c>
+      <c r="AO174">
+        <v>1.29</v>
+      </c>
+      <c r="AP174">
+        <v>1.11</v>
+      </c>
+      <c r="AQ174">
+        <v>1.28</v>
+      </c>
+      <c r="AR174">
+        <v>1.49</v>
+      </c>
+      <c r="AS174">
+        <v>1.81</v>
+      </c>
+      <c r="AT174">
+        <v>3.3</v>
+      </c>
+      <c r="AU174">
+        <v>6</v>
+      </c>
+      <c r="AV174">
+        <v>6</v>
+      </c>
+      <c r="AW174">
+        <v>16</v>
+      </c>
+      <c r="AX174">
+        <v>5</v>
+      </c>
+      <c r="AY174">
+        <v>22</v>
+      </c>
+      <c r="AZ174">
+        <v>11</v>
+      </c>
+      <c r="BA174">
+        <v>6</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>8</v>
+      </c>
+      <c r="BD174">
+        <v>3.34</v>
+      </c>
+      <c r="BE174">
+        <v>8</v>
+      </c>
+      <c r="BF174">
+        <v>1.44</v>
+      </c>
+      <c r="BG174">
+        <v>1.21</v>
+      </c>
+      <c r="BH174">
+        <v>3.58</v>
+      </c>
+      <c r="BI174">
+        <v>1.45</v>
+      </c>
+      <c r="BJ174">
+        <v>2.57</v>
+      </c>
+      <c r="BK174">
+        <v>1.74</v>
+      </c>
+      <c r="BL174">
+        <v>2.01</v>
+      </c>
+      <c r="BM174">
+        <v>2.19</v>
+      </c>
+      <c r="BN174">
+        <v>1.64</v>
+      </c>
+      <c r="BO174">
+        <v>2.92</v>
+      </c>
+      <c r="BP174">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,9 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['35', '38', '73', '77']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -1176,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2053,7 +2056,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2259,7 +2262,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2752,7 +2755,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ8">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2877,7 +2880,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3083,7 +3086,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3701,7 +3704,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3779,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13">
         <v>0.9399999999999999</v>
@@ -3907,7 +3910,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4113,7 +4116,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -5018,7 +5021,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ19">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5143,7 +5146,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5349,7 +5352,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5555,7 +5558,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5761,7 +5764,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5839,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23">
         <v>1.06</v>
@@ -6585,7 +6588,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6791,7 +6794,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6997,7 +7000,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7821,7 +7824,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7899,7 +7902,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>1.28</v>
@@ -8027,7 +8030,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8108,7 +8111,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ34">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR34">
         <v>1.39</v>
@@ -8233,7 +8236,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -9469,7 +9472,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9675,7 +9678,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9962,7 +9965,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -10165,7 +10168,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ44">
         <v>1.59</v>
@@ -10293,7 +10296,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10705,7 +10708,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10911,7 +10914,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -11117,7 +11120,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11323,7 +11326,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11401,7 +11404,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50">
         <v>1.18</v>
@@ -11610,7 +11613,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ51">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR51">
         <v>1.18</v>
@@ -11735,7 +11738,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11813,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>0.78</v>
@@ -11941,7 +11944,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12353,7 +12356,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12765,7 +12768,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12971,7 +12974,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13258,7 +13261,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ59">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR59">
         <v>1.61</v>
@@ -13795,7 +13798,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14001,7 +14004,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14413,7 +14416,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14491,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14619,7 +14622,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14825,7 +14828,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -15031,7 +15034,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15443,7 +15446,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15730,7 +15733,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ71">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR71">
         <v>0.93</v>
@@ -15855,7 +15858,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16061,7 +16064,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16139,7 +16142,7 @@
         <v>1.57</v>
       </c>
       <c r="AP73">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16348,7 +16351,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ74">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR74">
         <v>1.72</v>
@@ -16473,7 +16476,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17503,7 +17506,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17915,7 +17918,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17993,10 +17996,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ82">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR82">
         <v>1.53</v>
@@ -18121,7 +18124,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18327,7 +18330,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18739,7 +18742,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18945,7 +18948,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19151,7 +19154,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19357,7 +19360,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19769,7 +19772,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19975,7 +19978,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20181,7 +20184,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -21086,7 +21089,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ97">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR97">
         <v>1.22</v>
@@ -21211,7 +21214,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21623,7 +21626,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -22653,7 +22656,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22859,7 +22862,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22937,7 +22940,7 @@
         <v>1.1</v>
       </c>
       <c r="AP106">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106">
         <v>0.9399999999999999</v>
@@ -23065,7 +23068,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23271,7 +23274,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23477,7 +23480,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23558,7 +23561,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ109">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR109">
         <v>1.9</v>
@@ -23889,7 +23892,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -24997,7 +25000,7 @@
         <v>1.09</v>
       </c>
       <c r="AP116">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116">
         <v>1.06</v>
@@ -25125,7 +25128,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25537,7 +25540,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25743,7 +25746,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25949,7 +25952,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26155,7 +26158,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26854,7 +26857,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ125">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR125">
         <v>1.5</v>
@@ -26979,7 +26982,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27057,7 +27060,7 @@
         <v>1.09</v>
       </c>
       <c r="AP126">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ126">
         <v>1.28</v>
@@ -27185,7 +27188,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -28215,7 +28218,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28296,7 +28299,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ132">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR132">
         <v>1.57</v>
@@ -28421,7 +28424,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28705,7 +28708,7 @@
         <v>1.75</v>
       </c>
       <c r="AP134">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ134">
         <v>1.59</v>
@@ -29039,7 +29042,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29326,7 +29329,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ137">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR137">
         <v>1.35</v>
@@ -29451,7 +29454,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29529,7 +29532,7 @@
         <v>1.15</v>
       </c>
       <c r="AP138">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ138">
         <v>1.18</v>
@@ -29863,7 +29866,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -30069,7 +30072,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30353,7 +30356,7 @@
         <v>0.71</v>
       </c>
       <c r="AP142">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142">
         <v>0.78</v>
@@ -30481,7 +30484,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -31099,7 +31102,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31305,7 +31308,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31511,7 +31514,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31923,7 +31926,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32004,7 +32007,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ150">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR150">
         <v>1.57</v>
@@ -32335,7 +32338,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32413,7 +32416,7 @@
         <v>0.87</v>
       </c>
       <c r="AP152">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32541,7 +32544,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32953,7 +32956,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33159,7 +33162,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33365,7 +33368,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33983,7 +33986,7 @@
         <v>185</v>
       </c>
       <c r="P160" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q160">
         <v>2.85</v>
@@ -34270,7 +34273,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ161">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34601,7 +34604,7 @@
         <v>98</v>
       </c>
       <c r="P163" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q163">
         <v>3.65</v>
@@ -35013,7 +35016,7 @@
         <v>187</v>
       </c>
       <c r="P165" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q165">
         <v>2.69</v>
@@ -35091,7 +35094,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP165">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35219,7 +35222,7 @@
         <v>188</v>
       </c>
       <c r="P166" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q166">
         <v>2.01</v>
@@ -35300,7 +35303,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ166">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR166">
         <v>1.73</v>
@@ -35425,7 +35428,7 @@
         <v>189</v>
       </c>
       <c r="P167" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q167">
         <v>2.15</v>
@@ -35631,7 +35634,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -36867,7 +36870,7 @@
         <v>194</v>
       </c>
       <c r="P174" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q174">
         <v>13</v>
@@ -37024,6 +37027,212 @@
       </c>
       <c r="BP174">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7451139</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45795.45833333334</v>
+      </c>
+      <c r="F175">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" t="s">
+        <v>71</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>195</v>
+      </c>
+      <c r="P175" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q175">
+        <v>2.45</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>4.7</v>
+      </c>
+      <c r="T175">
+        <v>1.38</v>
+      </c>
+      <c r="U175">
+        <v>2.8</v>
+      </c>
+      <c r="V175">
+        <v>2.95</v>
+      </c>
+      <c r="W175">
+        <v>1.36</v>
+      </c>
+      <c r="X175">
+        <v>6.75</v>
+      </c>
+      <c r="Y175">
+        <v>1.06</v>
+      </c>
+      <c r="Z175">
+        <v>1.8</v>
+      </c>
+      <c r="AA175">
+        <v>3.3</v>
+      </c>
+      <c r="AB175">
+        <v>3.6</v>
+      </c>
+      <c r="AC175">
+        <v>1.02</v>
+      </c>
+      <c r="AD175">
+        <v>10.8</v>
+      </c>
+      <c r="AE175">
+        <v>1.26</v>
+      </c>
+      <c r="AF175">
+        <v>3.4</v>
+      </c>
+      <c r="AG175">
+        <v>1.93</v>
+      </c>
+      <c r="AH175">
+        <v>1.8</v>
+      </c>
+      <c r="AI175">
+        <v>1.84</v>
+      </c>
+      <c r="AJ175">
+        <v>1.93</v>
+      </c>
+      <c r="AK175">
+        <v>1.25</v>
+      </c>
+      <c r="AL175">
+        <v>1.27</v>
+      </c>
+      <c r="AM175">
+        <v>1.95</v>
+      </c>
+      <c r="AN175">
+        <v>1.35</v>
+      </c>
+      <c r="AO175">
+        <v>0.41</v>
+      </c>
+      <c r="AP175">
+        <v>1.44</v>
+      </c>
+      <c r="AQ175">
+        <v>0.39</v>
+      </c>
+      <c r="AR175">
+        <v>1.5</v>
+      </c>
+      <c r="AS175">
+        <v>0.98</v>
+      </c>
+      <c r="AT175">
+        <v>2.48</v>
+      </c>
+      <c r="AU175">
+        <v>12</v>
+      </c>
+      <c r="AV175">
+        <v>6</v>
+      </c>
+      <c r="AW175">
+        <v>9</v>
+      </c>
+      <c r="AX175">
+        <v>3</v>
+      </c>
+      <c r="AY175">
+        <v>21</v>
+      </c>
+      <c r="AZ175">
+        <v>9</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>6</v>
+      </c>
+      <c r="BC175">
+        <v>9</v>
+      </c>
+      <c r="BD175">
+        <v>1.37</v>
+      </c>
+      <c r="BE175">
+        <v>9.1</v>
+      </c>
+      <c r="BF175">
+        <v>4.26</v>
+      </c>
+      <c r="BG175">
+        <v>1.39</v>
+      </c>
+      <c r="BH175">
+        <v>2.77</v>
+      </c>
+      <c r="BI175">
+        <v>1.65</v>
+      </c>
+      <c r="BJ175">
+        <v>2.12</v>
+      </c>
+      <c r="BK175">
+        <v>2.09</v>
+      </c>
+      <c r="BL175">
+        <v>1.69</v>
+      </c>
+      <c r="BM175">
+        <v>2.65</v>
+      </c>
+      <c r="BN175">
+        <v>1.42</v>
+      </c>
+      <c r="BO175">
+        <v>3.52</v>
+      </c>
+      <c r="BP175">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['35', '38', '73', '77']</t>
   </si>
   <si>
+    <t>['12', '78']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -1179,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2056,7 +2059,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2262,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2340,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ6">
         <v>1.29</v>
@@ -2880,7 +2883,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3086,7 +3089,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3373,7 +3376,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ11">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3704,7 +3707,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3910,7 +3913,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3988,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4116,7 +4119,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -5146,7 +5149,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5352,7 +5355,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5433,7 +5436,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ21">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5558,7 +5561,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5764,7 +5767,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6048,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6588,7 +6591,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6794,7 +6797,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7000,7 +7003,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7081,7 +7084,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ29">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7824,7 +7827,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -8030,7 +8033,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8108,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ34">
         <v>0.39</v>
@@ -8236,7 +8239,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -9472,7 +9475,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9678,7 +9681,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10171,7 +10174,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ44">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -10296,7 +10299,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10580,7 +10583,7 @@
         <v>1.2</v>
       </c>
       <c r="AP46">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46">
         <v>0.78</v>
@@ -10708,7 +10711,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10789,7 +10792,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ47">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.56</v>
@@ -10914,7 +10917,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -11120,7 +11123,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11326,7 +11329,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11738,7 +11741,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11944,7 +11947,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12022,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ53">
         <v>0.9399999999999999</v>
@@ -12356,7 +12359,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12768,7 +12771,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12974,7 +12977,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13467,7 +13470,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ60">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.28</v>
@@ -13798,7 +13801,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -14004,7 +14007,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14288,7 +14291,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ64">
         <v>1.06</v>
@@ -14416,7 +14419,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14622,7 +14625,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14828,7 +14831,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -15034,7 +15037,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15321,7 +15324,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ69">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.96</v>
@@ -15446,7 +15449,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15858,7 +15861,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16064,7 +16067,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16476,7 +16479,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16760,7 +16763,7 @@
         <v>1.71</v>
       </c>
       <c r="AP76">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ76">
         <v>1.28</v>
@@ -17506,7 +17509,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17587,7 +17590,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ80">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17918,7 +17921,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18124,7 +18127,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18330,7 +18333,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18742,7 +18745,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18820,10 +18823,10 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ86">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.59</v>
@@ -18948,7 +18951,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19154,7 +19157,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19360,7 +19363,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19772,7 +19775,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19978,7 +19981,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20184,7 +20187,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20880,7 +20883,7 @@
         <v>0.78</v>
       </c>
       <c r="AP96">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ96">
         <v>1.29</v>
@@ -21214,7 +21217,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21501,7 +21504,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ99">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21626,7 +21629,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -22528,7 +22531,7 @@
         <v>0.9</v>
       </c>
       <c r="AP104">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22656,7 +22659,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22862,7 +22865,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23068,7 +23071,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23274,7 +23277,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23480,7 +23483,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23892,7 +23895,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -23973,7 +23976,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ111">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24382,7 +24385,7 @@
         <v>1.2</v>
       </c>
       <c r="AP113">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -25128,7 +25131,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25415,7 +25418,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ118">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR118">
         <v>1.07</v>
@@ -25540,7 +25543,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25746,7 +25749,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25952,7 +25955,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26158,7 +26161,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26854,7 +26857,7 @@
         <v>0.09</v>
       </c>
       <c r="AP125">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ125">
         <v>0.39</v>
@@ -26982,7 +26985,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27188,7 +27191,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -28218,7 +28221,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28424,7 +28427,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -28711,7 +28714,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ134">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.47</v>
@@ -28914,7 +28917,7 @@
         <v>0.77</v>
       </c>
       <c r="AP135">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ135">
         <v>0.78</v>
@@ -29042,7 +29045,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29454,7 +29457,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29866,7 +29869,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -29947,7 +29950,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ140">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30072,7 +30075,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30484,7 +30487,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -31102,7 +31105,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31180,7 +31183,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ146">
         <v>0.9399999999999999</v>
@@ -31308,7 +31311,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31514,7 +31517,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31926,7 +31929,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32213,7 +32216,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ151">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR151">
         <v>1.37</v>
@@ -32338,7 +32341,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32544,7 +32547,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32956,7 +32959,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33034,7 +33037,7 @@
         <v>0.93</v>
       </c>
       <c r="AP155">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ155">
         <v>1.06</v>
@@ -33162,7 +33165,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33368,7 +33371,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33861,7 +33864,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ159">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR159">
         <v>1.98</v>
@@ -33986,7 +33989,7 @@
         <v>185</v>
       </c>
       <c r="P160" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q160">
         <v>2.85</v>
@@ -34604,7 +34607,7 @@
         <v>98</v>
       </c>
       <c r="P163" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q163">
         <v>3.65</v>
@@ -34682,7 +34685,7 @@
         <v>1.19</v>
       </c>
       <c r="AP163">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ163">
         <v>1.28</v>
@@ -35016,7 +35019,7 @@
         <v>187</v>
       </c>
       <c r="P165" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q165">
         <v>2.69</v>
@@ -35222,7 +35225,7 @@
         <v>188</v>
       </c>
       <c r="P166" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q166">
         <v>2.01</v>
@@ -35428,7 +35431,7 @@
         <v>189</v>
       </c>
       <c r="P167" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q167">
         <v>2.15</v>
@@ -35634,7 +35637,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35715,7 +35718,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ168">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR168">
         <v>1.23</v>
@@ -36870,7 +36873,7 @@
         <v>194</v>
       </c>
       <c r="P174" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q174">
         <v>13</v>
@@ -37233,6 +37236,212 @@
       </c>
       <c r="BP175">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7451140</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45795.57291666666</v>
+      </c>
+      <c r="F176">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>74</v>
+      </c>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>196</v>
+      </c>
+      <c r="P176" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q176">
+        <v>4.4</v>
+      </c>
+      <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
+        <v>2.9</v>
+      </c>
+      <c r="T176">
+        <v>1.47</v>
+      </c>
+      <c r="U176">
+        <v>2.5</v>
+      </c>
+      <c r="V176">
+        <v>3.2</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y176">
+        <v>1.04</v>
+      </c>
+      <c r="Z176">
+        <v>3.3</v>
+      </c>
+      <c r="AA176">
+        <v>2.94</v>
+      </c>
+      <c r="AB176">
+        <v>2.1</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>7</v>
+      </c>
+      <c r="AE176">
+        <v>1.36</v>
+      </c>
+      <c r="AF176">
+        <v>2.8</v>
+      </c>
+      <c r="AG176">
+        <v>2.25</v>
+      </c>
+      <c r="AH176">
+        <v>1.57</v>
+      </c>
+      <c r="AI176">
+        <v>1.96</v>
+      </c>
+      <c r="AJ176">
+        <v>1.7</v>
+      </c>
+      <c r="AK176">
+        <v>1.36</v>
+      </c>
+      <c r="AL176">
+        <v>1.31</v>
+      </c>
+      <c r="AM176">
+        <v>1.29</v>
+      </c>
+      <c r="AN176">
+        <v>2.18</v>
+      </c>
+      <c r="AO176">
+        <v>1.59</v>
+      </c>
+      <c r="AP176">
+        <v>2.22</v>
+      </c>
+      <c r="AQ176">
+        <v>1.5</v>
+      </c>
+      <c r="AR176">
+        <v>1.55</v>
+      </c>
+      <c r="AS176">
+        <v>1.24</v>
+      </c>
+      <c r="AT176">
+        <v>2.79</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>5</v>
+      </c>
+      <c r="AW176">
+        <v>6</v>
+      </c>
+      <c r="AX176">
+        <v>3</v>
+      </c>
+      <c r="AY176">
+        <v>11</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>4</v>
+      </c>
+      <c r="BB176">
+        <v>1</v>
+      </c>
+      <c r="BC176">
+        <v>5</v>
+      </c>
+      <c r="BD176">
+        <v>2.01</v>
+      </c>
+      <c r="BE176">
+        <v>7.9</v>
+      </c>
+      <c r="BF176">
+        <v>2.08</v>
+      </c>
+      <c r="BG176">
+        <v>1.42</v>
+      </c>
+      <c r="BH176">
+        <v>2.63</v>
+      </c>
+      <c r="BI176">
+        <v>1.7</v>
+      </c>
+      <c r="BJ176">
+        <v>2</v>
+      </c>
+      <c r="BK176">
+        <v>2.19</v>
+      </c>
+      <c r="BL176">
+        <v>1.64</v>
+      </c>
+      <c r="BM176">
+        <v>2.78</v>
+      </c>
+      <c r="BN176">
+        <v>1.39</v>
+      </c>
+      <c r="BO176">
+        <v>3.75</v>
+      </c>
+      <c r="BP176">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,12 @@
     <t>['12', '78']</t>
   </si>
   <si>
+    <t>['12', '50']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -742,9 +748,6 @@
     <t>['14', '53']</t>
   </si>
   <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['45']</t>
   </si>
   <si>
@@ -821,6 +824,12 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['29', '61', '89']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1.06</v>
@@ -1725,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1931,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ4">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2059,7 +2068,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2137,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>0.78</v>
@@ -2265,7 +2274,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2346,7 +2355,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2549,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ7">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2883,7 +2892,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2964,7 +2973,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ9">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3089,7 +3098,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3167,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1.28</v>
@@ -3579,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>0.78</v>
@@ -3707,7 +3716,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3788,7 +3797,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ13">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3913,7 +3922,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3994,7 +4003,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR14">
         <v>1.27</v>
@@ -4119,7 +4128,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4197,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4403,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ16">
         <v>1.06</v>
@@ -4818,7 +4827,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR18">
         <v>0.8100000000000001</v>
@@ -5021,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>0.39</v>
@@ -5149,7 +5158,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5230,7 +5239,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ20">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -5355,7 +5364,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5433,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5561,7 +5570,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5639,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>0.78</v>
@@ -5767,7 +5776,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6260,7 +6269,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR25">
         <v>1.8</v>
@@ -6463,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ26">
         <v>1.28</v>
@@ -6591,7 +6600,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6669,10 +6678,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6797,7 +6806,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6878,7 +6887,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -7003,7 +7012,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7081,7 +7090,7 @@
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7287,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR30">
         <v>1.82</v>
@@ -7493,10 +7502,10 @@
         <v>1.33</v>
       </c>
       <c r="AP31">
+        <v>0.89</v>
+      </c>
+      <c r="AQ31">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ31">
-        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.34</v>
@@ -7827,7 +7836,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -8033,7 +8042,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -8239,7 +8248,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8523,7 +8532,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ36">
         <v>0.78</v>
@@ -8729,7 +8738,7 @@
         <v>0.75</v>
       </c>
       <c r="AP37">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ37">
         <v>1.06</v>
@@ -8935,10 +8944,10 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR38">
         <v>1.94</v>
@@ -9141,10 +9150,10 @@
         <v>1.25</v>
       </c>
       <c r="AP39">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR39">
         <v>1.73</v>
@@ -9347,10 +9356,10 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ40">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9475,7 +9484,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9553,10 +9562,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -9681,7 +9690,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10299,7 +10308,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10711,7 +10720,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10917,7 +10926,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10995,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11123,7 +11132,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11329,7 +11338,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11410,7 +11419,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR50">
         <v>1.52</v>
@@ -11741,7 +11750,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11947,7 +11956,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12028,7 +12037,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ53">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12231,10 +12240,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12359,7 +12368,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12437,7 +12446,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12643,7 +12652,7 @@
         <v>0.8</v>
       </c>
       <c r="AP56">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>1.06</v>
@@ -12771,7 +12780,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12849,7 +12858,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ57">
         <v>1.28</v>
@@ -12977,7 +12986,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13058,7 +13067,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13261,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>0.39</v>
@@ -13676,7 +13685,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ61">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR61">
         <v>1.34</v>
@@ -13801,7 +13810,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13879,10 +13888,10 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ62">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR62">
         <v>0.93</v>
@@ -14007,7 +14016,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -14085,7 +14094,7 @@
         <v>1.83</v>
       </c>
       <c r="AP63">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63">
         <v>1.28</v>
@@ -14419,7 +14428,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14500,7 +14509,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14625,7 +14634,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14703,7 +14712,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14831,7 +14840,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14912,7 +14921,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.18</v>
@@ -15037,7 +15046,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15118,7 +15127,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR68">
         <v>1.39</v>
@@ -15321,7 +15330,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15449,7 +15458,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15527,10 +15536,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR70">
         <v>1.61</v>
@@ -15733,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ71">
         <v>0.39</v>
@@ -15861,7 +15870,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16067,7 +16076,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16351,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ74">
         <v>0.39</v>
@@ -16479,7 +16488,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16969,10 +16978,10 @@
         <v>0.86</v>
       </c>
       <c r="AP77">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR77">
         <v>1.79</v>
@@ -17178,7 +17187,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
         <v>1.18</v>
@@ -17381,10 +17390,10 @@
         <v>1.43</v>
       </c>
       <c r="AP79">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ79">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR79">
         <v>1.09</v>
@@ -17509,7 +17518,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17587,7 +17596,7 @@
         <v>1.86</v>
       </c>
       <c r="AP80">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -17793,10 +17802,10 @@
         <v>1.14</v>
       </c>
       <c r="AP81">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17921,7 +17930,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18127,7 +18136,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18333,7 +18342,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18745,7 +18754,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18951,7 +18960,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -19029,7 +19038,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
         <v>1.06</v>
@@ -19157,7 +19166,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19235,10 +19244,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ88">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR88">
         <v>1.12</v>
@@ -19363,7 +19372,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>1.91</v>
@@ -19441,10 +19450,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR89">
         <v>1.93</v>
@@ -19647,10 +19656,10 @@
         <v>0.88</v>
       </c>
       <c r="AP90">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
         <v>1.63</v>
@@ -19775,7 +19784,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -19853,10 +19862,10 @@
         <v>1.25</v>
       </c>
       <c r="AP91">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ91">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR91">
         <v>1.08</v>
@@ -19981,7 +19990,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>1.95</v>
@@ -20059,7 +20068,7 @@
         <v>0.89</v>
       </c>
       <c r="AP92">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>0.78</v>
@@ -20187,7 +20196,7 @@
         <v>120</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20265,10 +20274,10 @@
         <v>0.89</v>
       </c>
       <c r="AP93">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR93">
         <v>1.14</v>
@@ -20471,7 +20480,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ94">
         <v>1.06</v>
@@ -20677,10 +20686,10 @@
         <v>1.22</v>
       </c>
       <c r="AP95">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR95">
         <v>1.66</v>
@@ -20886,7 +20895,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ96">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21217,7 +21226,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>3.75</v>
@@ -21295,10 +21304,10 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ98">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR98">
         <v>1.13</v>
@@ -21629,7 +21638,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>4.75</v>
@@ -21710,7 +21719,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ100">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR100">
         <v>1.46</v>
@@ -21913,7 +21922,7 @@
         <v>1.33</v>
       </c>
       <c r="AP101">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
         <v>1.28</v>
@@ -22119,7 +22128,7 @@
         <v>0.9</v>
       </c>
       <c r="AP102">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ102">
         <v>0.78</v>
@@ -22325,7 +22334,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22534,7 +22543,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -22659,7 +22668,7 @@
         <v>81</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="Q105">
         <v>1.93</v>
@@ -22737,7 +22746,7 @@
         <v>0.9</v>
       </c>
       <c r="AP105">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ105">
         <v>1.06</v>
@@ -22865,7 +22874,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22946,7 +22955,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ106">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR106">
         <v>1.58</v>
@@ -23071,7 +23080,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23149,10 +23158,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ107">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR107">
         <v>1.16</v>
@@ -23277,7 +23286,7 @@
         <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>4.7</v>
@@ -23358,7 +23367,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ108">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR108">
         <v>1.28</v>
@@ -23483,7 +23492,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q109">
         <v>1.56</v>
@@ -23561,7 +23570,7 @@
         <v>0.1</v>
       </c>
       <c r="AP109">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ109">
         <v>0.39</v>
@@ -23770,7 +23779,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ110">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -23895,7 +23904,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>3.55</v>
@@ -23973,7 +23982,7 @@
         <v>1.7</v>
       </c>
       <c r="AP111">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111">
         <v>1.5</v>
@@ -24182,7 +24191,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR112">
         <v>1.47</v>
@@ -24591,7 +24600,7 @@
         <v>1.2</v>
       </c>
       <c r="AP114">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ114">
         <v>1.28</v>
@@ -24797,7 +24806,7 @@
         <v>0.82</v>
       </c>
       <c r="AP115">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ115">
         <v>0.78</v>
@@ -25131,7 +25140,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25212,7 +25221,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ117">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR117">
         <v>1.26</v>
@@ -25415,7 +25424,7 @@
         <v>1.82</v>
       </c>
       <c r="AP118">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118">
         <v>1.5</v>
@@ -25543,7 +25552,7 @@
         <v>161</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q119">
         <v>2.49</v>
@@ -25621,10 +25630,10 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ119">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR119">
         <v>1.57</v>
@@ -25749,7 +25758,7 @@
         <v>162</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25827,10 +25836,10 @@
         <v>1.27</v>
       </c>
       <c r="AP120">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ120">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR120">
         <v>1.93</v>
@@ -25955,7 +25964,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>3.6</v>
@@ -26033,10 +26042,10 @@
         <v>0.75</v>
       </c>
       <c r="AP121">
+        <v>0.89</v>
+      </c>
+      <c r="AQ121">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ121">
-        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.15</v>
@@ -26161,7 +26170,7 @@
         <v>163</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>1.77</v>
@@ -26239,7 +26248,7 @@
         <v>0.75</v>
       </c>
       <c r="AP122">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ122">
         <v>0.78</v>
@@ -26985,7 +26994,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27191,7 +27200,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>3.3</v>
@@ -27269,10 +27278,10 @@
         <v>1.15</v>
       </c>
       <c r="AP127">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR127">
         <v>1.05</v>
@@ -27475,7 +27484,7 @@
         <v>1.08</v>
       </c>
       <c r="AP128">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ128">
         <v>1.06</v>
@@ -27681,10 +27690,10 @@
         <v>1.08</v>
       </c>
       <c r="AP129">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ129">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR129">
         <v>1.87</v>
@@ -27887,10 +27896,10 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR130">
         <v>1.57</v>
@@ -28093,10 +28102,10 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ131">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR131">
         <v>1.7</v>
@@ -28221,7 +28230,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28427,7 +28436,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>3.2</v>
@@ -29045,7 +29054,7 @@
         <v>172</v>
       </c>
       <c r="P136" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q136">
         <v>5.5</v>
@@ -29457,7 +29466,7 @@
         <v>81</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q138">
         <v>4.33</v>
@@ -29538,7 +29547,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ138">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -29869,7 +29878,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>4.4</v>
@@ -30075,7 +30084,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>4.2</v>
@@ -30153,7 +30162,7 @@
         <v>0.92</v>
       </c>
       <c r="AP141">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ141">
         <v>1</v>
@@ -30487,7 +30496,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q143">
         <v>3.7</v>
@@ -30565,7 +30574,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ143">
         <v>1.06</v>
@@ -30771,7 +30780,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -30977,10 +30986,10 @@
         <v>0.93</v>
       </c>
       <c r="AP145">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR145">
         <v>1.7</v>
@@ -31105,7 +31114,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q146">
         <v>2.08</v>
@@ -31186,7 +31195,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ146">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR146">
         <v>1.53</v>
@@ -31311,7 +31320,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31389,7 +31398,7 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ147">
         <v>1.28</v>
@@ -31517,7 +31526,7 @@
         <v>81</v>
       </c>
       <c r="P148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31598,7 +31607,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ148">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR148">
         <v>1.55</v>
@@ -31804,7 +31813,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ149">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR149">
         <v>1.39</v>
@@ -31929,7 +31938,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32007,7 +32016,7 @@
         <v>0.21</v>
       </c>
       <c r="AP150">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ150">
         <v>0.39</v>
@@ -32341,7 +32350,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q152">
         <v>2.67</v>
@@ -32422,7 +32431,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152">
         <v>1.49</v>
@@ -32547,7 +32556,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q153">
         <v>2.25</v>
@@ -32831,7 +32840,7 @@
         <v>1.27</v>
       </c>
       <c r="AP154">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154">
         <v>1.28</v>
@@ -32959,7 +32968,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q155">
         <v>2.15</v>
@@ -33165,7 +33174,7 @@
         <v>81</v>
       </c>
       <c r="P156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>1.9</v>
@@ -33243,7 +33252,7 @@
         <v>0.8</v>
       </c>
       <c r="AP156">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33371,7 +33380,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33452,7 +33461,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ157">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR157">
         <v>1.42</v>
@@ -33655,10 +33664,10 @@
         <v>1.27</v>
       </c>
       <c r="AP158">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ158">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR158">
         <v>1.63</v>
@@ -33861,7 +33870,7 @@
         <v>1.6</v>
       </c>
       <c r="AP159">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ159">
         <v>1.5</v>
@@ -33989,7 +33998,7 @@
         <v>185</v>
       </c>
       <c r="P160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q160">
         <v>2.85</v>
@@ -34070,7 +34079,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ160">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR160">
         <v>1.38</v>
@@ -34273,7 +34282,7 @@
         <v>0.4</v>
       </c>
       <c r="AP161">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ161">
         <v>0.39</v>
@@ -34607,7 +34616,7 @@
         <v>98</v>
       </c>
       <c r="P163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q163">
         <v>3.65</v>
@@ -35019,7 +35028,7 @@
         <v>187</v>
       </c>
       <c r="P165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q165">
         <v>2.69</v>
@@ -35225,7 +35234,7 @@
         <v>188</v>
       </c>
       <c r="P166" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q166">
         <v>2.01</v>
@@ -35303,7 +35312,7 @@
         <v>0.44</v>
       </c>
       <c r="AP166">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ166">
         <v>0.39</v>
@@ -35431,7 +35440,7 @@
         <v>189</v>
       </c>
       <c r="P167" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q167">
         <v>2.15</v>
@@ -35509,10 +35518,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP167">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ167">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR167">
         <v>1.64</v>
@@ -35637,7 +35646,7 @@
         <v>81</v>
       </c>
       <c r="P168" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -35715,7 +35724,7 @@
         <v>1.5</v>
       </c>
       <c r="AP168">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ168">
         <v>1.5</v>
@@ -35921,10 +35930,10 @@
         <v>1.38</v>
       </c>
       <c r="AP169">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ169">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR169">
         <v>1.97</v>
@@ -36127,10 +36136,10 @@
         <v>1.19</v>
       </c>
       <c r="AP170">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AQ170">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR170">
         <v>1.03</v>
@@ -36336,7 +36345,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ171">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR171">
         <v>1.4</v>
@@ -36873,7 +36882,7 @@
         <v>194</v>
       </c>
       <c r="P174" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q174">
         <v>13</v>
@@ -37442,6 +37451,1036 @@
       </c>
       <c r="BP176">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7451143</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45801.59375</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>71</v>
+      </c>
+      <c r="H177" t="s">
+        <v>77</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>81</v>
+      </c>
+      <c r="P177" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q177">
+        <v>2.94</v>
+      </c>
+      <c r="R177">
+        <v>2.1</v>
+      </c>
+      <c r="S177">
+        <v>3.35</v>
+      </c>
+      <c r="T177">
+        <v>1.38</v>
+      </c>
+      <c r="U177">
+        <v>2.8</v>
+      </c>
+      <c r="V177">
+        <v>2.65</v>
+      </c>
+      <c r="W177">
+        <v>1.43</v>
+      </c>
+      <c r="X177">
+        <v>6.5</v>
+      </c>
+      <c r="Y177">
+        <v>1.1</v>
+      </c>
+      <c r="Z177">
+        <v>2.42</v>
+      </c>
+      <c r="AA177">
+        <v>3.1</v>
+      </c>
+      <c r="AB177">
+        <v>2.75</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE177">
+        <v>1.28</v>
+      </c>
+      <c r="AF177">
+        <v>3.6</v>
+      </c>
+      <c r="AG177">
+        <v>1.85</v>
+      </c>
+      <c r="AH177">
+        <v>1.95</v>
+      </c>
+      <c r="AI177">
+        <v>1.65</v>
+      </c>
+      <c r="AJ177">
+        <v>2.1</v>
+      </c>
+      <c r="AK177">
+        <v>1.35</v>
+      </c>
+      <c r="AL177">
+        <v>1.3</v>
+      </c>
+      <c r="AM177">
+        <v>1.55</v>
+      </c>
+      <c r="AN177">
+        <v>1.76</v>
+      </c>
+      <c r="AO177">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP177">
+        <v>1.67</v>
+      </c>
+      <c r="AQ177">
+        <v>1.06</v>
+      </c>
+      <c r="AR177">
+        <v>1.05</v>
+      </c>
+      <c r="AS177">
+        <v>1.49</v>
+      </c>
+      <c r="AT177">
+        <v>2.54</v>
+      </c>
+      <c r="AU177">
+        <v>4</v>
+      </c>
+      <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>5</v>
+      </c>
+      <c r="AX177">
+        <v>5</v>
+      </c>
+      <c r="AY177">
+        <v>9</v>
+      </c>
+      <c r="AZ177">
+        <v>10</v>
+      </c>
+      <c r="BA177">
+        <v>5</v>
+      </c>
+      <c r="BB177">
+        <v>7</v>
+      </c>
+      <c r="BC177">
+        <v>12</v>
+      </c>
+      <c r="BD177">
+        <v>2.18</v>
+      </c>
+      <c r="BE177">
+        <v>7.1</v>
+      </c>
+      <c r="BF177">
+        <v>2</v>
+      </c>
+      <c r="BG177">
+        <v>1.38</v>
+      </c>
+      <c r="BH177">
+        <v>2.8</v>
+      </c>
+      <c r="BI177">
+        <v>1.65</v>
+      </c>
+      <c r="BJ177">
+        <v>2.1</v>
+      </c>
+      <c r="BK177">
+        <v>2.39</v>
+      </c>
+      <c r="BL177">
+        <v>1.7</v>
+      </c>
+      <c r="BM177">
+        <v>2.62</v>
+      </c>
+      <c r="BN177">
+        <v>1.43</v>
+      </c>
+      <c r="BO177">
+        <v>3.5</v>
+      </c>
+      <c r="BP177">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7451141</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F178">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>75</v>
+      </c>
+      <c r="H178" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>81</v>
+      </c>
+      <c r="P178" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q178">
+        <v>6.5</v>
+      </c>
+      <c r="R178">
+        <v>2.34</v>
+      </c>
+      <c r="S178">
+        <v>1.89</v>
+      </c>
+      <c r="T178">
+        <v>1.32</v>
+      </c>
+      <c r="U178">
+        <v>3.1</v>
+      </c>
+      <c r="V178">
+        <v>2.62</v>
+      </c>
+      <c r="W178">
+        <v>1.45</v>
+      </c>
+      <c r="X178">
+        <v>6.65</v>
+      </c>
+      <c r="Y178">
+        <v>1.05</v>
+      </c>
+      <c r="Z178">
+        <v>7.6</v>
+      </c>
+      <c r="AA178">
+        <v>4.33</v>
+      </c>
+      <c r="AB178">
+        <v>1.41</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>9</v>
+      </c>
+      <c r="AE178">
+        <v>1.25</v>
+      </c>
+      <c r="AF178">
+        <v>3.6</v>
+      </c>
+      <c r="AG178">
+        <v>1.75</v>
+      </c>
+      <c r="AH178">
+        <v>1.97</v>
+      </c>
+      <c r="AI178">
+        <v>2.08</v>
+      </c>
+      <c r="AJ178">
+        <v>1.75</v>
+      </c>
+      <c r="AK178">
+        <v>2.88</v>
+      </c>
+      <c r="AL178">
+        <v>1.18</v>
+      </c>
+      <c r="AM178">
+        <v>1.02</v>
+      </c>
+      <c r="AN178">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO178">
+        <v>1.18</v>
+      </c>
+      <c r="AP178">
+        <v>0.89</v>
+      </c>
+      <c r="AQ178">
+        <v>1.28</v>
+      </c>
+      <c r="AR178">
+        <v>1.23</v>
+      </c>
+      <c r="AS178">
+        <v>1.43</v>
+      </c>
+      <c r="AT178">
+        <v>2.66</v>
+      </c>
+      <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>4</v>
+      </c>
+      <c r="AX178">
+        <v>9</v>
+      </c>
+      <c r="AY178">
+        <v>9</v>
+      </c>
+      <c r="AZ178">
+        <v>13</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>5</v>
+      </c>
+      <c r="BC178">
+        <v>9</v>
+      </c>
+      <c r="BD178">
+        <v>4.35</v>
+      </c>
+      <c r="BE178">
+        <v>7.8</v>
+      </c>
+      <c r="BF178">
+        <v>1.54</v>
+      </c>
+      <c r="BG178">
+        <v>1.42</v>
+      </c>
+      <c r="BH178">
+        <v>2.79</v>
+      </c>
+      <c r="BI178">
+        <v>1.7</v>
+      </c>
+      <c r="BJ178">
+        <v>2.05</v>
+      </c>
+      <c r="BK178">
+        <v>2.14</v>
+      </c>
+      <c r="BL178">
+        <v>1.65</v>
+      </c>
+      <c r="BM178">
+        <v>2.7</v>
+      </c>
+      <c r="BN178">
+        <v>1.4</v>
+      </c>
+      <c r="BO178">
+        <v>3.6</v>
+      </c>
+      <c r="BP178">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7451142</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>72</v>
+      </c>
+      <c r="H179" t="s">
+        <v>79</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>197</v>
+      </c>
+      <c r="P179" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q179">
+        <v>1.65</v>
+      </c>
+      <c r="R179">
+        <v>2.45</v>
+      </c>
+      <c r="S179">
+        <v>5.7</v>
+      </c>
+      <c r="T179">
+        <v>1.31</v>
+      </c>
+      <c r="U179">
+        <v>3.3</v>
+      </c>
+      <c r="V179">
+        <v>2.44</v>
+      </c>
+      <c r="W179">
+        <v>1.5</v>
+      </c>
+      <c r="X179">
+        <v>5.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.12</v>
+      </c>
+      <c r="Z179">
+        <v>1.53</v>
+      </c>
+      <c r="AA179">
+        <v>4.31</v>
+      </c>
+      <c r="AB179">
+        <v>5</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>8.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.22</v>
+      </c>
+      <c r="AF179">
+        <v>3.95</v>
+      </c>
+      <c r="AG179">
+        <v>1.65</v>
+      </c>
+      <c r="AH179">
+        <v>2.06</v>
+      </c>
+      <c r="AI179">
+        <v>1.9</v>
+      </c>
+      <c r="AJ179">
+        <v>1.93</v>
+      </c>
+      <c r="AK179">
+        <v>1.08</v>
+      </c>
+      <c r="AL179">
+        <v>1.18</v>
+      </c>
+      <c r="AM179">
+        <v>2.9</v>
+      </c>
+      <c r="AN179">
+        <v>2.06</v>
+      </c>
+      <c r="AO179">
+        <v>1.29</v>
+      </c>
+      <c r="AP179">
+        <v>2.11</v>
+      </c>
+      <c r="AQ179">
+        <v>1.22</v>
+      </c>
+      <c r="AR179">
+        <v>1.75</v>
+      </c>
+      <c r="AS179">
+        <v>1.36</v>
+      </c>
+      <c r="AT179">
+        <v>3.11</v>
+      </c>
+      <c r="AU179">
+        <v>4</v>
+      </c>
+      <c r="AV179">
+        <v>2</v>
+      </c>
+      <c r="AW179">
+        <v>3</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>7</v>
+      </c>
+      <c r="AZ179">
+        <v>2</v>
+      </c>
+      <c r="BA179">
+        <v>4</v>
+      </c>
+      <c r="BB179">
+        <v>4</v>
+      </c>
+      <c r="BC179">
+        <v>8</v>
+      </c>
+      <c r="BD179">
+        <v>1.27</v>
+      </c>
+      <c r="BE179">
+        <v>8</v>
+      </c>
+      <c r="BF179">
+        <v>4.36</v>
+      </c>
+      <c r="BG179">
+        <v>1.33</v>
+      </c>
+      <c r="BH179">
+        <v>3.07</v>
+      </c>
+      <c r="BI179">
+        <v>1.61</v>
+      </c>
+      <c r="BJ179">
+        <v>2.29</v>
+      </c>
+      <c r="BK179">
+        <v>2.23</v>
+      </c>
+      <c r="BL179">
+        <v>1.75</v>
+      </c>
+      <c r="BM179">
+        <v>2.44</v>
+      </c>
+      <c r="BN179">
+        <v>1.49</v>
+      </c>
+      <c r="BO179">
+        <v>3.2</v>
+      </c>
+      <c r="BP179">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7451144</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>70</v>
+      </c>
+      <c r="H180" t="s">
+        <v>78</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>198</v>
+      </c>
+      <c r="P180" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q180">
+        <v>1.58</v>
+      </c>
+      <c r="R180">
+        <v>3</v>
+      </c>
+      <c r="S180">
+        <v>8.5</v>
+      </c>
+      <c r="T180">
+        <v>1.25</v>
+      </c>
+      <c r="U180">
+        <v>3.6</v>
+      </c>
+      <c r="V180">
+        <v>2.2</v>
+      </c>
+      <c r="W180">
+        <v>1.65</v>
+      </c>
+      <c r="X180">
+        <v>4.6</v>
+      </c>
+      <c r="Y180">
+        <v>1.15</v>
+      </c>
+      <c r="Z180">
+        <v>1.21</v>
+      </c>
+      <c r="AA180">
+        <v>5.6</v>
+      </c>
+      <c r="AB180">
+        <v>10</v>
+      </c>
+      <c r="AC180">
+        <v>1.03</v>
+      </c>
+      <c r="AD180">
+        <v>15</v>
+      </c>
+      <c r="AE180">
+        <v>1.15</v>
+      </c>
+      <c r="AF180">
+        <v>5.3</v>
+      </c>
+      <c r="AG180">
+        <v>1.5</v>
+      </c>
+      <c r="AH180">
+        <v>2.4</v>
+      </c>
+      <c r="AI180">
+        <v>2</v>
+      </c>
+      <c r="AJ180">
+        <v>1.75</v>
+      </c>
+      <c r="AK180">
+        <v>1.04</v>
+      </c>
+      <c r="AL180">
+        <v>1.11</v>
+      </c>
+      <c r="AM180">
+        <v>4.6</v>
+      </c>
+      <c r="AN180">
+        <v>2.29</v>
+      </c>
+      <c r="AO180">
+        <v>1</v>
+      </c>
+      <c r="AP180">
+        <v>2.33</v>
+      </c>
+      <c r="AQ180">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR180">
+        <v>2</v>
+      </c>
+      <c r="AS180">
+        <v>1.32</v>
+      </c>
+      <c r="AT180">
+        <v>3.32</v>
+      </c>
+      <c r="AU180">
+        <v>9</v>
+      </c>
+      <c r="AV180">
+        <v>2</v>
+      </c>
+      <c r="AW180">
+        <v>8</v>
+      </c>
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>17</v>
+      </c>
+      <c r="AZ180">
+        <v>7</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>9</v>
+      </c>
+      <c r="BD180">
+        <v>1.2</v>
+      </c>
+      <c r="BE180">
+        <v>10.5</v>
+      </c>
+      <c r="BF180">
+        <v>6.17</v>
+      </c>
+      <c r="BG180">
+        <v>1.36</v>
+      </c>
+      <c r="BH180">
+        <v>3.28</v>
+      </c>
+      <c r="BI180">
+        <v>1.6</v>
+      </c>
+      <c r="BJ180">
+        <v>2.22</v>
+      </c>
+      <c r="BK180">
+        <v>2</v>
+      </c>
+      <c r="BL180">
+        <v>1.75</v>
+      </c>
+      <c r="BM180">
+        <v>2.38</v>
+      </c>
+      <c r="BN180">
+        <v>1.46</v>
+      </c>
+      <c r="BO180">
+        <v>3.14</v>
+      </c>
+      <c r="BP180">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7451145</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45802.5</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s">
+        <v>76</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>83</v>
+      </c>
+      <c r="P181" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q181">
+        <v>3.2</v>
+      </c>
+      <c r="R181">
+        <v>2.24</v>
+      </c>
+      <c r="S181">
+        <v>3.1</v>
+      </c>
+      <c r="T181">
+        <v>1.42</v>
+      </c>
+      <c r="U181">
+        <v>2.9</v>
+      </c>
+      <c r="V181">
+        <v>2.75</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>6.75</v>
+      </c>
+      <c r="Y181">
+        <v>1.06</v>
+      </c>
+      <c r="Z181">
+        <v>2.63</v>
+      </c>
+      <c r="AA181">
+        <v>3.2</v>
+      </c>
+      <c r="AB181">
+        <v>2.5</v>
+      </c>
+      <c r="AC181">
+        <v>1.06</v>
+      </c>
+      <c r="AD181">
+        <v>8</v>
+      </c>
+      <c r="AE181">
+        <v>1.29</v>
+      </c>
+      <c r="AF181">
+        <v>3.1</v>
+      </c>
+      <c r="AG181">
+        <v>1.93</v>
+      </c>
+      <c r="AH181">
+        <v>1.83</v>
+      </c>
+      <c r="AI181">
+        <v>1.7</v>
+      </c>
+      <c r="AJ181">
+        <v>2.1</v>
+      </c>
+      <c r="AK181">
+        <v>1.36</v>
+      </c>
+      <c r="AL181">
+        <v>1.39</v>
+      </c>
+      <c r="AM181">
+        <v>1.44</v>
+      </c>
+      <c r="AN181">
+        <v>1.35</v>
+      </c>
+      <c r="AO181">
+        <v>1.06</v>
+      </c>
+      <c r="AP181">
+        <v>1.33</v>
+      </c>
+      <c r="AQ181">
+        <v>1.06</v>
+      </c>
+      <c r="AR181">
+        <v>1.65</v>
+      </c>
+      <c r="AS181">
+        <v>1.06</v>
+      </c>
+      <c r="AT181">
+        <v>2.71</v>
+      </c>
+      <c r="AU181">
+        <v>2</v>
+      </c>
+      <c r="AV181">
+        <v>8</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>9</v>
+      </c>
+      <c r="AY181">
+        <v>8</v>
+      </c>
+      <c r="AZ181">
+        <v>17</v>
+      </c>
+      <c r="BA181">
+        <v>4</v>
+      </c>
+      <c r="BB181">
+        <v>7</v>
+      </c>
+      <c r="BC181">
+        <v>11</v>
+      </c>
+      <c r="BD181">
+        <v>1.95</v>
+      </c>
+      <c r="BE181">
+        <v>6.2</v>
+      </c>
+      <c r="BF181">
+        <v>2.1</v>
+      </c>
+      <c r="BG181">
+        <v>1.4</v>
+      </c>
+      <c r="BH181">
+        <v>2.64</v>
+      </c>
+      <c r="BI181">
+        <v>1.8</v>
+      </c>
+      <c r="BJ181">
+        <v>2.07</v>
+      </c>
+      <c r="BK181">
+        <v>2.14</v>
+      </c>
+      <c r="BL181">
+        <v>1.66</v>
+      </c>
+      <c r="BM181">
+        <v>2.7</v>
+      </c>
+      <c r="BN181">
+        <v>1.3</v>
+      </c>
+      <c r="BO181">
+        <v>3.65</v>
+      </c>
+      <c r="BP181">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>
